--- a/SuppXLS/Scen_B_IND_Mitigations.xlsx
+++ b/SuppXLS/Scen_B_IND_Mitigations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39AB1C3-35B3-40AD-85F2-7301C7BFC3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61CB7291-1E2D-4CEC-B80D-392E7C5608CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5599,9 +5599,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6254,11 +6252,11 @@
       </c>
       <c r="M12" s="28">
         <f>M7*R12</f>
-        <v>1.26E-4</v>
+        <v>5.04E-4</v>
       </c>
       <c r="N12" s="28">
         <f>N7*S12</f>
-        <v>7.5600000000000005E-4</v>
+        <v>1.2600000000000001E-3</v>
       </c>
       <c r="O12" s="28">
         <f>O7*T12</f>
@@ -6268,10 +6266,10 @@
         <v>5</v>
       </c>
       <c r="R12" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S12" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T12" s="29">
         <v>1</v>
@@ -6336,11 +6334,11 @@
       </c>
       <c r="M13" s="28">
         <f t="shared" ref="M13:O14" si="2">M9*R13</f>
-        <v>2.1960000000000004E-2</v>
+        <v>8.7840000000000015E-2</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="2"/>
-        <v>0.13176000000000002</v>
+        <v>0.21960000000000002</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="2"/>
@@ -6350,10 +6348,10 @@
         <v>5</v>
       </c>
       <c r="R13" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S13" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T13" s="29">
         <v>1</v>
@@ -6395,11 +6393,11 @@
       </c>
       <c r="M14" s="32">
         <f t="shared" si="2"/>
-        <v>1.0407000000000001E-2</v>
+        <v>4.1628000000000005E-2</v>
       </c>
       <c r="N14" s="32">
         <f t="shared" si="2"/>
-        <v>6.2442000000000004E-2</v>
+        <v>0.10407000000000001</v>
       </c>
       <c r="O14" s="32">
         <f t="shared" si="2"/>
@@ -6409,10 +6407,10 @@
         <v>5</v>
       </c>
       <c r="R14" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S14" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T14" s="29">
         <v>1</v>
@@ -7055,11 +7053,11 @@
       </c>
       <c r="M24" s="28">
         <f>M22*R24</f>
-        <v>3.1341000000000001E-2</v>
+        <v>0.125364</v>
       </c>
       <c r="N24" s="28">
         <f>N22*S24</f>
-        <v>0.18804599999999996</v>
+        <v>0.31340999999999997</v>
       </c>
       <c r="O24" s="28">
         <f>O22*T24</f>
@@ -7069,10 +7067,10 @@
         <v>5</v>
       </c>
       <c r="R24" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S24" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T24" s="29">
         <v>1</v>
@@ -7153,11 +7151,11 @@
       </c>
       <c r="M26" s="28">
         <f>M18*R26</f>
-        <v>1.6700000000000002E-4</v>
+        <v>6.6800000000000008E-4</v>
       </c>
       <c r="N26" s="28">
         <f>N18*S26</f>
-        <v>1.0020000000000001E-3</v>
+        <v>1.67E-3</v>
       </c>
       <c r="O26" s="28">
         <f>O18*T26</f>
@@ -7167,10 +7165,10 @@
         <v>5</v>
       </c>
       <c r="R26" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S26" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T26" s="29">
         <v>1</v>
@@ -7212,11 +7210,11 @@
       </c>
       <c r="M27" s="32">
         <f>M21*R27</f>
-        <v>1.1575000000000001E-3</v>
+        <v>4.6300000000000004E-3</v>
       </c>
       <c r="N27" s="32">
         <f>N21*S27</f>
-        <v>6.9449999999999998E-3</v>
+        <v>1.1575E-2</v>
       </c>
       <c r="O27" s="32">
         <f>O21*T27</f>
@@ -7226,10 +7224,10 @@
         <v>5</v>
       </c>
       <c r="R27" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S27" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T27" s="29">
         <v>1</v>
@@ -7713,11 +7711,11 @@
       </c>
       <c r="M34" s="28">
         <f>M29*R34</f>
-        <v>2.7500000000000004E-5</v>
+        <v>1.1000000000000002E-4</v>
       </c>
       <c r="N34" s="28">
         <f>N29*S34</f>
-        <v>1.65E-4</v>
+        <v>2.7500000000000002E-4</v>
       </c>
       <c r="O34" s="28">
         <f>O29*T34</f>
@@ -7727,10 +7725,10 @@
         <v>5</v>
       </c>
       <c r="R34" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S34" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T34" s="29">
         <v>1</v>
@@ -7798,11 +7796,11 @@
       </c>
       <c r="M35" s="28">
         <f t="shared" ref="M35:O36" si="7">M31*R35</f>
-        <v>1.0090000000000001E-3</v>
+        <v>4.0360000000000005E-3</v>
       </c>
       <c r="N35" s="28">
         <f t="shared" si="7"/>
-        <v>6.0539999999999995E-3</v>
+        <v>1.009E-2</v>
       </c>
       <c r="O35" s="28">
         <f t="shared" si="7"/>
@@ -7812,10 +7810,10 @@
         <v>5</v>
       </c>
       <c r="R35" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S35" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T35" s="29">
         <v>1</v>
@@ -7857,11 +7855,11 @@
       </c>
       <c r="M36" s="32">
         <f t="shared" si="7"/>
-        <v>3.4575999999999996E-2</v>
+        <v>0.13830399999999998</v>
       </c>
       <c r="N36" s="32">
         <f t="shared" si="7"/>
-        <v>0.20745599999999997</v>
+        <v>0.34575999999999996</v>
       </c>
       <c r="O36" s="32">
         <f t="shared" si="7"/>
@@ -7871,10 +7869,10 @@
         <v>5</v>
       </c>
       <c r="R36" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S36" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T36" s="29">
         <v>1</v>
@@ -8425,11 +8423,11 @@
       </c>
       <c r="M44" s="28">
         <f>M38*R44</f>
-        <v>3.3500000000000001E-5</v>
+        <v>1.34E-4</v>
       </c>
       <c r="N44" s="28">
         <f>N38*S44</f>
-        <v>2.0100000000000001E-4</v>
+        <v>3.3500000000000001E-4</v>
       </c>
       <c r="O44" s="28">
         <f>O38*T44</f>
@@ -8439,10 +8437,10 @@
         <v>5</v>
       </c>
       <c r="R44" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S44" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T44" s="29">
         <v>1</v>
@@ -8484,11 +8482,11 @@
       </c>
       <c r="M45" s="28">
         <f t="shared" ref="M45:O46" si="17">M40*R45</f>
-        <v>6.0599999999999998E-4</v>
+        <v>2.4239999999999999E-3</v>
       </c>
       <c r="N45" s="28">
         <f t="shared" si="17"/>
-        <v>3.6359999999999995E-3</v>
+        <v>6.0599999999999994E-3</v>
       </c>
       <c r="O45" s="28">
         <f t="shared" si="17"/>
@@ -8498,10 +8496,10 @@
         <v>5</v>
       </c>
       <c r="R45" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S45" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T45" s="29">
         <v>1</v>
@@ -8537,11 +8535,11 @@
       </c>
       <c r="M46" s="32">
         <f t="shared" si="17"/>
-        <v>2.8720000000000004E-3</v>
+        <v>1.1488000000000002E-2</v>
       </c>
       <c r="N46" s="32">
         <f t="shared" si="17"/>
-        <v>1.7232000000000001E-2</v>
+        <v>2.8720000000000002E-2</v>
       </c>
       <c r="O46" s="32">
         <f t="shared" si="17"/>
@@ -8551,10 +8549,10 @@
         <v>5</v>
       </c>
       <c r="R46" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S46" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T46" s="29">
         <v>1</v>
@@ -9044,11 +9042,11 @@
       </c>
       <c r="M53" s="28">
         <f>M48*R53</f>
-        <v>1.295E-4</v>
+        <v>5.1800000000000001E-4</v>
       </c>
       <c r="N53" s="28">
         <f>N48*S53</f>
-        <v>7.7699999999999991E-4</v>
+        <v>1.2949999999999999E-3</v>
       </c>
       <c r="O53" s="28">
         <f>O48*T53</f>
@@ -9058,10 +9056,10 @@
         <v>5</v>
       </c>
       <c r="R53" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S53" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T53" s="29">
         <v>1</v>
@@ -9123,11 +9121,11 @@
       </c>
       <c r="M54" s="28">
         <f t="shared" ref="M54:O55" si="26">M50*R54</f>
-        <v>1.0659999999999999E-3</v>
+        <v>4.2639999999999996E-3</v>
       </c>
       <c r="N54" s="28">
         <f t="shared" si="26"/>
-        <v>6.3959999999999998E-3</v>
+        <v>1.0659999999999999E-2</v>
       </c>
       <c r="O54" s="28">
         <f t="shared" si="26"/>
@@ -9137,10 +9135,10 @@
         <v>5</v>
       </c>
       <c r="R54" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S54" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T54" s="29">
         <v>1</v>
@@ -9182,11 +9180,11 @@
       </c>
       <c r="M55" s="32">
         <f t="shared" si="26"/>
-        <v>2.4456500000000003E-2</v>
+        <v>9.782600000000001E-2</v>
       </c>
       <c r="N55" s="32">
         <f t="shared" si="26"/>
-        <v>0.14673900000000001</v>
+        <v>0.244565</v>
       </c>
       <c r="O55" s="32">
         <f t="shared" si="26"/>
@@ -9196,10 +9194,10 @@
         <v>5</v>
       </c>
       <c r="R55" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S55" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T55" s="29">
         <v>1</v>
@@ -9763,11 +9761,11 @@
       </c>
       <c r="M64" s="28">
         <f>M57*R64</f>
-        <v>7.400000000000001E-5</v>
+        <v>2.9600000000000004E-4</v>
       </c>
       <c r="N64" s="28">
         <f>N57*S64</f>
-        <v>4.4399999999999995E-4</v>
+        <v>7.3999999999999999E-4</v>
       </c>
       <c r="O64" s="28">
         <f>O57*T64</f>
@@ -9777,10 +9775,10 @@
         <v>5</v>
       </c>
       <c r="R64" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S64" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T64" s="29">
         <v>1</v>
@@ -9810,11 +9808,11 @@
       </c>
       <c r="M65" s="28">
         <f>M60*R65</f>
-        <v>9.1349999999999992E-4</v>
+        <v>3.6539999999999997E-3</v>
       </c>
       <c r="N65" s="28">
         <f>N60*S65</f>
-        <v>5.4809999999999989E-3</v>
+        <v>9.134999999999999E-3</v>
       </c>
       <c r="O65" s="28">
         <f>O60*T65</f>
@@ -9824,10 +9822,10 @@
         <v>5</v>
       </c>
       <c r="R65" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S65" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T65" s="29">
         <v>1</v>
@@ -9857,11 +9855,11 @@
       </c>
       <c r="M66" s="32">
         <f>M62*R66</f>
-        <v>2.8210499999999999E-2</v>
+        <v>0.112842</v>
       </c>
       <c r="N66" s="32">
         <f>N62*S66</f>
-        <v>0.169263</v>
+        <v>0.28210499999999999</v>
       </c>
       <c r="O66" s="32">
         <f>O62*T66</f>
@@ -9871,10 +9869,10 @@
         <v>5</v>
       </c>
       <c r="R66" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S66" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T66" s="29">
         <v>1</v>
@@ -10286,11 +10284,11 @@
       </c>
       <c r="M73" s="28">
         <f>M68*R73</f>
-        <v>9.4550000000000005E-4</v>
+        <v>3.7820000000000002E-3</v>
       </c>
       <c r="N73" s="28">
         <f>N68*S73</f>
-        <v>5.6730000000000001E-3</v>
+        <v>9.4549999999999999E-3</v>
       </c>
       <c r="O73" s="28">
         <f>O68*T73</f>
@@ -10300,10 +10298,10 @@
         <v>5</v>
       </c>
       <c r="R73" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S73" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T73" s="29">
         <v>1</v>
@@ -10359,11 +10357,11 @@
       </c>
       <c r="M74" s="28">
         <f t="shared" ref="M74:O75" si="46">M70*R74</f>
-        <v>1.1845E-3</v>
+        <v>4.738E-3</v>
       </c>
       <c r="N74" s="28">
         <f t="shared" si="46"/>
-        <v>7.1069999999999996E-3</v>
+        <v>1.1845E-2</v>
       </c>
       <c r="O74" s="28">
         <f t="shared" si="46"/>
@@ -10373,10 +10371,10 @@
         <v>5</v>
       </c>
       <c r="R74" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S74" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T74" s="29">
         <v>1</v>
@@ -10406,11 +10404,11 @@
       </c>
       <c r="M75" s="32">
         <f t="shared" si="46"/>
-        <v>1.6687000000000004E-2</v>
+        <v>6.6748000000000016E-2</v>
       </c>
       <c r="N75" s="32">
         <f t="shared" si="46"/>
-        <v>0.100122</v>
+        <v>0.16687000000000002</v>
       </c>
       <c r="O75" s="32">
         <f t="shared" si="46"/>
@@ -10420,10 +10418,10 @@
         <v>5</v>
       </c>
       <c r="R75" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S75" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T75" s="29">
         <v>1</v>
@@ -10978,11 +10976,11 @@
       </c>
       <c r="M84" s="24">
         <f>(M77+M81)*R84+$L84</f>
-        <v>2.6452800000000005E-2</v>
+        <v>8.8051199999999996E-2</v>
       </c>
       <c r="N84" s="24">
         <f t="shared" ref="N84:O84" si="59">(N77+N81)*S84+$L84</f>
-        <v>0.1291168</v>
+        <v>0.21124800000000002</v>
       </c>
       <c r="O84" s="24">
         <f t="shared" si="59"/>
@@ -10992,12 +10990,11 @@
         <v>5</v>
       </c>
       <c r="R84" s="29">
-        <f>5%*80%</f>
-        <v>4.0000000000000008E-2</v>
+        <v>0.16</v>
       </c>
       <c r="S84" s="29">
-        <f>30%*80%</f>
-        <v>0.24</v>
+        <f>50%*80%</f>
+        <v>0.4</v>
       </c>
       <c r="T84" s="29">
         <f>100%*80%</f>
@@ -11118,11 +11115,11 @@
       </c>
       <c r="M87" s="28">
         <f>M78*R87</f>
-        <v>1.1200000000000001E-4</v>
+        <v>4.4800000000000005E-4</v>
       </c>
       <c r="N87" s="28">
         <f>N78*S87</f>
-        <v>6.7200000000000007E-4</v>
+        <v>1.1200000000000001E-3</v>
       </c>
       <c r="O87" s="28">
         <f>O78*T87</f>
@@ -11132,10 +11129,10 @@
         <v>5</v>
       </c>
       <c r="R87" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S87" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T87" s="29">
         <v>1</v>
@@ -11165,11 +11162,11 @@
       </c>
       <c r="M88" s="28">
         <f>M80*R88</f>
-        <v>1.4255000000000001E-3</v>
+        <v>5.7020000000000005E-3</v>
       </c>
       <c r="N88" s="28">
         <f>N80*S88</f>
-        <v>8.5529999999999998E-3</v>
+        <v>1.4255E-2</v>
       </c>
       <c r="O88" s="28">
         <f>O80*T88</f>
@@ -11179,10 +11176,10 @@
         <v>5</v>
       </c>
       <c r="R88" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S88" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T88" s="29">
         <v>1</v>
@@ -11212,11 +11209,11 @@
       </c>
       <c r="M89" s="28">
         <f>M82*R89</f>
-        <v>3.823E-3</v>
+        <v>1.5292E-2</v>
       </c>
       <c r="N89" s="28">
         <f>N82*S89</f>
-        <v>2.2938E-2</v>
+        <v>3.823E-2</v>
       </c>
       <c r="O89" s="28">
         <f>O82*T89</f>
@@ -11226,10 +11223,10 @@
         <v>5</v>
       </c>
       <c r="R89" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S89" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T89" s="29">
         <v>1</v>
@@ -11263,7 +11260,7 @@
       </c>
       <c r="N90" s="32">
         <f>(N77+N81)*S90</f>
-        <v>3.0799199999999999E-2</v>
+        <v>5.1332000000000003E-2</v>
       </c>
       <c r="O90" s="32">
         <f>(O77+O81)*T90</f>
@@ -11277,8 +11274,8 @@
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="S90" s="29">
-        <f>30%*20%</f>
-        <v>0.06</v>
+        <f>50%*20%</f>
+        <v>0.1</v>
       </c>
       <c r="T90" s="29">
         <f>100%*20%</f>
@@ -11696,10 +11693,10 @@
         <v>5</v>
       </c>
       <c r="R97" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S97" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T97" s="29">
         <v>1</v>
@@ -11760,10 +11757,10 @@
         <v>5</v>
       </c>
       <c r="R98" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S98" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T98" s="29">
         <v>1</v>
@@ -11793,11 +11790,11 @@
       </c>
       <c r="M99" s="28">
         <f>M93*R97</f>
-        <v>4.5000000000000003E-5</v>
+        <v>1.8000000000000001E-4</v>
       </c>
       <c r="N99" s="28">
         <f>N93*S97</f>
-        <v>2.7E-4</v>
+        <v>4.4999999999999999E-4</v>
       </c>
       <c r="O99" s="28">
         <f>O93*T97</f>
@@ -11807,10 +11804,10 @@
         <v>5</v>
       </c>
       <c r="R99" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S99" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T99" s="29">
         <v>1</v>
@@ -11840,11 +11837,11 @@
       </c>
       <c r="M100" s="28">
         <f t="shared" ref="M100:O101" si="72">M96*R98</f>
-        <v>1.7900000000000001E-4</v>
+        <v>7.1600000000000006E-4</v>
       </c>
       <c r="N100" s="28">
         <f t="shared" si="72"/>
-        <v>1.0739999999999999E-3</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="O100" s="28">
         <f t="shared" si="72"/>
@@ -11878,11 +11875,11 @@
       </c>
       <c r="M101" s="32">
         <f t="shared" si="72"/>
-        <v>4.3324000000000001E-2</v>
+        <v>0.17329600000000001</v>
       </c>
       <c r="N101" s="32">
         <f t="shared" si="72"/>
-        <v>0.25994399999999995</v>
+        <v>0.43323999999999996</v>
       </c>
       <c r="O101" s="32">
         <f t="shared" si="72"/>
@@ -12177,10 +12174,10 @@
         <v>5</v>
       </c>
       <c r="R106" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S106" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T106" s="29">
         <v>1</v>
@@ -12242,10 +12239,10 @@
         <v>5</v>
       </c>
       <c r="R107" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S107" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T107" s="29">
         <v>1</v>
@@ -12316,11 +12313,11 @@
       </c>
       <c r="M108" s="28">
         <f>M103*R106</f>
-        <v>4.2650000000000001E-4</v>
+        <v>1.7060000000000001E-3</v>
       </c>
       <c r="N108" s="28">
         <f>N103*S106</f>
-        <v>2.5589999999999996E-3</v>
+        <v>4.2649999999999997E-3</v>
       </c>
       <c r="O108" s="28">
         <f>O103*T106</f>
@@ -12330,10 +12327,10 @@
         <v>5</v>
       </c>
       <c r="R108" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S108" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T108" s="29">
         <v>1</v>
@@ -12389,11 +12386,11 @@
       </c>
       <c r="M109" s="28">
         <f t="shared" ref="M109:O110" si="84">M105*R107</f>
-        <v>1.8610000000000002E-3</v>
+        <v>7.444000000000001E-3</v>
       </c>
       <c r="N109" s="28">
         <f t="shared" si="84"/>
-        <v>1.1166000000000001E-2</v>
+        <v>1.8610000000000002E-2</v>
       </c>
       <c r="O109" s="28">
         <f t="shared" si="84"/>
@@ -12427,11 +12424,11 @@
       </c>
       <c r="M110" s="32">
         <f t="shared" si="84"/>
-        <v>2.1146000000000002E-2</v>
+        <v>8.4584000000000006E-2</v>
       </c>
       <c r="N110" s="32">
         <f t="shared" si="84"/>
-        <v>0.12687599999999999</v>
+        <v>0.21146000000000001</v>
       </c>
       <c r="O110" s="32">
         <f t="shared" si="84"/>
@@ -12726,10 +12723,10 @@
         <v>5</v>
       </c>
       <c r="R115" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S115" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T115" s="29">
         <v>1</v>
@@ -12791,10 +12788,10 @@
         <v>5</v>
       </c>
       <c r="R116" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S116" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T116" s="29">
         <v>1</v>
@@ -12865,11 +12862,11 @@
       </c>
       <c r="M117" s="28">
         <f>M112*R115</f>
-        <v>1.145E-4</v>
+        <v>4.5800000000000002E-4</v>
       </c>
       <c r="N117" s="28">
         <f>N112*S115</f>
-        <v>6.87E-4</v>
+        <v>1.145E-3</v>
       </c>
       <c r="O117" s="28">
         <f>O112*T115</f>
@@ -12879,10 +12876,10 @@
         <v>5</v>
       </c>
       <c r="R117" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S117" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T117" s="29">
         <v>1</v>
@@ -12938,11 +12935,11 @@
       </c>
       <c r="M118" s="28">
         <f t="shared" ref="M118:O119" si="96">M114*R116</f>
-        <v>2.1999999999999998E-4</v>
+        <v>8.7999999999999992E-4</v>
       </c>
       <c r="N118" s="28">
         <f t="shared" si="96"/>
-        <v>1.3199999999999998E-3</v>
+        <v>2.1999999999999997E-3</v>
       </c>
       <c r="O118" s="28">
         <f t="shared" si="96"/>
@@ -12976,11 +12973,11 @@
       </c>
       <c r="M119" s="32">
         <f t="shared" si="96"/>
-        <v>8.8735000000000012E-3</v>
+        <v>3.5494000000000005E-2</v>
       </c>
       <c r="N119" s="32">
         <f t="shared" si="96"/>
-        <v>5.3241000000000004E-2</v>
+        <v>8.8735000000000008E-2</v>
       </c>
       <c r="O119" s="32">
         <f t="shared" si="96"/>
@@ -13275,10 +13272,10 @@
         <v>5</v>
       </c>
       <c r="R124" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S124" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T124" s="29">
         <v>1</v>
@@ -13340,10 +13337,10 @@
         <v>5</v>
       </c>
       <c r="R125" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S125" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T125" s="29">
         <v>1</v>
@@ -13414,11 +13411,11 @@
       </c>
       <c r="M126" s="28">
         <f>M121*R124</f>
-        <v>6.7000000000000002E-4</v>
+        <v>2.6800000000000001E-3</v>
       </c>
       <c r="N126" s="28">
         <f>N121*S124</f>
-        <v>4.0200000000000001E-3</v>
+        <v>6.7000000000000002E-3</v>
       </c>
       <c r="O126" s="28">
         <f>O121*T124</f>
@@ -13428,10 +13425,10 @@
         <v>5</v>
       </c>
       <c r="R126" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S126" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T126" s="29">
         <v>1</v>
@@ -13487,11 +13484,11 @@
       </c>
       <c r="M127" s="28">
         <f t="shared" ref="M127:O128" si="108">M123*R126</f>
-        <v>2.2825000000000002E-3</v>
+        <v>9.130000000000001E-3</v>
       </c>
       <c r="N127" s="28">
         <f t="shared" si="108"/>
-        <v>1.3695000000000001E-2</v>
+        <v>2.2825000000000002E-2</v>
       </c>
       <c r="O127" s="28">
         <f t="shared" si="108"/>
@@ -13880,10 +13877,10 @@
         <v>5</v>
       </c>
       <c r="R134" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S134" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T134" s="29">
         <v>1</v>
@@ -13959,10 +13956,10 @@
         <v>5</v>
       </c>
       <c r="R135" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S135" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T135" s="29">
         <v>1</v>
@@ -14018,11 +14015,11 @@
       </c>
       <c r="M136" s="28">
         <f>M130*R134</f>
-        <v>1.8800000000000002E-4</v>
+        <v>7.5200000000000006E-4</v>
       </c>
       <c r="N136" s="28">
         <f>N130*S134</f>
-        <v>1.1279999999999999E-3</v>
+        <v>1.8799999999999999E-3</v>
       </c>
       <c r="O136" s="28">
         <f>O130*T134</f>
@@ -14032,10 +14029,10 @@
         <v>5</v>
       </c>
       <c r="R136" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S136" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T136" s="29">
         <v>1</v>
@@ -14065,11 +14062,11 @@
       </c>
       <c r="M137" s="28">
         <f t="shared" ref="M137:O138" si="120">M133*R135</f>
-        <v>8.5399999999999994E-4</v>
+        <v>3.4159999999999998E-3</v>
       </c>
       <c r="N137" s="28">
         <f t="shared" si="120"/>
-        <v>5.1239999999999992E-3</v>
+        <v>8.539999999999999E-3</v>
       </c>
       <c r="O137" s="28">
         <f t="shared" si="120"/>
@@ -14103,11 +14100,11 @@
       </c>
       <c r="M138" s="32">
         <f t="shared" si="120"/>
-        <v>2.1451000000000001E-2</v>
+        <v>8.5804000000000005E-2</v>
       </c>
       <c r="N138" s="32">
         <f t="shared" si="120"/>
-        <v>0.12870599999999999</v>
+        <v>0.21451000000000001</v>
       </c>
       <c r="O138" s="32">
         <f t="shared" si="120"/>
@@ -14402,10 +14399,10 @@
         <v>5</v>
       </c>
       <c r="R143" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S143" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T143" s="29">
         <v>1</v>
@@ -14467,10 +14464,10 @@
         <v>5</v>
       </c>
       <c r="R144" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S144" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T144" s="29">
         <v>1</v>
@@ -14541,11 +14538,11 @@
       </c>
       <c r="M145" s="28">
         <f>M140*R143</f>
-        <v>8.0249999999999994E-4</v>
+        <v>3.2099999999999997E-3</v>
       </c>
       <c r="N145" s="28">
         <f>N140*S143</f>
-        <v>4.814999999999999E-3</v>
+        <v>8.0249999999999991E-3</v>
       </c>
       <c r="O145" s="28">
         <f>O140*T143</f>
@@ -14555,10 +14552,10 @@
         <v>5</v>
       </c>
       <c r="R145" s="29">
-        <v>0.05</v>
+        <v>0.2</v>
       </c>
       <c r="S145" s="29">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="T145" s="29">
         <v>1</v>
@@ -14614,11 +14611,11 @@
       </c>
       <c r="M146" s="28">
         <f t="shared" ref="M146:O147" si="132">M142*R144</f>
-        <v>3.5243999999999998E-2</v>
+        <v>0.14097599999999999</v>
       </c>
       <c r="N146" s="28">
         <f t="shared" si="132"/>
-        <v>0.21146399999999999</v>
+        <v>0.35243999999999998</v>
       </c>
       <c r="O146" s="28">
         <f t="shared" si="132"/>
@@ -14649,11 +14646,11 @@
       </c>
       <c r="M147" s="32">
         <f t="shared" si="132"/>
-        <v>3.6245000000000001E-3</v>
+        <v>1.4498E-2</v>
       </c>
       <c r="N147" s="32">
         <f t="shared" si="132"/>
-        <v>2.1746999999999999E-2</v>
+        <v>3.6244999999999999E-2</v>
       </c>
       <c r="O147" s="32">
         <f t="shared" si="132"/>

--- a/SuppXLS/Scen_B_IND_Mitigations.xlsx
+++ b/SuppXLS/Scen_B_IND_Mitigations.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39AB1C3-35B3-40AD-85F2-7301C7BFC3CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEF2EC-DA03-49A5-9713-93FD752A6C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="3" r:id="rId1"/>
     <sheet name="Regions" sheetId="2" r:id="rId2"/>
     <sheet name="IND_Shares" sheetId="1" r:id="rId3"/>
+    <sheet name="call_Fill" sheetId="4" r:id="rId4"/>
+    <sheet name="Input_shares" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -315,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="187">
   <si>
     <t>Development</t>
   </si>
@@ -742,9 +744,6 @@
     <t>Biofuels max substitutions</t>
   </si>
   <si>
-    <t>UC_RHSRTS~2018</t>
-  </si>
-  <si>
     <t>~UC_T: UC_FLO</t>
   </si>
   <si>
@@ -834,6 +833,72 @@
   <si>
     <t>*2021</t>
   </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>Pset_CO</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>I-DMD*0</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>attribute</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>lim_type</t>
+  </si>
+  <si>
+    <t>time_slice</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>commodity_group</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>stage</t>
+  </si>
+  <si>
+    <t>sow</t>
+  </si>
+  <si>
+    <t>ANNUAL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>I-DMD-ONM-E0</t>
+  </si>
+  <si>
+    <t>UC_RHSRTS~2022</t>
+  </si>
+  <si>
+    <t>DEACT_TFM_Fill-R: w=Input_shares; Hcol=Region</t>
+  </si>
+  <si>
+    <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
+  </si>
 </sst>
 </file>
 
@@ -845,7 +910,7 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -987,8 +1052,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1037,8 +1114,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1136,14 +1231,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1306,6 +1415,24 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1315,11 +1442,17 @@
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="7">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="6" xr:uid="{D91A0AF1-0098-4F5F-8DE1-C689F0DFDE14}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="3" xr:uid="{3434863D-C3B1-4840-9C7B-90AB321073B6}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{0BB49E32-0957-40EE-B859-1E3228F67F27}"/>
+    <cellStyle name="Normal 4" xfId="4" xr:uid="{3842C8A2-196A-45BA-99D2-3FEE6008B449}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1978,23 +2111,23 @@
   <dimension ref="A1:Z99"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="21.7109375" customWidth="1"/>
-    <col min="5" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" customWidth="1"/>
-    <col min="8" max="10" width="8.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" customWidth="1"/>
+    <col min="1" max="4" width="21.7265625" customWidth="1"/>
+    <col min="5" max="6" width="14.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="10" width="8.1796875" customWidth="1"/>
+    <col min="11" max="11" width="9.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8.1796875" customWidth="1"/>
     <col min="13" max="13" width="10" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" customWidth="1"/>
-    <col min="15" max="15" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A1" s="42"/>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -2022,7 +2155,7 @@
       <c r="Y1" s="43"/>
       <c r="Z1" s="43"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A2" s="42"/>
       <c r="B2" s="42"/>
       <c r="C2" s="42"/>
@@ -2050,7 +2183,7 @@
       <c r="Y2" s="43"/>
       <c r="Z2" s="43"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="42"/>
       <c r="B3" s="42"/>
       <c r="C3" s="42"/>
@@ -2078,7 +2211,7 @@
       <c r="Y3" s="43"/>
       <c r="Z3" s="43"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -2106,7 +2239,7 @@
       <c r="Y4" s="43"/>
       <c r="Z4" s="43"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -2134,7 +2267,7 @@
       <c r="Y5" s="43"/>
       <c r="Z5" s="43"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -2162,7 +2295,7 @@
       <c r="Y6" s="43"/>
       <c r="Z6" s="43"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
@@ -2190,7 +2323,7 @@
       <c r="Y7" s="43"/>
       <c r="Z7" s="43"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
@@ -2218,7 +2351,7 @@
       <c r="Y8" s="43"/>
       <c r="Z8" s="43"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="42"/>
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
@@ -2246,7 +2379,7 @@
       <c r="Y9" s="43"/>
       <c r="Z9" s="43"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="42"/>
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
@@ -2274,7 +2407,7 @@
       <c r="Y10" s="43"/>
       <c r="Z10" s="43"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="42"/>
       <c r="B11" s="42"/>
       <c r="C11" s="42"/>
@@ -2302,7 +2435,7 @@
       <c r="Y11" s="43"/>
       <c r="Z11" s="43"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="42"/>
       <c r="B12" s="42"/>
       <c r="C12" s="42"/>
@@ -2330,7 +2463,7 @@
       <c r="Y12" s="43"/>
       <c r="Z12" s="43"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="42"/>
       <c r="B13" s="42"/>
       <c r="C13" s="42"/>
@@ -2358,7 +2491,7 @@
       <c r="Y13" s="43"/>
       <c r="Z13" s="43"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="42"/>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
@@ -2386,7 +2519,7 @@
       <c r="Y14" s="43"/>
       <c r="Z14" s="43"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="42"/>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
@@ -2414,13 +2547,13 @@
       <c r="Y15" s="43"/>
       <c r="Z15" s="43"/>
     </row>
-    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="58" t="s">
-        <v>147</v>
-      </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="45"/>
@@ -2444,7 +2577,7 @@
       <c r="Y16" s="43"/>
       <c r="Z16" s="43"/>
     </row>
-    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2472,7 +2605,7 @@
       <c r="Y17" s="43"/>
       <c r="Z17" s="43"/>
     </row>
-    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="46"/>
       <c r="B18" s="46"/>
       <c r="C18" s="46"/>
@@ -2500,15 +2633,15 @@
       <c r="Y18" s="43"/>
       <c r="Z18" s="43"/>
     </row>
-    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+        <v>147</v>
+      </c>
+      <c r="B19" s="63" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -2532,15 +2665,15 @@
       <c r="Y19" s="43"/>
       <c r="Z19" s="43"/>
     </row>
-    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="B20" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
+        <v>148</v>
+      </c>
+      <c r="B20" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -2564,12 +2697,12 @@
       <c r="Y20" s="43"/>
       <c r="Z20" s="43"/>
     </row>
-    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -2596,7 +2729,7 @@
       <c r="Y21" s="43"/>
       <c r="Z21" s="43"/>
     </row>
-    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="49"/>
       <c r="B22" s="52"/>
       <c r="C22" s="52"/>
@@ -2624,15 +2757,15 @@
       <c r="Y22" s="43"/>
       <c r="Z22" s="43"/>
     </row>
-    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B23" s="57" t="s">
-        <v>162</v>
-      </c>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
+        <v>150</v>
+      </c>
+      <c r="B23" s="63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -2656,13 +2789,13 @@
       <c r="Y23" s="43"/>
       <c r="Z23" s="43"/>
     </row>
-    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
-      <c r="B24" s="57" t="s">
-        <v>163</v>
-      </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
+      <c r="B24" s="63" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -2686,13 +2819,13 @@
       <c r="Y24" s="43"/>
       <c r="Z24" s="43"/>
     </row>
-    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
-      <c r="B25" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="B25" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
@@ -2716,15 +2849,15 @@
       <c r="Y25" s="43"/>
       <c r="Z25" s="43"/>
     </row>
-    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="B26" s="57" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
+        <v>151</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2748,9 +2881,11 @@
       <c r="Y26" s="43"/>
       <c r="Z26" s="43"/>
     </row>
-    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
-      <c r="B27" s="52"/>
+      <c r="B27" s="52" t="s">
+        <v>186</v>
+      </c>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
       <c r="E27" s="43"/>
@@ -2776,7 +2911,7 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="43"/>
     </row>
-    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="49"/>
       <c r="B28" s="52"/>
       <c r="C28" s="52"/>
@@ -2804,9 +2939,9 @@
       <c r="Y28" s="43"/>
       <c r="Z28" s="43"/>
     </row>
-    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B29" s="53">
         <v>1</v>
@@ -2836,15 +2971,15 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="43"/>
     </row>
-    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="65" t="s">
         <v>154</v>
       </c>
-      <c r="B30" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="43"/>
@@ -2868,15 +3003,15 @@
       <c r="Y30" s="43"/>
       <c r="Z30" s="43"/>
     </row>
-    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
+        <v>155</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>156</v>
       </c>
-      <c r="B31" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="43"/>
@@ -2900,10 +3035,10 @@
       <c r="Y31" s="43"/>
       <c r="Z31" s="43"/>
     </row>
-    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -2930,7 +3065,7 @@
       <c r="Y32" s="43"/>
       <c r="Z32" s="43"/>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A33" s="42"/>
       <c r="B33" s="42"/>
       <c r="C33" s="42"/>
@@ -2958,7 +3093,7 @@
       <c r="Y33" s="43"/>
       <c r="Z33" s="43"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A34" s="42"/>
       <c r="B34" s="42"/>
       <c r="C34" s="42"/>
@@ -2986,7 +3121,7 @@
       <c r="Y34" s="43"/>
       <c r="Z34" s="43"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A35" s="42"/>
       <c r="B35" s="42"/>
       <c r="C35" s="42"/>
@@ -3014,7 +3149,7 @@
       <c r="Y35" s="43"/>
       <c r="Z35" s="43"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A36" s="42"/>
       <c r="B36" s="42"/>
       <c r="C36" s="42"/>
@@ -3042,7 +3177,7 @@
       <c r="Y36" s="43"/>
       <c r="Z36" s="43"/>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A37" s="42"/>
       <c r="B37" s="42"/>
       <c r="C37" s="42"/>
@@ -3070,7 +3205,7 @@
       <c r="Y37" s="43"/>
       <c r="Z37" s="43"/>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A38" s="42"/>
       <c r="B38" s="42"/>
       <c r="C38" s="42"/>
@@ -3098,7 +3233,7 @@
       <c r="Y38" s="43"/>
       <c r="Z38" s="43"/>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A39" s="42"/>
       <c r="B39" s="42"/>
       <c r="C39" s="42"/>
@@ -3126,7 +3261,7 @@
       <c r="Y39" s="43"/>
       <c r="Z39" s="43"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A40" s="42"/>
       <c r="B40" s="42"/>
       <c r="C40" s="42"/>
@@ -3154,7 +3289,7 @@
       <c r="Y40" s="43"/>
       <c r="Z40" s="43"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A41" s="42"/>
       <c r="B41" s="42"/>
       <c r="C41" s="42"/>
@@ -3182,7 +3317,7 @@
       <c r="Y41" s="43"/>
       <c r="Z41" s="43"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A42" s="42"/>
       <c r="B42" s="42"/>
       <c r="C42" s="42"/>
@@ -3210,7 +3345,7 @@
       <c r="Y42" s="43"/>
       <c r="Z42" s="43"/>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A43" s="43"/>
       <c r="B43" s="43"/>
       <c r="C43" s="43"/>
@@ -3238,7 +3373,7 @@
       <c r="Y43" s="43"/>
       <c r="Z43" s="43"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A44" s="43"/>
       <c r="B44" s="43"/>
       <c r="C44" s="43"/>
@@ -3266,7 +3401,7 @@
       <c r="Y44" s="43"/>
       <c r="Z44" s="43"/>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A45" s="43"/>
       <c r="B45" s="43"/>
       <c r="C45" s="43"/>
@@ -3294,7 +3429,7 @@
       <c r="Y45" s="43"/>
       <c r="Z45" s="43"/>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A46" s="43"/>
       <c r="B46" s="43"/>
       <c r="C46" s="43"/>
@@ -3322,7 +3457,7 @@
       <c r="Y46" s="43"/>
       <c r="Z46" s="43"/>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A47" s="43"/>
       <c r="B47" s="43"/>
       <c r="C47" s="43"/>
@@ -3350,7 +3485,7 @@
       <c r="Y47" s="43"/>
       <c r="Z47" s="43"/>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A48" s="43"/>
       <c r="B48" s="43"/>
       <c r="C48" s="43"/>
@@ -3378,7 +3513,7 @@
       <c r="Y48" s="43"/>
       <c r="Z48" s="43"/>
     </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A49" s="43"/>
       <c r="B49" s="43"/>
       <c r="C49" s="43"/>
@@ -3406,7 +3541,7 @@
       <c r="Y49" s="43"/>
       <c r="Z49" s="43"/>
     </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A50" s="43"/>
       <c r="B50" s="43"/>
       <c r="C50" s="43"/>
@@ -3434,7 +3569,7 @@
       <c r="Y50" s="43"/>
       <c r="Z50" s="43"/>
     </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
@@ -3462,7 +3597,7 @@
       <c r="Y51" s="43"/>
       <c r="Z51" s="43"/>
     </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A52" s="43"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
@@ -3490,7 +3625,7 @@
       <c r="Y52" s="43"/>
       <c r="Z52" s="43"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A53" s="43"/>
       <c r="B53" s="43"/>
       <c r="C53" s="43"/>
@@ -3518,7 +3653,7 @@
       <c r="Y53" s="43"/>
       <c r="Z53" s="43"/>
     </row>
-    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A54" s="43"/>
       <c r="B54" s="43"/>
       <c r="C54" s="43"/>
@@ -3546,7 +3681,7 @@
       <c r="Y54" s="43"/>
       <c r="Z54" s="43"/>
     </row>
-    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A55" s="43"/>
       <c r="B55" s="43"/>
       <c r="C55" s="43"/>
@@ -3574,7 +3709,7 @@
       <c r="Y55" s="43"/>
       <c r="Z55" s="43"/>
     </row>
-    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A56" s="43"/>
       <c r="B56" s="43"/>
       <c r="C56" s="43"/>
@@ -3602,7 +3737,7 @@
       <c r="Y56" s="43"/>
       <c r="Z56" s="43"/>
     </row>
-    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A57" s="43"/>
       <c r="B57" s="43"/>
       <c r="C57" s="43"/>
@@ -3630,7 +3765,7 @@
       <c r="Y57" s="43"/>
       <c r="Z57" s="43"/>
     </row>
-    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A58" s="43"/>
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
@@ -3658,7 +3793,7 @@
       <c r="Y58" s="43"/>
       <c r="Z58" s="43"/>
     </row>
-    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="43"/>
@@ -3686,7 +3821,7 @@
       <c r="Y59" s="43"/>
       <c r="Z59" s="43"/>
     </row>
-    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A60" s="43"/>
       <c r="B60" s="43"/>
       <c r="C60" s="43"/>
@@ -3714,7 +3849,7 @@
       <c r="Y60" s="43"/>
       <c r="Z60" s="43"/>
     </row>
-    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A61" s="43"/>
       <c r="B61" s="43"/>
       <c r="C61" s="43"/>
@@ -3742,7 +3877,7 @@
       <c r="Y61" s="43"/>
       <c r="Z61" s="43"/>
     </row>
-    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A62" s="43"/>
       <c r="B62" s="43"/>
       <c r="C62" s="43"/>
@@ -3770,7 +3905,7 @@
       <c r="Y62" s="43"/>
       <c r="Z62" s="43"/>
     </row>
-    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A63" s="43"/>
       <c r="B63" s="43"/>
       <c r="C63" s="43"/>
@@ -3798,7 +3933,7 @@
       <c r="Y63" s="43"/>
       <c r="Z63" s="43"/>
     </row>
-    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A64" s="43"/>
       <c r="B64" s="43"/>
       <c r="C64" s="43"/>
@@ -3826,7 +3961,7 @@
       <c r="Y64" s="43"/>
       <c r="Z64" s="43"/>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A65" s="43"/>
       <c r="B65" s="43"/>
       <c r="C65" s="43"/>
@@ -3854,7 +3989,7 @@
       <c r="Y65" s="43"/>
       <c r="Z65" s="43"/>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A66" s="43"/>
       <c r="B66" s="43"/>
       <c r="C66" s="43"/>
@@ -3882,7 +4017,7 @@
       <c r="Y66" s="43"/>
       <c r="Z66" s="43"/>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A67" s="43"/>
       <c r="B67" s="43"/>
       <c r="C67" s="43"/>
@@ -3910,7 +4045,7 @@
       <c r="Y67" s="43"/>
       <c r="Z67" s="43"/>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A68" s="43"/>
       <c r="B68" s="43"/>
       <c r="C68" s="43"/>
@@ -3938,7 +4073,7 @@
       <c r="Y68" s="43"/>
       <c r="Z68" s="43"/>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A69" s="43"/>
       <c r="B69" s="43"/>
       <c r="C69" s="43"/>
@@ -3966,7 +4101,7 @@
       <c r="Y69" s="43"/>
       <c r="Z69" s="43"/>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A70" s="43"/>
       <c r="B70" s="43"/>
       <c r="C70" s="43"/>
@@ -3994,7 +4129,7 @@
       <c r="Y70" s="43"/>
       <c r="Z70" s="43"/>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A71" s="43"/>
       <c r="B71" s="43"/>
       <c r="C71" s="43"/>
@@ -4022,7 +4157,7 @@
       <c r="Y71" s="43"/>
       <c r="Z71" s="43"/>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A72" s="43"/>
       <c r="B72" s="43"/>
       <c r="C72" s="43"/>
@@ -4050,7 +4185,7 @@
       <c r="Y72" s="43"/>
       <c r="Z72" s="43"/>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A73" s="43"/>
       <c r="B73" s="43"/>
       <c r="C73" s="43"/>
@@ -4078,7 +4213,7 @@
       <c r="Y73" s="43"/>
       <c r="Z73" s="43"/>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A74" s="43"/>
       <c r="B74" s="43"/>
       <c r="C74" s="43"/>
@@ -4106,7 +4241,7 @@
       <c r="Y74" s="43"/>
       <c r="Z74" s="43"/>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="43"/>
@@ -4134,7 +4269,7 @@
       <c r="Y75" s="43"/>
       <c r="Z75" s="43"/>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A76" s="43"/>
       <c r="B76" s="43"/>
       <c r="C76" s="43"/>
@@ -4162,7 +4297,7 @@
       <c r="Y76" s="43"/>
       <c r="Z76" s="43"/>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A77" s="43"/>
       <c r="B77" s="43"/>
       <c r="C77" s="43"/>
@@ -4190,7 +4325,7 @@
       <c r="Y77" s="43"/>
       <c r="Z77" s="43"/>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A78" s="43"/>
       <c r="B78" s="43"/>
       <c r="C78" s="43"/>
@@ -4218,7 +4353,7 @@
       <c r="Y78" s="43"/>
       <c r="Z78" s="43"/>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A79" s="43"/>
       <c r="B79" s="43"/>
       <c r="C79" s="43"/>
@@ -4246,7 +4381,7 @@
       <c r="Y79" s="43"/>
       <c r="Z79" s="43"/>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A80" s="43"/>
       <c r="B80" s="43"/>
       <c r="C80" s="43"/>
@@ -4274,7 +4409,7 @@
       <c r="Y80" s="43"/>
       <c r="Z80" s="43"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A81" s="43"/>
       <c r="B81" s="43"/>
       <c r="C81" s="43"/>
@@ -4302,7 +4437,7 @@
       <c r="Y81" s="43"/>
       <c r="Z81" s="43"/>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A82" s="43"/>
       <c r="B82" s="43"/>
       <c r="C82" s="43"/>
@@ -4330,7 +4465,7 @@
       <c r="Y82" s="43"/>
       <c r="Z82" s="43"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A83" s="43"/>
       <c r="B83" s="43"/>
       <c r="C83" s="43"/>
@@ -4358,7 +4493,7 @@
       <c r="Y83" s="43"/>
       <c r="Z83" s="43"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A84" s="43"/>
       <c r="B84" s="43"/>
       <c r="C84" s="43"/>
@@ -4386,7 +4521,7 @@
       <c r="Y84" s="43"/>
       <c r="Z84" s="43"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A85" s="43"/>
       <c r="B85" s="43"/>
       <c r="C85" s="43"/>
@@ -4414,7 +4549,7 @@
       <c r="Y85" s="43"/>
       <c r="Z85" s="43"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A86" s="43"/>
       <c r="B86" s="43"/>
       <c r="C86" s="43"/>
@@ -4442,7 +4577,7 @@
       <c r="Y86" s="43"/>
       <c r="Z86" s="43"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A87" s="43"/>
       <c r="B87" s="43"/>
       <c r="C87" s="43"/>
@@ -4470,7 +4605,7 @@
       <c r="Y87" s="43"/>
       <c r="Z87" s="43"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="43"/>
@@ -4498,7 +4633,7 @@
       <c r="Y88" s="43"/>
       <c r="Z88" s="43"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A89" s="43"/>
       <c r="B89" s="43"/>
       <c r="C89" s="43"/>
@@ -4526,7 +4661,7 @@
       <c r="Y89" s="43"/>
       <c r="Z89" s="43"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A90" s="43"/>
       <c r="B90" s="43"/>
       <c r="C90" s="43"/>
@@ -4554,7 +4689,7 @@
       <c r="Y90" s="43"/>
       <c r="Z90" s="43"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A91" s="43"/>
       <c r="B91" s="43"/>
       <c r="C91" s="43"/>
@@ -4582,7 +4717,7 @@
       <c r="Y91" s="43"/>
       <c r="Z91" s="43"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A92" s="43"/>
       <c r="B92" s="43"/>
       <c r="C92" s="43"/>
@@ -4610,7 +4745,7 @@
       <c r="Y92" s="43"/>
       <c r="Z92" s="43"/>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A93" s="43"/>
       <c r="B93" s="43"/>
       <c r="C93" s="43"/>
@@ -4638,7 +4773,7 @@
       <c r="Y93" s="43"/>
       <c r="Z93" s="43"/>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A94" s="43"/>
       <c r="B94" s="43"/>
       <c r="C94" s="43"/>
@@ -4666,7 +4801,7 @@
       <c r="Y94" s="43"/>
       <c r="Z94" s="43"/>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A95" s="43"/>
       <c r="B95" s="43"/>
       <c r="C95" s="43"/>
@@ -4694,7 +4829,7 @@
       <c r="Y95" s="43"/>
       <c r="Z95" s="43"/>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A96" s="43"/>
       <c r="B96" s="43"/>
       <c r="C96" s="43"/>
@@ -4722,7 +4857,7 @@
       <c r="Y96" s="43"/>
       <c r="Z96" s="43"/>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A97" s="43"/>
       <c r="B97" s="43"/>
       <c r="C97" s="43"/>
@@ -4750,7 +4885,7 @@
       <c r="Y97" s="43"/>
       <c r="Z97" s="43"/>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A98" s="43"/>
       <c r="B98" s="43"/>
       <c r="C98" s="43"/>
@@ -4778,7 +4913,7 @@
       <c r="Y98" s="43"/>
       <c r="Z98" s="43"/>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A99" s="43"/>
       <c r="B99" s="43"/>
       <c r="C99" s="43"/>
@@ -4837,39 +4972,39 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.140625" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.26953125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" customWidth="1"/>
+    <col min="25" max="25" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="C3" s="1" t="str" cm="1">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -4983,12 +5118,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -5103,7 +5238,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5220,7 +5355,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5337,7 +5472,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>5</v>
       </c>
@@ -5345,7 +5480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -5353,7 +5488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>9</v>
       </c>
@@ -5361,7 +5496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>11</v>
       </c>
@@ -5369,7 +5504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
@@ -5377,7 +5512,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
@@ -5385,7 +5520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>17</v>
       </c>
@@ -5393,7 +5528,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>19</v>
       </c>
@@ -5401,7 +5536,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>21</v>
       </c>
@@ -5409,7 +5544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>23</v>
       </c>
@@ -5417,7 +5552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>25</v>
       </c>
@@ -5425,7 +5560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
@@ -5433,7 +5568,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="5" t="s">
         <v>29</v>
       </c>
@@ -5441,7 +5576,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -5449,7 +5584,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -5457,7 +5592,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="5" t="s">
         <v>35</v>
       </c>
@@ -5465,7 +5600,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="5" t="s">
         <v>37</v>
       </c>
@@ -5473,7 +5608,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="5" t="s">
         <v>39</v>
       </c>
@@ -5481,7 +5616,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="5" t="s">
         <v>41</v>
       </c>
@@ -5489,7 +5624,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="5" t="s">
         <v>43</v>
       </c>
@@ -5497,7 +5632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="5" t="s">
         <v>45</v>
       </c>
@@ -5505,7 +5640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="5" t="s">
         <v>47</v>
       </c>
@@ -5513,7 +5648,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>49</v>
       </c>
@@ -5521,7 +5656,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>51</v>
       </c>
@@ -5529,7 +5664,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>53</v>
       </c>
@@ -5537,7 +5672,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>55</v>
       </c>
@@ -5545,7 +5680,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -5553,7 +5688,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>59</v>
       </c>
@@ -5599,49 +5734,49 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B1:AG147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T72" sqref="T72"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="14" customWidth="1"/>
-    <col min="3" max="3" width="52.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="14" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" style="14" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.140625" style="14"/>
-    <col min="10" max="10" width="14.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="9.140625" style="14"/>
-    <col min="17" max="17" width="2.28515625" style="14" customWidth="1"/>
-    <col min="18" max="20" width="9.140625" style="14"/>
-    <col min="21" max="21" width="2.28515625" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="52.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.453125" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.1796875" style="14"/>
+    <col min="10" max="10" width="14.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="9.1796875" style="14"/>
+    <col min="17" max="17" width="2.26953125" style="14" customWidth="1"/>
+    <col min="18" max="20" width="9.1796875" style="14"/>
+    <col min="21" max="21" width="2.26953125" style="14" customWidth="1"/>
     <col min="22" max="22" width="47" style="14" customWidth="1"/>
     <col min="23" max="23" width="50" style="14" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.140625" style="14" customWidth="1"/>
+    <col min="24" max="24" width="15.1796875" style="14" customWidth="1"/>
     <col min="25" max="25" width="24" style="14" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="14" customWidth="1"/>
-    <col min="27" max="27" width="13.42578125" style="14" customWidth="1"/>
-    <col min="28" max="31" width="9.140625" style="14"/>
-    <col min="32" max="32" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.28515625" style="14" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="14"/>
+    <col min="26" max="26" width="12.7265625" style="14" customWidth="1"/>
+    <col min="27" max="27" width="13.453125" style="14" customWidth="1"/>
+    <col min="28" max="31" width="9.1796875" style="14"/>
+    <col min="32" max="32" width="17.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.26953125" style="14" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="9.1796875" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:33" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:33" ht="21" x14ac:dyDescent="0.35">
       <c r="B1" s="13" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.35">
       <c r="V2" s="7" t="str">
         <f>"~UC_SETS: R_E:"&amp; _xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>~UC_SETS: R_E:IE,National</v>
       </c>
     </row>
-    <row r="3" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:33" x14ac:dyDescent="0.35">
       <c r="M3" s="15" t="s">
         <v>133</v>
       </c>
@@ -5653,7 +5788,7 @@
       <c r="S3" s="15"/>
       <c r="T3" s="15"/>
     </row>
-    <row r="4" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="str">
         <f>"~TFM_TOPINS:"&amp;_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
         <v>~TFM_TOPINS:IE,National</v>
@@ -5674,7 +5809,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="AA4" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -5683,7 +5818,7 @@
       <c r="AF4" s="8"/>
       <c r="AG4" s="8"/>
     </row>
-    <row r="5" spans="2:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>61</v>
       </c>
@@ -5748,13 +5883,13 @@
         <v>64</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AC5" s="10">
         <v>2022</v>
@@ -5766,13 +5901,13 @@
         <v>2050</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>135</v>
+        <v>184</v>
       </c>
       <c r="AG5" s="10" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B6" s="17" t="s">
         <v>95</v>
       </c>
@@ -5790,7 +5925,7 @@
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -5812,7 +5947,7 @@
       <c r="AF6" s="18"/>
       <c r="AG6" s="18"/>
     </row>
-    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>75</v>
       </c>
@@ -5842,6 +5977,7 @@
         <v>67</v>
       </c>
       <c r="L7" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J7,Input_shares!$D$2:$D$87,IND_Shares!$K7)</f>
         <v>2.5200000000000001E-3</v>
       </c>
       <c r="M7" s="24">
@@ -5872,10 +6008,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>131</v>
@@ -5903,7 +6039,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B8" s="8" t="s">
         <v>75</v>
       </c>
@@ -5933,6 +6069,7 @@
         <v>69</v>
       </c>
       <c r="L8" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J8,Input_shares!$D$2:$D$87,IND_Shares!$K8)</f>
         <v>2.4000000000000001E-4</v>
       </c>
       <c r="M8" s="15"/>
@@ -5946,10 +6083,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>131</v>
@@ -5972,7 +6109,7 @@
       </c>
       <c r="AG8" s="8"/>
     </row>
-    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
@@ -6002,19 +6139,20 @@
         <v>70</v>
       </c>
       <c r="L9" s="23">
-        <v>0.43920000000000003</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J9,Input_shares!$D$2:$D$87,IND_Shares!$K9)</f>
+        <v>0.43919999999999998</v>
       </c>
       <c r="M9" s="24">
         <f t="shared" ref="M9:O10" si="0">L9</f>
-        <v>0.43920000000000003</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="N9" s="24">
         <f t="shared" si="0"/>
-        <v>0.43920000000000003</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="O9" s="24">
         <f t="shared" si="0"/>
-        <v>0.43920000000000003</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="P9" s="14">
         <v>5</v>
@@ -6036,7 +6174,7 @@
         <v>IND*</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA9" s="22" t="str">
         <f>$AA$7</f>
@@ -6065,7 +6203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B10" s="17" t="s">
         <v>96</v>
       </c>
@@ -6089,19 +6227,20 @@
         <v>72</v>
       </c>
       <c r="L10" s="23">
-        <v>0.20814000000000002</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J10,Input_shares!$D$2:$D$87,IND_Shares!$K10)</f>
+        <v>0.20813999999999999</v>
       </c>
       <c r="M10" s="24">
         <f t="shared" si="0"/>
-        <v>0.20814000000000002</v>
+        <v>0.20813999999999999</v>
       </c>
       <c r="N10" s="24">
         <f t="shared" si="0"/>
-        <v>0.20814000000000002</v>
+        <v>0.20813999999999999</v>
       </c>
       <c r="O10" s="24">
         <f t="shared" si="0"/>
-        <v>0.20814000000000002</v>
+        <v>0.20813999999999999</v>
       </c>
       <c r="P10" s="14">
         <v>5</v>
@@ -6111,10 +6250,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA10" s="22" t="str">
         <f>$AA$7</f>
@@ -6122,22 +6261,22 @@
       </c>
       <c r="AB10" s="26">
         <f>-L9</f>
-        <v>-0.43920000000000003</v>
+        <v>-0.43919999999999998</v>
       </c>
       <c r="AC10" s="26">
         <f>-M9</f>
-        <v>-0.43920000000000003</v>
+        <v>-0.43919999999999998</v>
       </c>
       <c r="AD10" s="26">
         <f>-N9</f>
-        <v>-0.43920000000000003</v>
+        <v>-0.43919999999999998</v>
       </c>
       <c r="AE10" s="26">
         <f>-O9</f>
-        <v>-0.43920000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-0.43919999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B11" s="8" t="s">
         <v>75</v>
       </c>
@@ -6167,6 +6306,7 @@
         <v>78</v>
       </c>
       <c r="L11" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J11,Input_shares!$D$2:$D$87,IND_Shares!$K11)</f>
         <v>0.34991</v>
       </c>
       <c r="M11" s="15"/>
@@ -6192,7 +6332,7 @@
         <v>IND*</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA11" s="22" t="str">
         <f>$AA$7</f>
@@ -6221,7 +6361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B12" s="8" t="s">
         <v>75</v>
       </c>
@@ -6249,7 +6389,8 @@
       <c r="K12" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="L12" s="24">
+      <c r="L12" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J12,Input_shares!$D$2:$D$87,IND_Shares!$K12)</f>
         <v>0</v>
       </c>
       <c r="M12" s="28">
@@ -6283,10 +6424,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA12" s="22" t="str">
         <f>$AA$7</f>
@@ -6294,22 +6435,22 @@
       </c>
       <c r="AB12" s="26">
         <f>-L10</f>
-        <v>-0.20814000000000002</v>
+        <v>-0.20813999999999999</v>
       </c>
       <c r="AC12" s="26">
         <f>-M10</f>
-        <v>-0.20814000000000002</v>
+        <v>-0.20813999999999999</v>
       </c>
       <c r="AD12" s="26">
         <f>-N10</f>
-        <v>-0.20814000000000002</v>
+        <v>-0.20813999999999999</v>
       </c>
       <c r="AE12" s="26">
         <f>-O10</f>
-        <v>-0.20814000000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-0.20813999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B13" s="41" t="s">
         <v>97</v>
       </c>
@@ -6331,20 +6472,21 @@
       <c r="K13" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="L13" s="24">
+      <c r="L13" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J13,Input_shares!$D$2:$D$87,IND_Shares!$K13)</f>
         <v>0</v>
       </c>
       <c r="M13" s="28">
         <f t="shared" ref="M13:O14" si="2">M9*R13</f>
-        <v>2.1960000000000004E-2</v>
+        <v>2.196E-2</v>
       </c>
       <c r="N13" s="28">
         <f t="shared" si="2"/>
-        <v>0.13176000000000002</v>
+        <v>0.13175999999999999</v>
       </c>
       <c r="O13" s="28">
         <f t="shared" si="2"/>
-        <v>0.43920000000000003</v>
+        <v>0.43919999999999998</v>
       </c>
       <c r="P13" s="14">
         <v>5</v>
@@ -6362,7 +6504,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B14" s="8" t="s">
         <v>75</v>
       </c>
@@ -6390,20 +6532,21 @@
       <c r="K14" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="L14" s="31">
+      <c r="L14" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J14,Input_shares!$D$2:$D$87,IND_Shares!$K14)</f>
         <v>0</v>
       </c>
       <c r="M14" s="32">
         <f t="shared" si="2"/>
-        <v>1.0407000000000001E-2</v>
+        <v>1.0407E-2</v>
       </c>
       <c r="N14" s="32">
         <f t="shared" si="2"/>
-        <v>6.2442000000000004E-2</v>
+        <v>6.2441999999999998E-2</v>
       </c>
       <c r="O14" s="32">
         <f t="shared" si="2"/>
-        <v>0.20814000000000002</v>
+        <v>0.20813999999999999</v>
       </c>
       <c r="P14" s="30">
         <v>5</v>
@@ -6432,7 +6575,7 @@
       <c r="AF14" s="30"/>
       <c r="AG14" s="30"/>
     </row>
-    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B15" s="8" t="s">
         <v>75</v>
       </c>
@@ -6475,7 +6618,7 @@
       <c r="AF15" s="18"/>
       <c r="AG15" s="18"/>
     </row>
-    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B16" s="12" t="s">
         <v>75</v>
       </c>
@@ -6504,6 +6647,7 @@
         <v>65</v>
       </c>
       <c r="L16" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J16,Input_shares!$D$2:$D$87,IND_Shares!$K16)</f>
         <v>0</v>
       </c>
       <c r="M16" s="15"/>
@@ -6525,10 +6669,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA16" s="34" t="str">
         <f>$AA$20</f>
@@ -6557,7 +6701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B17" s="17" t="s">
         <v>98</v>
       </c>
@@ -6580,6 +6724,7 @@
         <v>66</v>
       </c>
       <c r="L17" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J17,Input_shares!$D$2:$D$87,IND_Shares!$K17)</f>
         <v>0</v>
       </c>
       <c r="M17" s="15"/>
@@ -6593,10 +6738,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y17" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA17" s="34" t="str">
         <f>$AA$20</f>
@@ -6619,7 +6764,7 @@
         <v>-3.3400000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B18" s="8" t="s">
         <v>75</v>
       </c>
@@ -6648,6 +6793,7 @@
         <v>67</v>
       </c>
       <c r="L18" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J18,Input_shares!$D$2:$D$87,IND_Shares!$K18)</f>
         <v>3.3400000000000001E-3</v>
       </c>
       <c r="M18" s="24">
@@ -6682,7 +6828,7 @@
         <v>IND*</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA18" s="34" t="str">
         <f>$AA$20</f>
@@ -6711,7 +6857,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B19" s="8" t="s">
         <v>75</v>
       </c>
@@ -6740,6 +6886,7 @@
         <v>68</v>
       </c>
       <c r="L19" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J19,Input_shares!$D$2:$D$87,IND_Shares!$K19)</f>
         <v>3.3480000000000003E-2</v>
       </c>
       <c r="M19" s="15"/>
@@ -6753,10 +6900,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y19" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA19" s="34" t="str">
         <f>$AA$20</f>
@@ -6779,7 +6926,7 @@
         <v>-2.315E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B20" s="12" t="s">
         <v>75</v>
       </c>
@@ -6808,7 +6955,8 @@
         <v>69</v>
       </c>
       <c r="L20" s="23">
-        <v>7.372999999999999E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J20,Input_shares!$D$2:$D$87,IND_Shares!$K20)</f>
+        <v>7.3730000000000004E-2</v>
       </c>
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
@@ -6833,26 +6981,26 @@
         <v>IND*</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA20" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB20" s="25">
         <f>1+AB21</f>
-        <v>0.36044000000000009</v>
+        <v>0.36043999999999998</v>
       </c>
       <c r="AC20" s="25">
         <f>1+AC21</f>
-        <v>0.36044000000000009</v>
+        <v>0.36043999999999998</v>
       </c>
       <c r="AD20" s="25">
         <f>1+AD21</f>
-        <v>0.36044000000000009</v>
+        <v>0.36043999999999998</v>
       </c>
       <c r="AE20" s="25">
         <f>1+AE21</f>
-        <v>0.36044000000000009</v>
+        <v>0.36043999999999998</v>
       </c>
       <c r="AF20" s="8">
         <v>0</v>
@@ -6861,7 +7009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B21" s="17" t="s">
         <v>99</v>
       </c>
@@ -6884,6 +7032,7 @@
         <v>70</v>
       </c>
       <c r="L21" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J21,Input_shares!$D$2:$D$87,IND_Shares!$K21)</f>
         <v>2.315E-2</v>
       </c>
       <c r="M21" s="24">
@@ -6906,32 +7055,32 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y21" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA21" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB21" s="36">
         <f>-L22-$L$24</f>
-        <v>-0.63955999999999991</v>
+        <v>-0.63956000000000002</v>
       </c>
       <c r="AC21" s="36">
         <f>-M22-$L$24</f>
-        <v>-0.63955999999999991</v>
+        <v>-0.63956000000000002</v>
       </c>
       <c r="AD21" s="36">
         <f>-N22-$L$24</f>
-        <v>-0.63955999999999991</v>
+        <v>-0.63956000000000002</v>
       </c>
       <c r="AE21" s="36">
         <f>-O22-$L$24</f>
-        <v>-0.63955999999999991</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-0.63956000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B22" s="8" t="s">
         <v>75</v>
       </c>
@@ -6960,19 +7109,20 @@
         <v>72</v>
       </c>
       <c r="L22" s="23">
-        <v>0.62681999999999993</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J22,Input_shares!$D$2:$D$87,IND_Shares!$K22)</f>
+        <v>0.62682000000000004</v>
       </c>
       <c r="M22" s="24">
         <f t="shared" si="4"/>
-        <v>0.62681999999999993</v>
+        <v>0.62682000000000004</v>
       </c>
       <c r="N22" s="24">
         <f t="shared" si="4"/>
-        <v>0.62681999999999993</v>
+        <v>0.62682000000000004</v>
       </c>
       <c r="O22" s="24">
         <f t="shared" si="4"/>
-        <v>0.62681999999999993</v>
+        <v>0.62682000000000004</v>
       </c>
       <c r="P22" s="14">
         <v>5</v>
@@ -6981,7 +7131,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B23" s="8" t="s">
         <v>75</v>
       </c>
@@ -7010,6 +7160,7 @@
         <v>78</v>
       </c>
       <c r="L23" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J23,Input_shares!$D$2:$D$87,IND_Shares!$K23)</f>
         <v>0.18647</v>
       </c>
       <c r="M23" s="15"/>
@@ -7022,7 +7173,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B24" s="12" t="s">
         <v>75</v>
       </c>
@@ -7051,6 +7202,7 @@
         <v>80</v>
       </c>
       <c r="L24" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J24,Input_shares!$D$2:$D$87,IND_Shares!$K24)</f>
         <v>1.274E-2</v>
       </c>
       <c r="M24" s="28">
@@ -7059,11 +7211,11 @@
       </c>
       <c r="N24" s="28">
         <f>N22*S24</f>
-        <v>0.18804599999999996</v>
+        <v>0.18804600000000002</v>
       </c>
       <c r="O24" s="28">
         <f>O22*T24</f>
-        <v>0.62681999999999993</v>
+        <v>0.62682000000000004</v>
       </c>
       <c r="P24" s="14">
         <v>5</v>
@@ -7081,7 +7233,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B25" s="17" t="s">
         <v>100</v>
       </c>
@@ -7104,7 +7256,8 @@
         <v>81</v>
       </c>
       <c r="L25" s="23">
-        <v>4.0310000000000006E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J25,Input_shares!$D$2:$D$87,IND_Shares!$K25)</f>
+        <v>4.0309999999999999E-2</v>
       </c>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -7120,7 +7273,7 @@
       <c r="AD25" s="35"/>
       <c r="AE25" s="35"/>
     </row>
-    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B26" s="8" t="s">
         <v>75</v>
       </c>
@@ -7149,6 +7302,7 @@
         <v>109</v>
       </c>
       <c r="L26" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J26,Input_shares!$D$2:$D$87,IND_Shares!$K26)</f>
         <v>0</v>
       </c>
       <c r="M26" s="28">
@@ -7179,7 +7333,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B27" s="8" t="s">
         <v>75</v>
       </c>
@@ -7208,6 +7362,7 @@
         <v>110</v>
       </c>
       <c r="L27" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J27,Input_shares!$D$2:$D$87,IND_Shares!$K27)</f>
         <v>0</v>
       </c>
       <c r="M27" s="32">
@@ -7239,7 +7394,7 @@
       </c>
       <c r="Z27" s="30"/>
     </row>
-    <row r="28" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B28" s="12" t="s">
         <v>75</v>
       </c>
@@ -7282,7 +7437,7 @@
       <c r="AF28" s="38"/>
       <c r="AG28" s="38"/>
     </row>
-    <row r="29" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B29" s="17" t="s">
         <v>101</v>
       </c>
@@ -7305,6 +7460,7 @@
         <v>67</v>
       </c>
       <c r="L29" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J29,Input_shares!$D$2:$D$87,IND_Shares!$K29)</f>
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="M29" s="24">
@@ -7335,10 +7491,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y29" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z29" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA29" s="34" t="str">
         <f>$AA$20</f>
@@ -7367,7 +7523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B30" s="8" t="s">
         <v>75</v>
       </c>
@@ -7396,6 +7552,7 @@
         <v>69</v>
       </c>
       <c r="L30" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J30,Input_shares!$D$2:$D$87,IND_Shares!$K30)</f>
         <v>0.10435999999999999</v>
       </c>
       <c r="M30" s="15"/>
@@ -7409,10 +7566,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y30" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA30" s="34" t="str">
         <f>$AA$20</f>
@@ -7435,7 +7592,7 @@
         <v>-5.5000000000000003E-4</v>
       </c>
     </row>
-    <row r="31" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B31" s="8" t="s">
         <v>75</v>
       </c>
@@ -7464,6 +7621,7 @@
         <v>70</v>
       </c>
       <c r="L31" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J31,Input_shares!$D$2:$D$87,IND_Shares!$K31)</f>
         <v>2.018E-2</v>
       </c>
       <c r="M31" s="24">
@@ -7498,7 +7656,7 @@
         <v>IND*</v>
       </c>
       <c r="Z31" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA31" s="34" t="str">
         <f>$AA$20</f>
@@ -7527,7 +7685,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B32" s="12" t="s">
         <v>75</v>
       </c>
@@ -7556,19 +7714,20 @@
         <v>72</v>
       </c>
       <c r="L32" s="23">
-        <v>0.69151999999999991</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J32,Input_shares!$D$2:$D$87,IND_Shares!$K32)</f>
+        <v>0.69152000000000002</v>
       </c>
       <c r="M32" s="24">
         <f t="shared" si="5"/>
-        <v>0.69151999999999991</v>
+        <v>0.69152000000000002</v>
       </c>
       <c r="N32" s="24">
         <f t="shared" si="5"/>
-        <v>0.69151999999999991</v>
+        <v>0.69152000000000002</v>
       </c>
       <c r="O32" s="24">
         <f t="shared" si="5"/>
-        <v>0.69151999999999991</v>
+        <v>0.69152000000000002</v>
       </c>
       <c r="P32" s="14">
         <v>5</v>
@@ -7578,10 +7737,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y32" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z32" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA32" s="34" t="str">
         <f>$AA$20</f>
@@ -7604,7 +7763,7 @@
         <v>-2.018E-2</v>
       </c>
     </row>
-    <row r="33" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B33" s="17" t="s">
         <v>102</v>
       </c>
@@ -7627,6 +7786,7 @@
         <v>78</v>
       </c>
       <c r="L33" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J33,Input_shares!$D$2:$D$87,IND_Shares!$K33)</f>
         <v>0.18342</v>
       </c>
       <c r="M33" s="15"/>
@@ -7652,26 +7812,26 @@
         <v>IND*</v>
       </c>
       <c r="Z33" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA33" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB33" s="25">
         <f>1+AB34</f>
-        <v>0.30848000000000009</v>
+        <v>0.30847999999999998</v>
       </c>
       <c r="AC33" s="25">
         <f>1+AC34</f>
-        <v>0.30848000000000009</v>
+        <v>0.30847999999999998</v>
       </c>
       <c r="AD33" s="25">
         <f>1+AD34</f>
-        <v>0.30848000000000009</v>
+        <v>0.30847999999999998</v>
       </c>
       <c r="AE33" s="25">
         <f>1+AE34</f>
-        <v>0.30848000000000009</v>
+        <v>0.30847999999999998</v>
       </c>
       <c r="AF33" s="8">
         <v>0</v>
@@ -7680,7 +7840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B34" s="8" t="s">
         <v>75</v>
       </c>
@@ -7688,7 +7848,7 @@
         <v>76</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>109</v>
@@ -7709,6 +7869,7 @@
         <v>109</v>
       </c>
       <c r="L34" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J34,Input_shares!$D$2:$D$87,IND_Shares!$K34)</f>
         <v>0</v>
       </c>
       <c r="M34" s="28">
@@ -7740,32 +7901,32 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA34" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB34" s="35">
         <f>-L32</f>
-        <v>-0.69151999999999991</v>
+        <v>-0.69152000000000002</v>
       </c>
       <c r="AC34" s="35">
         <f>-M32</f>
-        <v>-0.69151999999999991</v>
+        <v>-0.69152000000000002</v>
       </c>
       <c r="AD34" s="35">
         <f>-N32</f>
-        <v>-0.69151999999999991</v>
+        <v>-0.69152000000000002</v>
       </c>
       <c r="AE34" s="35">
         <f>-O32</f>
-        <v>-0.69151999999999991</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-0.69152000000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B35" s="8" t="s">
         <v>75</v>
       </c>
@@ -7773,7 +7934,7 @@
         <v>76</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>110</v>
@@ -7794,6 +7955,7 @@
         <v>110</v>
       </c>
       <c r="L35" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J35,Input_shares!$D$2:$D$87,IND_Shares!$K35)</f>
         <v>0</v>
       </c>
       <c r="M35" s="28">
@@ -7824,7 +7986,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B36" s="8" t="s">
         <v>75</v>
       </c>
@@ -7832,7 +7994,7 @@
         <v>76</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>80</v>
@@ -7853,19 +8015,20 @@
         <v>80</v>
       </c>
       <c r="L36" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J36,Input_shares!$D$2:$D$87,IND_Shares!$K36)</f>
         <v>0</v>
       </c>
       <c r="M36" s="32">
         <f t="shared" si="7"/>
-        <v>3.4575999999999996E-2</v>
+        <v>3.4576000000000003E-2</v>
       </c>
       <c r="N36" s="32">
         <f t="shared" si="7"/>
-        <v>0.20745599999999997</v>
+        <v>0.207456</v>
       </c>
       <c r="O36" s="32">
         <f t="shared" si="7"/>
-        <v>0.69151999999999991</v>
+        <v>0.69152000000000002</v>
       </c>
       <c r="P36" s="30">
         <v>5</v>
@@ -7884,7 +8047,7 @@
       </c>
       <c r="Z36" s="30"/>
     </row>
-    <row r="37" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B37" s="12" t="s">
         <v>75</v>
       </c>
@@ -7892,10 +8055,10 @@
         <v>76</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>98</v>
@@ -7927,7 +8090,7 @@
       <c r="AF37" s="38"/>
       <c r="AG37" s="38"/>
     </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B38" s="17" t="s">
         <v>103</v>
       </c>
@@ -7950,6 +8113,7 @@
         <v>67</v>
       </c>
       <c r="L38" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J38,Input_shares!$D$2:$D$87,IND_Shares!$K38)</f>
         <v>6.7000000000000002E-4</v>
       </c>
       <c r="M38" s="24">
@@ -7980,10 +8144,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y38" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA38" s="34" t="str">
         <f>$AA$20</f>
@@ -8012,7 +8176,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B39" s="8" t="s">
         <v>75</v>
       </c>
@@ -8041,7 +8205,8 @@
         <v>69</v>
       </c>
       <c r="L39" s="23">
-        <v>3.9299999999999995E-3</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J39,Input_shares!$D$2:$D$87,IND_Shares!$K39)</f>
+        <v>3.9300000000000003E-3</v>
       </c>
       <c r="M39" s="15"/>
       <c r="N39" s="15"/>
@@ -8054,10 +8219,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y39" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA39" s="34" t="str">
         <f>$AA$20</f>
@@ -8080,7 +8245,7 @@
         <v>-6.7000000000000002E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B40" s="8" t="s">
         <v>75</v>
       </c>
@@ -8109,19 +8274,20 @@
         <v>70</v>
       </c>
       <c r="L40" s="23">
-        <v>1.2119999999999999E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J40,Input_shares!$D$2:$D$87,IND_Shares!$K40)</f>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="M40" s="24">
         <f t="shared" ref="M40:O41" si="9">L40</f>
-        <v>1.2119999999999999E-2</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="N40" s="24">
         <f t="shared" si="9"/>
-        <v>1.2119999999999999E-2</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="O40" s="24">
         <f t="shared" si="9"/>
-        <v>1.2119999999999999E-2</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="P40" s="14">
         <v>5</v>
@@ -8143,7 +8309,7 @@
         <v>IND*</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA40" s="34" t="str">
         <f>$AA$20</f>
@@ -8172,7 +8338,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B41" s="12" t="s">
         <v>75</v>
       </c>
@@ -8201,19 +8367,20 @@
         <v>72</v>
       </c>
       <c r="L41" s="23">
-        <v>5.7440000000000005E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J41,Input_shares!$D$2:$D$87,IND_Shares!$K41)</f>
+        <v>5.7439999999999998E-2</v>
       </c>
       <c r="M41" s="24">
         <f t="shared" si="9"/>
-        <v>5.7440000000000005E-2</v>
+        <v>5.7439999999999998E-2</v>
       </c>
       <c r="N41" s="24">
         <f t="shared" si="9"/>
-        <v>5.7440000000000005E-2</v>
+        <v>5.7439999999999998E-2</v>
       </c>
       <c r="O41" s="24">
         <f t="shared" si="9"/>
-        <v>5.7440000000000005E-2</v>
+        <v>5.7439999999999998E-2</v>
       </c>
       <c r="P41" s="14">
         <v>5</v>
@@ -8223,10 +8390,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y41" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA41" s="34" t="str">
         <f>$AA$20</f>
@@ -8234,22 +8401,22 @@
       </c>
       <c r="AB41" s="35">
         <f>-L40</f>
-        <v>-1.2119999999999999E-2</v>
+        <v>-1.2120000000000001E-2</v>
       </c>
       <c r="AC41" s="35">
         <f>-M40</f>
-        <v>-1.2119999999999999E-2</v>
+        <v>-1.2120000000000001E-2</v>
       </c>
       <c r="AD41" s="35">
         <f>-N40</f>
-        <v>-1.2119999999999999E-2</v>
+        <v>-1.2120000000000001E-2</v>
       </c>
       <c r="AE41" s="35">
         <f>-O40</f>
-        <v>-1.2119999999999999E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-1.2120000000000001E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B42" s="17" t="s">
         <v>104</v>
       </c>
@@ -8272,6 +8439,7 @@
         <v>78</v>
       </c>
       <c r="L42" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J42,Input_shares!$D$2:$D$87,IND_Shares!$K42)</f>
         <v>0.14015</v>
       </c>
       <c r="M42" s="15"/>
@@ -8297,7 +8465,7 @@
         <v>IND*</v>
       </c>
       <c r="Z42" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA42" s="22" t="s">
         <v>131</v>
@@ -8325,7 +8493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B43" s="8" t="s">
         <v>75</v>
       </c>
@@ -8354,7 +8522,8 @@
         <v>81</v>
       </c>
       <c r="L43" s="23">
-        <v>0.78572999999999993</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J43,Input_shares!$D$2:$D$87,IND_Shares!$K43)</f>
+        <v>0.78573000000000004</v>
       </c>
       <c r="M43" s="15"/>
       <c r="N43" s="15"/>
@@ -8367,32 +8536,32 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z43" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA43" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB43" s="35">
         <f>-L41</f>
-        <v>-5.7440000000000005E-2</v>
+        <v>-5.7439999999999998E-2</v>
       </c>
       <c r="AC43" s="35">
         <f>-M41</f>
-        <v>-5.7440000000000005E-2</v>
+        <v>-5.7439999999999998E-2</v>
       </c>
       <c r="AD43" s="35">
         <f>-N41</f>
-        <v>-5.7440000000000005E-2</v>
+        <v>-5.7439999999999998E-2</v>
       </c>
       <c r="AE43" s="35">
         <f>-O41</f>
-        <v>-5.7440000000000005E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-5.7439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B44" s="8" t="s">
         <v>75</v>
       </c>
@@ -8421,6 +8590,7 @@
         <v>109</v>
       </c>
       <c r="L44" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J44,Input_shares!$D$2:$D$87,IND_Shares!$K44)</f>
         <v>0</v>
       </c>
       <c r="M44" s="28">
@@ -8451,7 +8621,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B45" s="12" t="s">
         <v>75</v>
       </c>
@@ -8480,19 +8650,20 @@
         <v>110</v>
       </c>
       <c r="L45" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J45,Input_shares!$D$2:$D$87,IND_Shares!$K45)</f>
         <v>0</v>
       </c>
       <c r="M45" s="28">
         <f t="shared" ref="M45:O46" si="17">M40*R45</f>
-        <v>6.0599999999999998E-4</v>
+        <v>6.0600000000000009E-4</v>
       </c>
       <c r="N45" s="28">
         <f t="shared" si="17"/>
-        <v>3.6359999999999995E-3</v>
+        <v>3.6359999999999999E-3</v>
       </c>
       <c r="O45" s="28">
         <f t="shared" si="17"/>
-        <v>1.2119999999999999E-2</v>
+        <v>1.2120000000000001E-2</v>
       </c>
       <c r="P45" s="14">
         <v>5</v>
@@ -8510,7 +8681,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B46" s="17" t="s">
         <v>105</v>
       </c>
@@ -8533,19 +8704,20 @@
         <v>80</v>
       </c>
       <c r="L46" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J46,Input_shares!$D$2:$D$87,IND_Shares!$K46)</f>
         <v>0</v>
       </c>
       <c r="M46" s="32">
         <f t="shared" si="17"/>
-        <v>2.8720000000000004E-3</v>
+        <v>2.872E-3</v>
       </c>
       <c r="N46" s="32">
         <f t="shared" si="17"/>
-        <v>1.7232000000000001E-2</v>
+        <v>1.7231999999999997E-2</v>
       </c>
       <c r="O46" s="32">
         <f t="shared" si="17"/>
-        <v>5.7440000000000005E-2</v>
+        <v>5.7439999999999998E-2</v>
       </c>
       <c r="P46" s="30">
         <v>5</v>
@@ -8564,7 +8736,7 @@
       </c>
       <c r="Z46" s="30"/>
     </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B47" s="8" t="s">
         <v>75</v>
       </c>
@@ -8607,7 +8779,7 @@
       <c r="AF47" s="38"/>
       <c r="AG47" s="38"/>
     </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B48" s="8" t="s">
         <v>75</v>
       </c>
@@ -8636,6 +8808,7 @@
         <v>67</v>
       </c>
       <c r="L48" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J48,Input_shares!$D$2:$D$87,IND_Shares!$K48)</f>
         <v>2.5899999999999999E-3</v>
       </c>
       <c r="M48" s="24">
@@ -8666,10 +8839,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y48" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z48" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA48" s="34" t="str">
         <f>$AA$20</f>
@@ -8698,7 +8871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="49" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B49" s="12" t="s">
         <v>75</v>
       </c>
@@ -8727,7 +8900,8 @@
         <v>69</v>
       </c>
       <c r="L49" s="23">
-        <v>2.7469999999999998E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J49,Input_shares!$D$2:$D$87,IND_Shares!$K49)</f>
+        <v>2.7470000000000001E-2</v>
       </c>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -8740,10 +8914,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z49" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA49" s="34" t="str">
         <f>$AA$20</f>
@@ -8766,7 +8940,7 @@
         <v>-2.5899999999999999E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B50" s="17" t="s">
         <v>106</v>
       </c>
@@ -8789,6 +8963,7 @@
         <v>70</v>
       </c>
       <c r="L50" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J50,Input_shares!$D$2:$D$87,IND_Shares!$K50)</f>
         <v>2.1319999999999999E-2</v>
       </c>
       <c r="M50" s="24">
@@ -8823,7 +8998,7 @@
         <v>IND*</v>
       </c>
       <c r="Z50" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA50" s="34" t="str">
         <f>$AA$20</f>
@@ -8852,7 +9027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="51" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B51" s="8" t="s">
         <v>75</v>
       </c>
@@ -8881,6 +9056,7 @@
         <v>72</v>
       </c>
       <c r="L51" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J51,Input_shares!$D$2:$D$87,IND_Shares!$K51)</f>
         <v>0.48913000000000001</v>
       </c>
       <c r="M51" s="24">
@@ -8903,10 +9079,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y51" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z51" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA51" s="34" t="str">
         <f>$AA$20</f>
@@ -8929,7 +9105,7 @@
         <v>-2.1319999999999999E-2</v>
       </c>
     </row>
-    <row r="52" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B52" s="8" t="s">
         <v>75</v>
       </c>
@@ -8958,6 +9134,7 @@
         <v>78</v>
       </c>
       <c r="L52" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J52,Input_shares!$D$2:$D$87,IND_Shares!$K52)</f>
         <v>0.45951999999999998</v>
       </c>
       <c r="M52" s="15"/>
@@ -8983,7 +9160,7 @@
         <v>IND*</v>
       </c>
       <c r="Z52" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA52" s="22" t="s">
         <v>131</v>
@@ -9011,7 +9188,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B53" s="12" t="s">
         <v>75</v>
       </c>
@@ -9040,6 +9217,7 @@
         <v>109</v>
       </c>
       <c r="L53" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J53,Input_shares!$D$2:$D$87,IND_Shares!$K53)</f>
         <v>0</v>
       </c>
       <c r="M53" s="28">
@@ -9071,10 +9249,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA53" s="22" t="s">
         <v>131</v>
@@ -9096,7 +9274,7 @@
         <v>-0.48913000000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B54" s="17" t="s">
         <v>107</v>
       </c>
@@ -9119,6 +9297,7 @@
         <v>110</v>
       </c>
       <c r="L54" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J54,Input_shares!$D$2:$D$87,IND_Shares!$K54)</f>
         <v>0</v>
       </c>
       <c r="M54" s="28">
@@ -9149,7 +9328,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B55" s="8" t="s">
         <v>75</v>
       </c>
@@ -9178,6 +9357,7 @@
         <v>80</v>
       </c>
       <c r="L55" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J55,Input_shares!$D$2:$D$87,IND_Shares!$K55)</f>
         <v>0</v>
       </c>
       <c r="M55" s="32">
@@ -9209,7 +9389,7 @@
       </c>
       <c r="Z55" s="30"/>
     </row>
-    <row r="56" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B56" s="8" t="s">
         <v>75</v>
       </c>
@@ -9252,7 +9432,7 @@
       <c r="AF56" s="38"/>
       <c r="AG56" s="38"/>
     </row>
-    <row r="57" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B57" s="12" t="s">
         <v>75</v>
       </c>
@@ -9281,6 +9461,7 @@
         <v>67</v>
       </c>
       <c r="L57" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J57,Input_shares!$D$2:$D$87,IND_Shares!$K57)</f>
         <v>1.48E-3</v>
       </c>
       <c r="M57" s="24">
@@ -9311,10 +9492,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z57" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA57" s="34" t="str">
         <f>$AA$20</f>
@@ -9343,7 +9524,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B58" s="17" t="s">
         <v>108</v>
       </c>
@@ -9366,6 +9547,7 @@
         <v>68</v>
       </c>
       <c r="L58" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J58,Input_shares!$D$2:$D$87,IND_Shares!$K58)</f>
         <v>5.1799999999999997E-3</v>
       </c>
       <c r="M58" s="15"/>
@@ -9379,10 +9561,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z58" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA58" s="34" t="str">
         <f>$AA$20</f>
@@ -9405,7 +9587,7 @@
         <v>-1.48E-3</v>
       </c>
     </row>
-    <row r="59" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B59" s="8" t="s">
         <v>75</v>
       </c>
@@ -9434,6 +9616,7 @@
         <v>69</v>
       </c>
       <c r="L59" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J59,Input_shares!$D$2:$D$87,IND_Shares!$K59)</f>
         <v>1.566E-2</v>
       </c>
       <c r="M59" s="15"/>
@@ -9459,7 +9642,7 @@
         <v>IND*</v>
       </c>
       <c r="Z59" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA59" s="34" t="str">
         <f>$AA$20</f>
@@ -9488,7 +9671,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B60" s="8" t="s">
         <v>75</v>
       </c>
@@ -9517,19 +9700,20 @@
         <v>70</v>
       </c>
       <c r="L60" s="23">
-        <v>1.8269999999999998E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J60,Input_shares!$D$2:$D$87,IND_Shares!$K60)</f>
+        <v>1.8270000000000002E-2</v>
       </c>
       <c r="M60" s="24">
         <f>L60</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8270000000000002E-2</v>
       </c>
       <c r="N60" s="24">
         <f>M60</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8270000000000002E-2</v>
       </c>
       <c r="O60" s="24">
         <f>N60</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8270000000000002E-2</v>
       </c>
       <c r="P60" s="14">
         <v>5</v>
@@ -9539,10 +9723,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z60" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA60" s="34" t="str">
         <f>$AA$20</f>
@@ -9550,22 +9734,22 @@
       </c>
       <c r="AB60" s="35">
         <f>-L60</f>
-        <v>-1.8269999999999998E-2</v>
+        <v>-1.8270000000000002E-2</v>
       </c>
       <c r="AC60" s="35">
         <f>-M60</f>
-        <v>-1.8269999999999998E-2</v>
+        <v>-1.8270000000000002E-2</v>
       </c>
       <c r="AD60" s="35">
         <f>-N60</f>
-        <v>-1.8269999999999998E-2</v>
+        <v>-1.8270000000000002E-2</v>
       </c>
       <c r="AE60" s="35">
         <f>-O60</f>
-        <v>-1.8269999999999998E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:33" x14ac:dyDescent="0.25">
+        <v>-1.8270000000000002E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B61" s="8" t="s">
         <v>75</v>
       </c>
@@ -9594,7 +9778,8 @@
         <v>71</v>
       </c>
       <c r="L61" s="23">
-        <v>3.0959999999999998E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J61,Input_shares!$D$2:$D$87,IND_Shares!$K61)</f>
+        <v>3.0960000000000001E-2</v>
       </c>
       <c r="M61" s="15"/>
       <c r="N61" s="15"/>
@@ -9619,7 +9804,7 @@
         <v>IND*</v>
       </c>
       <c r="Z61" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA61" s="22" t="s">
         <v>131</v>
@@ -9647,7 +9832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="62" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:33" x14ac:dyDescent="0.35">
       <c r="E62" s="8"/>
       <c r="G62" s="14" t="s">
         <v>130</v>
@@ -9665,6 +9850,7 @@
         <v>72</v>
       </c>
       <c r="L62" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J62,Input_shares!$D$2:$D$87,IND_Shares!$K62)</f>
         <v>0.56420999999999999</v>
       </c>
       <c r="M62" s="24">
@@ -9687,10 +9873,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z62" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA62" s="22" t="s">
         <v>131</v>
@@ -9712,7 +9898,7 @@
         <v>-0.56420999999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:33" x14ac:dyDescent="0.35">
       <c r="E63" s="8"/>
       <c r="G63" s="14" t="s">
         <v>130</v>
@@ -9730,6 +9916,7 @@
         <v>78</v>
       </c>
       <c r="L63" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J63,Input_shares!$D$2:$D$87,IND_Shares!$K63)</f>
         <v>0.36426999999999998</v>
       </c>
       <c r="M63" s="15"/>
@@ -9742,7 +9929,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="2:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:33" x14ac:dyDescent="0.35">
       <c r="G64" s="14" t="s">
         <v>130</v>
       </c>
@@ -9759,6 +9946,7 @@
         <v>109</v>
       </c>
       <c r="L64" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J64,Input_shares!$D$2:$D$87,IND_Shares!$K64)</f>
         <v>0</v>
       </c>
       <c r="M64" s="28">
@@ -9789,7 +9977,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="65" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="65" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G65" s="14" t="s">
         <v>130</v>
       </c>
@@ -9806,19 +9994,20 @@
         <v>110</v>
       </c>
       <c r="L65" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J65,Input_shares!$D$2:$D$87,IND_Shares!$K65)</f>
         <v>0</v>
       </c>
       <c r="M65" s="28">
         <f>M60*R65</f>
-        <v>9.1349999999999992E-4</v>
+        <v>9.1350000000000014E-4</v>
       </c>
       <c r="N65" s="28">
         <f>N60*S65</f>
-        <v>5.4809999999999989E-3</v>
+        <v>5.4810000000000006E-3</v>
       </c>
       <c r="O65" s="28">
         <f>O60*T65</f>
-        <v>1.8269999999999998E-2</v>
+        <v>1.8270000000000002E-2</v>
       </c>
       <c r="P65" s="14">
         <v>5</v>
@@ -9836,7 +10025,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="66" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G66" s="30" t="s">
         <v>130</v>
       </c>
@@ -9853,6 +10042,7 @@
         <v>80</v>
       </c>
       <c r="L66" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J66,Input_shares!$D$2:$D$87,IND_Shares!$K66)</f>
         <v>0</v>
       </c>
       <c r="M66" s="32">
@@ -9884,7 +10074,7 @@
       </c>
       <c r="Z66" s="30"/>
     </row>
-    <row r="67" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="67" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G67" s="17" t="s">
         <v>101</v>
       </c>
@@ -9915,7 +10105,7 @@
       <c r="AF67" s="38"/>
       <c r="AG67" s="38"/>
     </row>
-    <row r="68" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="68" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G68" s="14" t="s">
         <v>130</v>
       </c>
@@ -9932,6 +10122,7 @@
         <v>67</v>
       </c>
       <c r="L68" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J68,Input_shares!$D$2:$D$87,IND_Shares!$K68)</f>
         <v>1.891E-2</v>
       </c>
       <c r="M68" s="24">
@@ -9962,10 +10153,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y68" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA68" s="34" t="str">
         <f>$AA$20</f>
@@ -9994,7 +10185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G69" s="14" t="s">
         <v>130</v>
       </c>
@@ -10011,6 +10202,7 @@
         <v>69</v>
       </c>
       <c r="L69" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J69,Input_shares!$D$2:$D$87,IND_Shares!$K69)</f>
         <v>5.7700000000000001E-2</v>
       </c>
       <c r="M69" s="15"/>
@@ -10024,10 +10216,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y69" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA69" s="34" t="str">
         <f>$AA$20</f>
@@ -10050,7 +10242,7 @@
         <v>-1.891E-2</v>
       </c>
     </row>
-    <row r="70" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="70" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G70" s="14" t="s">
         <v>130</v>
       </c>
@@ -10067,6 +10259,7 @@
         <v>70</v>
       </c>
       <c r="L70" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J70,Input_shares!$D$2:$D$87,IND_Shares!$K70)</f>
         <v>2.3689999999999999E-2</v>
       </c>
       <c r="M70" s="24">
@@ -10101,7 +10294,7 @@
         <v>IND*</v>
       </c>
       <c r="Z70" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA70" s="34" t="str">
         <f>$AA$20</f>
@@ -10130,7 +10323,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="71" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G71" s="14" t="s">
         <v>130</v>
       </c>
@@ -10147,19 +10340,20 @@
         <v>72</v>
       </c>
       <c r="L71" s="23">
-        <v>0.33374000000000004</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J71,Input_shares!$D$2:$D$87,IND_Shares!$K71)</f>
+        <v>0.33373999999999998</v>
       </c>
       <c r="M71" s="24">
         <f t="shared" si="38"/>
-        <v>0.33374000000000004</v>
+        <v>0.33373999999999998</v>
       </c>
       <c r="N71" s="24">
         <f t="shared" si="38"/>
-        <v>0.33374000000000004</v>
+        <v>0.33373999999999998</v>
       </c>
       <c r="O71" s="24">
         <f t="shared" si="38"/>
-        <v>0.33374000000000004</v>
+        <v>0.33373999999999998</v>
       </c>
       <c r="P71" s="14">
         <v>5</v>
@@ -10169,10 +10363,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y71" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z71" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA71" s="34" t="str">
         <f>$AA$20</f>
@@ -10195,7 +10389,7 @@
         <v>-2.3689999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="72" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G72" s="14" t="s">
         <v>130</v>
       </c>
@@ -10212,6 +10406,7 @@
         <v>78</v>
       </c>
       <c r="L72" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J72,Input_shares!$D$2:$D$87,IND_Shares!$K72)</f>
         <v>0.56598999999999999</v>
       </c>
       <c r="M72" s="15"/>
@@ -10237,26 +10432,26 @@
         <v>IND*</v>
       </c>
       <c r="Z72" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA72" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB72" s="25">
         <f>1+AB73</f>
-        <v>0.66625999999999996</v>
+        <v>0.66626000000000007</v>
       </c>
       <c r="AC72" s="25">
         <f t="shared" ref="AC72" si="43">1+AC73</f>
-        <v>0.66625999999999996</v>
+        <v>0.66626000000000007</v>
       </c>
       <c r="AD72" s="25">
         <f t="shared" ref="AD72" si="44">1+AD73</f>
-        <v>0.66625999999999996</v>
+        <v>0.66626000000000007</v>
       </c>
       <c r="AE72" s="25">
         <f t="shared" ref="AE72" si="45">1+AE73</f>
-        <v>0.66625999999999996</v>
+        <v>0.66626000000000007</v>
       </c>
       <c r="AF72" s="8">
         <v>0</v>
@@ -10265,7 +10460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="73" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G73" s="14" t="s">
         <v>130</v>
       </c>
@@ -10282,6 +10477,7 @@
         <v>109</v>
       </c>
       <c r="L73" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J73,Input_shares!$D$2:$D$87,IND_Shares!$K73)</f>
         <v>0</v>
       </c>
       <c r="M73" s="28">
@@ -10313,32 +10509,32 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y73" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z73" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA73" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB73" s="35">
         <f>-L71</f>
-        <v>-0.33374000000000004</v>
+        <v>-0.33373999999999998</v>
       </c>
       <c r="AC73" s="35">
         <f>-M71</f>
-        <v>-0.33374000000000004</v>
+        <v>-0.33373999999999998</v>
       </c>
       <c r="AD73" s="35">
         <f>-N71</f>
-        <v>-0.33374000000000004</v>
+        <v>-0.33373999999999998</v>
       </c>
       <c r="AE73" s="35">
         <f>-O71</f>
-        <v>-0.33374000000000004</v>
-      </c>
-    </row>
-    <row r="74" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-0.33373999999999998</v>
+      </c>
+    </row>
+    <row r="74" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G74" s="14" t="s">
         <v>130</v>
       </c>
@@ -10355,6 +10551,7 @@
         <v>110</v>
       </c>
       <c r="L74" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J74,Input_shares!$D$2:$D$87,IND_Shares!$K74)</f>
         <v>0</v>
       </c>
       <c r="M74" s="28">
@@ -10385,7 +10582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="75" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G75" s="30" t="s">
         <v>130</v>
       </c>
@@ -10402,19 +10599,20 @@
         <v>80</v>
       </c>
       <c r="L75" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J75,Input_shares!$D$2:$D$87,IND_Shares!$K75)</f>
         <v>0</v>
       </c>
       <c r="M75" s="32">
         <f t="shared" si="46"/>
-        <v>1.6687000000000004E-2</v>
+        <v>1.6687E-2</v>
       </c>
       <c r="N75" s="32">
         <f t="shared" si="46"/>
-        <v>0.100122</v>
+        <v>0.10012199999999999</v>
       </c>
       <c r="O75" s="32">
         <f t="shared" si="46"/>
-        <v>0.33374000000000004</v>
+        <v>0.33373999999999998</v>
       </c>
       <c r="P75" s="30">
         <v>5</v>
@@ -10433,7 +10631,7 @@
       </c>
       <c r="Z75" s="30"/>
     </row>
-    <row r="76" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G76" s="17" t="s">
         <v>102</v>
       </c>
@@ -10464,7 +10662,7 @@
       <c r="AF76" s="38"/>
       <c r="AG76" s="38"/>
     </row>
-    <row r="77" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G77" s="14" t="s">
         <v>130</v>
       </c>
@@ -10475,12 +10673,13 @@
         <v>132</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L77" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J77,Input_shares!$D$2:$D$87,IND_Shares!$K77)</f>
         <v>0.20257</v>
       </c>
       <c r="M77" s="24">
@@ -10511,10 +10710,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y77" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z77" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA77" s="34" t="str">
         <f>$AA$20</f>
@@ -10543,7 +10742,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="78" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G78" s="14" t="s">
         <v>130</v>
       </c>
@@ -10554,25 +10753,26 @@
         <v>132</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K78" s="14" t="s">
         <v>67</v>
       </c>
       <c r="L78" s="23">
-        <v>2.2400000000000002E-3</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J78,Input_shares!$D$2:$D$87,IND_Shares!$K78)</f>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="M78" s="24">
         <f t="shared" si="47"/>
-        <v>2.2400000000000002E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="N78" s="24">
         <f t="shared" si="47"/>
-        <v>2.2400000000000002E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="O78" s="24">
         <f t="shared" si="47"/>
-        <v>2.2400000000000002E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="P78" s="14">
         <v>5</v>
@@ -10582,10 +10782,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z78" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA78" s="34" t="str">
         <f>$AA$20</f>
@@ -10593,22 +10793,22 @@
       </c>
       <c r="AB78" s="35">
         <f>-L78</f>
-        <v>-2.2400000000000002E-3</v>
+        <v>-2.2399999999999998E-3</v>
       </c>
       <c r="AC78" s="35">
         <f>-M78</f>
-        <v>-2.2400000000000002E-3</v>
+        <v>-2.2399999999999998E-3</v>
       </c>
       <c r="AD78" s="35">
         <f>-N78</f>
-        <v>-2.2400000000000002E-3</v>
+        <v>-2.2399999999999998E-3</v>
       </c>
       <c r="AE78" s="35">
         <f>-O78</f>
-        <v>-2.2400000000000002E-3</v>
-      </c>
-    </row>
-    <row r="79" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-2.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G79" s="14" t="s">
         <v>130</v>
       </c>
@@ -10619,12 +10819,13 @@
         <v>132</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>69</v>
       </c>
       <c r="L79" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J79,Input_shares!$D$2:$D$87,IND_Shares!$K79)</f>
         <v>5.2599999999999999E-3</v>
       </c>
       <c r="M79" s="15"/>
@@ -10650,7 +10851,7 @@
         <v>IND*</v>
       </c>
       <c r="Z79" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA79" s="34" t="str">
         <f>$AA$20</f>
@@ -10679,7 +10880,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="80" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="80" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G80" s="14" t="s">
         <v>130</v>
       </c>
@@ -10690,12 +10891,13 @@
         <v>132</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>70</v>
       </c>
       <c r="L80" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J80,Input_shares!$D$2:$D$87,IND_Shares!$K80)</f>
         <v>2.8510000000000001E-2</v>
       </c>
       <c r="M80" s="24">
@@ -10718,10 +10920,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y80" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z80" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA80" s="34" t="str">
         <f>$AA$20</f>
@@ -10744,7 +10946,7 @@
         <v>-2.8510000000000001E-2</v>
       </c>
     </row>
-    <row r="81" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G81" s="14" t="s">
         <v>130</v>
       </c>
@@ -10755,12 +10957,13 @@
         <v>132</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L81" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J81,Input_shares!$D$2:$D$87,IND_Shares!$K81)</f>
         <v>0.31075000000000003</v>
       </c>
       <c r="M81" s="24">
@@ -10795,7 +10998,7 @@
         <v>IND*</v>
       </c>
       <c r="Z81" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA81" s="22" t="s">
         <v>131</v>
@@ -10823,7 +11026,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G82" s="14" t="s">
         <v>130</v>
       </c>
@@ -10834,12 +11037,13 @@
         <v>132</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K82" s="14" t="s">
         <v>72</v>
       </c>
       <c r="L82" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J82,Input_shares!$D$2:$D$87,IND_Shares!$K82)</f>
         <v>7.646E-2</v>
       </c>
       <c r="M82" s="24">
@@ -10862,10 +11066,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y82" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z82" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA82" s="22" t="s">
         <v>131</v>
@@ -10887,7 +11091,7 @@
         <v>-7.646E-2</v>
       </c>
     </row>
-    <row r="83" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G83" s="14" t="s">
         <v>130</v>
       </c>
@@ -10898,12 +11102,13 @@
         <v>132</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K83" s="14" t="s">
         <v>78</v>
       </c>
       <c r="L83" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J83,Input_shares!$D$2:$D$87,IND_Shares!$K83)</f>
         <v>0.14044000000000001</v>
       </c>
       <c r="M83" s="15"/>
@@ -10929,7 +11134,7 @@
         <v>IND*</v>
       </c>
       <c r="Z83" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA83" s="22" t="s">
         <v>131</v>
@@ -10957,7 +11162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G84" s="14" t="s">
         <v>130</v>
       </c>
@@ -10968,12 +11173,13 @@
         <v>132</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K84" s="14" t="s">
         <v>81</v>
       </c>
       <c r="L84" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J84,Input_shares!$D$2:$D$87,IND_Shares!$K84)</f>
         <v>5.9199999999999999E-3</v>
       </c>
       <c r="M84" s="24">
@@ -11008,10 +11214,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y84" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Z84" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA84" s="22" t="s">
         <v>131</v>
@@ -11033,7 +11239,7 @@
         <v>-0.51924000000000003</v>
       </c>
     </row>
-    <row r="85" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G85" s="14" t="s">
         <v>130</v>
       </c>
@@ -11044,12 +11250,13 @@
         <v>132</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K85" s="14" t="s">
         <v>87</v>
       </c>
       <c r="L85" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J85,Input_shares!$D$2:$D$87,IND_Shares!$K85)</f>
         <v>0.10571999999999999</v>
       </c>
       <c r="M85" s="24"/>
@@ -11065,7 +11272,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="86" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G86" s="14" t="s">
         <v>130</v>
       </c>
@@ -11076,12 +11283,13 @@
         <v>132</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K86" s="14" t="s">
         <v>88</v>
       </c>
       <c r="L86" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J86,Input_shares!$D$2:$D$87,IND_Shares!$K86)</f>
         <v>0.12218999999999999</v>
       </c>
       <c r="M86" s="15"/>
@@ -11097,7 +11305,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="87" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G87" s="14" t="s">
         <v>130</v>
       </c>
@@ -11108,25 +11316,26 @@
         <v>132</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>109</v>
       </c>
       <c r="L87" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J87,Input_shares!$D$2:$D$87,IND_Shares!$K87)</f>
         <v>0</v>
       </c>
       <c r="M87" s="28">
         <f>M78*R87</f>
-        <v>1.1200000000000001E-4</v>
+        <v>1.12E-4</v>
       </c>
       <c r="N87" s="28">
         <f>N78*S87</f>
-        <v>6.7200000000000007E-4</v>
+        <v>6.7199999999999996E-4</v>
       </c>
       <c r="O87" s="28">
         <f>O78*T87</f>
-        <v>2.2400000000000002E-3</v>
+        <v>2.2399999999999998E-3</v>
       </c>
       <c r="P87" s="14">
         <v>5</v>
@@ -11144,7 +11353,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="88" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G88" s="14" t="s">
         <v>130</v>
       </c>
@@ -11155,12 +11364,13 @@
         <v>132</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L88" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J88,Input_shares!$D$2:$D$87,IND_Shares!$K88)</f>
         <v>0</v>
       </c>
       <c r="M88" s="28">
@@ -11191,7 +11401,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="89" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G89" s="14" t="s">
         <v>130</v>
       </c>
@@ -11202,12 +11412,13 @@
         <v>132</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>80</v>
       </c>
       <c r="L89" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J89,Input_shares!$D$2:$D$87,IND_Shares!$K89)</f>
         <v>0</v>
       </c>
       <c r="M89" s="28">
@@ -11238,7 +11449,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="90" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G90" s="30" t="s">
         <v>130</v>
       </c>
@@ -11249,12 +11460,13 @@
         <v>132</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="L90" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J90,Input_shares!$D$2:$D$87,IND_Shares!$K90)</f>
         <v>0</v>
       </c>
       <c r="M90" s="32">
@@ -11289,7 +11501,7 @@
       </c>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G91" s="17" t="s">
         <v>103</v>
       </c>
@@ -11320,7 +11532,7 @@
       <c r="AF91" s="38"/>
       <c r="AG91" s="38"/>
     </row>
-    <row r="92" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G92" s="14" t="s">
         <v>130</v>
       </c>
@@ -11337,6 +11549,7 @@
         <v>65</v>
       </c>
       <c r="L92" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J92,Input_shares!$D$2:$D$87,IND_Shares!$K92)</f>
         <v>0</v>
       </c>
       <c r="M92" s="15"/>
@@ -11358,10 +11571,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y92" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z92" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA92" s="34" t="str">
         <f>$AA$20</f>
@@ -11390,7 +11603,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G93" s="14" t="s">
         <v>130</v>
       </c>
@@ -11407,6 +11620,7 @@
         <v>67</v>
       </c>
       <c r="L93" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J93,Input_shares!$D$2:$D$87,IND_Shares!$K93)</f>
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="M93" s="24">
@@ -11429,10 +11643,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y93" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z93" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA93" s="34" t="str">
         <f>$AA$20</f>
@@ -11455,7 +11669,7 @@
         <v>-8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="94" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G94" s="14" t="s">
         <v>130</v>
       </c>
@@ -11472,6 +11686,7 @@
         <v>68</v>
       </c>
       <c r="L94" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J94,Input_shares!$D$2:$D$87,IND_Shares!$K94)</f>
         <v>1.6100000000000001E-3</v>
       </c>
       <c r="M94" s="15"/>
@@ -11497,7 +11712,7 @@
         <v>IND*</v>
       </c>
       <c r="Z94" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA94" s="34" t="str">
         <f>$AA$20</f>
@@ -11526,7 +11741,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G95" s="14" t="s">
         <v>130</v>
       </c>
@@ -11543,6 +11758,7 @@
         <v>69</v>
       </c>
       <c r="L95" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J95,Input_shares!$D$2:$D$87,IND_Shares!$K95)</f>
         <v>2.64E-3</v>
       </c>
       <c r="M95" s="15"/>
@@ -11556,10 +11772,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y95" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z95" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA95" s="34" t="str">
         <f>$AA$20</f>
@@ -11582,7 +11798,7 @@
         <v>-3.5799999999999998E-3</v>
       </c>
     </row>
-    <row r="96" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G96" s="14" t="s">
         <v>130</v>
       </c>
@@ -11599,6 +11815,7 @@
         <v>70</v>
       </c>
       <c r="L96" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J96,Input_shares!$D$2:$D$87,IND_Shares!$K96)</f>
         <v>3.5799999999999998E-3</v>
       </c>
       <c r="M96" s="24">
@@ -11633,26 +11850,26 @@
         <v>IND*</v>
       </c>
       <c r="Z96" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA96" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB96" s="25">
         <f>1+AB97</f>
-        <v>0.13352000000000008</v>
+        <v>0.13351999999999997</v>
       </c>
       <c r="AC96" s="25">
         <f t="shared" ref="AC96" si="69">1+AC97</f>
-        <v>0.13352000000000008</v>
+        <v>0.13351999999999997</v>
       </c>
       <c r="AD96" s="25">
         <f t="shared" ref="AD96" si="70">1+AD97</f>
-        <v>0.13352000000000008</v>
+        <v>0.13351999999999997</v>
       </c>
       <c r="AE96" s="25">
         <f t="shared" ref="AE96" si="71">1+AE97</f>
-        <v>0.13352000000000008</v>
+        <v>0.13351999999999997</v>
       </c>
       <c r="AF96" s="8">
         <v>0</v>
@@ -11661,7 +11878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="97" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G97" s="14" t="s">
         <v>130</v>
       </c>
@@ -11678,19 +11895,20 @@
         <v>72</v>
       </c>
       <c r="L97" s="23">
-        <v>0.86647999999999992</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J97,Input_shares!$D$2:$D$87,IND_Shares!$K97)</f>
+        <v>0.86648000000000003</v>
       </c>
       <c r="M97" s="24">
         <f t="shared" si="68"/>
-        <v>0.86647999999999992</v>
+        <v>0.86648000000000003</v>
       </c>
       <c r="N97" s="24">
         <f t="shared" si="68"/>
-        <v>0.86647999999999992</v>
+        <v>0.86648000000000003</v>
       </c>
       <c r="O97" s="24">
         <f t="shared" si="68"/>
-        <v>0.86647999999999992</v>
+        <v>0.86648000000000003</v>
       </c>
       <c r="P97" s="14">
         <v>5</v>
@@ -11709,32 +11927,32 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y97" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z97" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA97" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB97" s="35">
         <f>-L97</f>
-        <v>-0.86647999999999992</v>
+        <v>-0.86648000000000003</v>
       </c>
       <c r="AC97" s="35">
         <f>-M97</f>
-        <v>-0.86647999999999992</v>
+        <v>-0.86648000000000003</v>
       </c>
       <c r="AD97" s="35">
         <f>-N97</f>
-        <v>-0.86647999999999992</v>
+        <v>-0.86648000000000003</v>
       </c>
       <c r="AE97" s="35">
         <f>-O97</f>
-        <v>-0.86647999999999992</v>
-      </c>
-    </row>
-    <row r="98" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-0.86648000000000003</v>
+      </c>
+    </row>
+    <row r="98" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G98" s="14" t="s">
         <v>130</v>
       </c>
@@ -11751,7 +11969,8 @@
         <v>78</v>
       </c>
       <c r="L98" s="23">
-        <v>0.12480999999999999</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J98,Input_shares!$D$2:$D$87,IND_Shares!$K98)</f>
+        <v>0.12481</v>
       </c>
       <c r="M98" s="15"/>
       <c r="N98" s="15"/>
@@ -11772,7 +11991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="99" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="99" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G99" s="14" t="s">
         <v>130</v>
       </c>
@@ -11789,6 +12008,7 @@
         <v>109</v>
       </c>
       <c r="L99" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J99,Input_shares!$D$2:$D$87,IND_Shares!$K99)</f>
         <v>0</v>
       </c>
       <c r="M99" s="28">
@@ -11819,7 +12039,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="100" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="100" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G100" s="14" t="s">
         <v>130</v>
       </c>
@@ -11836,6 +12056,7 @@
         <v>110</v>
       </c>
       <c r="L100" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J100,Input_shares!$D$2:$D$87,IND_Shares!$K100)</f>
         <v>0</v>
       </c>
       <c r="M100" s="28">
@@ -11857,7 +12078,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="101" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="101" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G101" s="30" t="s">
         <v>130</v>
       </c>
@@ -11874,6 +12095,7 @@
         <v>80</v>
       </c>
       <c r="L101" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J101,Input_shares!$D$2:$D$87,IND_Shares!$K101)</f>
         <v>0</v>
       </c>
       <c r="M101" s="32">
@@ -11882,11 +12104,11 @@
       </c>
       <c r="N101" s="32">
         <f t="shared" si="72"/>
-        <v>0.25994399999999995</v>
+        <v>0.25994400000000001</v>
       </c>
       <c r="O101" s="32">
         <f t="shared" si="72"/>
-        <v>0.86647999999999992</v>
+        <v>0.86648000000000003</v>
       </c>
       <c r="P101" s="30">
         <v>5</v>
@@ -11896,7 +12118,7 @@
       </c>
       <c r="Z101" s="30"/>
     </row>
-    <row r="102" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="102" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G102" s="17" t="s">
         <v>104</v>
       </c>
@@ -11927,7 +12149,7 @@
       <c r="AF102" s="38"/>
       <c r="AG102" s="38"/>
     </row>
-    <row r="103" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G103" s="14" t="s">
         <v>130</v>
       </c>
@@ -11944,6 +12166,7 @@
         <v>67</v>
       </c>
       <c r="L103" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J103,Input_shares!$D$2:$D$87,IND_Shares!$K103)</f>
         <v>8.5299999999999994E-3</v>
       </c>
       <c r="M103" s="24">
@@ -11974,10 +12197,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y103" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z103" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA103" s="34" t="str">
         <f>$AA$20</f>
@@ -12006,7 +12229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G104" s="14" t="s">
         <v>130</v>
       </c>
@@ -12023,7 +12246,8 @@
         <v>69</v>
       </c>
       <c r="L104" s="23">
-        <v>5.2570000000000006E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J104,Input_shares!$D$2:$D$87,IND_Shares!$K104)</f>
+        <v>5.2569999999999999E-2</v>
       </c>
       <c r="M104" s="15"/>
       <c r="N104" s="15"/>
@@ -12036,10 +12260,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y104" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z104" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA104" s="34" t="str">
         <f>$AA$20</f>
@@ -12062,7 +12286,7 @@
         <v>-8.5299999999999994E-3</v>
       </c>
     </row>
-    <row r="105" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G105" s="14" t="s">
         <v>130</v>
       </c>
@@ -12079,6 +12303,7 @@
         <v>70</v>
       </c>
       <c r="L105" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J105,Input_shares!$D$2:$D$87,IND_Shares!$K105)</f>
         <v>3.7220000000000003E-2</v>
       </c>
       <c r="M105" s="24">
@@ -12113,7 +12338,7 @@
         <v>IND*</v>
       </c>
       <c r="Z105" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA105" s="34" t="str">
         <f>$AA$20</f>
@@ -12142,7 +12367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="106" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G106" s="14" t="s">
         <v>130</v>
       </c>
@@ -12159,6 +12384,7 @@
         <v>72</v>
       </c>
       <c r="L106" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J106,Input_shares!$D$2:$D$87,IND_Shares!$K106)</f>
         <v>0.42292000000000002</v>
       </c>
       <c r="M106" s="24">
@@ -12190,10 +12416,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y106" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z106" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA106" s="34" t="str">
         <f>$AA$20</f>
@@ -12216,7 +12442,7 @@
         <v>-3.7220000000000003E-2</v>
       </c>
     </row>
-    <row r="107" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="107" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G107" s="14" t="s">
         <v>130</v>
       </c>
@@ -12233,6 +12459,7 @@
         <v>78</v>
       </c>
       <c r="L107" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J107,Input_shares!$D$2:$D$87,IND_Shares!$K107)</f>
         <v>0.47877999999999998</v>
       </c>
       <c r="M107" s="15"/>
@@ -12267,7 +12494,7 @@
         <v>IND*</v>
       </c>
       <c r="Z107" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA107" s="22" t="s">
         <v>131</v>
@@ -12295,7 +12522,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="108" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G108" s="14" t="s">
         <v>130</v>
       </c>
@@ -12312,6 +12539,7 @@
         <v>109</v>
       </c>
       <c r="L108" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J108,Input_shares!$D$2:$D$87,IND_Shares!$K108)</f>
         <v>0</v>
       </c>
       <c r="M108" s="28">
@@ -12343,10 +12571,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y108" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z108" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA108" s="22" t="s">
         <v>131</v>
@@ -12368,7 +12596,7 @@
         <v>-0.42292000000000002</v>
       </c>
     </row>
-    <row r="109" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="109" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G109" s="14" t="s">
         <v>130</v>
       </c>
@@ -12385,6 +12613,7 @@
         <v>110</v>
       </c>
       <c r="L109" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J109,Input_shares!$D$2:$D$87,IND_Shares!$K109)</f>
         <v>0</v>
       </c>
       <c r="M109" s="28">
@@ -12406,7 +12635,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="110" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G110" s="30" t="s">
         <v>130</v>
       </c>
@@ -12423,6 +12652,7 @@
         <v>80</v>
       </c>
       <c r="L110" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J110,Input_shares!$D$2:$D$87,IND_Shares!$K110)</f>
         <v>0</v>
       </c>
       <c r="M110" s="32">
@@ -12445,7 +12675,7 @@
       </c>
       <c r="Z110" s="30"/>
     </row>
-    <row r="111" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G111" s="17" t="s">
         <v>105</v>
       </c>
@@ -12476,7 +12706,7 @@
       <c r="AF111" s="38"/>
       <c r="AG111" s="38"/>
     </row>
-    <row r="112" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G112" s="14" t="s">
         <v>130</v>
       </c>
@@ -12493,6 +12723,7 @@
         <v>67</v>
       </c>
       <c r="L112" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J112,Input_shares!$D$2:$D$87,IND_Shares!$K112)</f>
         <v>2.2899999999999999E-3</v>
       </c>
       <c r="M112" s="24">
@@ -12523,10 +12754,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y112" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z112" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA112" s="34" t="str">
         <f>$AA$20</f>
@@ -12555,7 +12786,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G113" s="14" t="s">
         <v>130</v>
       </c>
@@ -12572,6 +12803,7 @@
         <v>69</v>
       </c>
       <c r="L113" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J113,Input_shares!$D$2:$D$87,IND_Shares!$K113)</f>
         <v>1.4449999999999999E-2</v>
       </c>
       <c r="M113" s="15"/>
@@ -12585,10 +12817,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y113" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z113" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA113" s="34" t="str">
         <f>$AA$20</f>
@@ -12611,7 +12843,7 @@
         <v>-2.2899999999999999E-3</v>
       </c>
     </row>
-    <row r="114" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G114" s="14" t="s">
         <v>130</v>
       </c>
@@ -12628,19 +12860,20 @@
         <v>70</v>
       </c>
       <c r="L114" s="23">
-        <v>4.3999999999999994E-3</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J114,Input_shares!$D$2:$D$87,IND_Shares!$K114)</f>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="M114" s="24">
         <f t="shared" ref="M114:O115" si="88">L114</f>
-        <v>4.3999999999999994E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="N114" s="24">
         <f t="shared" si="88"/>
-        <v>4.3999999999999994E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="O114" s="24">
         <f t="shared" si="88"/>
-        <v>4.3999999999999994E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="P114" s="14">
         <v>5</v>
@@ -12662,7 +12895,7 @@
         <v>IND*</v>
       </c>
       <c r="Z114" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA114" s="34" t="str">
         <f>$AA$20</f>
@@ -12691,7 +12924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="115" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G115" s="14" t="s">
         <v>130</v>
       </c>
@@ -12708,19 +12941,20 @@
         <v>72</v>
       </c>
       <c r="L115" s="23">
-        <v>0.17747000000000002</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J115,Input_shares!$D$2:$D$87,IND_Shares!$K115)</f>
+        <v>0.17746999999999999</v>
       </c>
       <c r="M115" s="24">
         <f t="shared" si="88"/>
-        <v>0.17747000000000002</v>
+        <v>0.17746999999999999</v>
       </c>
       <c r="N115" s="24">
         <f t="shared" si="88"/>
-        <v>0.17747000000000002</v>
+        <v>0.17746999999999999</v>
       </c>
       <c r="O115" s="24">
         <f t="shared" si="88"/>
-        <v>0.17747000000000002</v>
+        <v>0.17746999999999999</v>
       </c>
       <c r="P115" s="14">
         <v>5</v>
@@ -12739,10 +12973,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y115" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z115" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA115" s="34" t="str">
         <f>$AA$20</f>
@@ -12750,22 +12984,22 @@
       </c>
       <c r="AB115" s="35">
         <f>-L114</f>
-        <v>-4.3999999999999994E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="AC115" s="35">
         <f>-M114</f>
-        <v>-4.3999999999999994E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="AD115" s="35">
         <f>-N114</f>
-        <v>-4.3999999999999994E-3</v>
+        <v>-4.4000000000000003E-3</v>
       </c>
       <c r="AE115" s="35">
         <f>-O114</f>
-        <v>-4.3999999999999994E-3</v>
-      </c>
-    </row>
-    <row r="116" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G116" s="14" t="s">
         <v>130</v>
       </c>
@@ -12782,7 +13016,8 @@
         <v>78</v>
       </c>
       <c r="L116" s="23">
-        <v>0.80141999999999991</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J116,Input_shares!$D$2:$D$87,IND_Shares!$K116)</f>
+        <v>0.80142000000000002</v>
       </c>
       <c r="M116" s="15"/>
       <c r="N116" s="15"/>
@@ -12816,7 +13051,7 @@
         <v>IND*</v>
       </c>
       <c r="Z116" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA116" s="22" t="s">
         <v>131</v>
@@ -12844,7 +13079,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G117" s="14" t="s">
         <v>130</v>
       </c>
@@ -12861,6 +13096,7 @@
         <v>109</v>
       </c>
       <c r="L117" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J117,Input_shares!$D$2:$D$87,IND_Shares!$K117)</f>
         <v>0</v>
       </c>
       <c r="M117" s="28">
@@ -12892,32 +13128,32 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y117" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z117" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA117" s="22" t="s">
         <v>131</v>
       </c>
       <c r="AB117" s="35">
         <f>-L115</f>
-        <v>-0.17747000000000002</v>
+        <v>-0.17746999999999999</v>
       </c>
       <c r="AC117" s="35">
         <f>-M115</f>
-        <v>-0.17747000000000002</v>
+        <v>-0.17746999999999999</v>
       </c>
       <c r="AD117" s="35">
         <f>-N115</f>
-        <v>-0.17747000000000002</v>
+        <v>-0.17746999999999999</v>
       </c>
       <c r="AE117" s="35">
         <f>-O115</f>
-        <v>-0.17747000000000002</v>
-      </c>
-    </row>
-    <row r="118" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-0.17746999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G118" s="14" t="s">
         <v>130</v>
       </c>
@@ -12934,19 +13170,20 @@
         <v>110</v>
       </c>
       <c r="L118" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J118,Input_shares!$D$2:$D$87,IND_Shares!$K118)</f>
         <v>0</v>
       </c>
       <c r="M118" s="28">
         <f t="shared" ref="M118:O119" si="96">M114*R116</f>
-        <v>2.1999999999999998E-4</v>
+        <v>2.2000000000000003E-4</v>
       </c>
       <c r="N118" s="28">
         <f t="shared" si="96"/>
-        <v>1.3199999999999998E-3</v>
+        <v>1.32E-3</v>
       </c>
       <c r="O118" s="28">
         <f t="shared" si="96"/>
-        <v>4.3999999999999994E-3</v>
+        <v>4.4000000000000003E-3</v>
       </c>
       <c r="P118" s="14">
         <v>5</v>
@@ -12955,7 +13192,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="119" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="119" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G119" s="30" t="s">
         <v>130</v>
       </c>
@@ -12972,19 +13209,20 @@
         <v>80</v>
       </c>
       <c r="L119" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J119,Input_shares!$D$2:$D$87,IND_Shares!$K119)</f>
         <v>0</v>
       </c>
       <c r="M119" s="32">
         <f t="shared" si="96"/>
-        <v>8.8735000000000012E-3</v>
+        <v>8.8734999999999994E-3</v>
       </c>
       <c r="N119" s="32">
         <f t="shared" si="96"/>
-        <v>5.3241000000000004E-2</v>
+        <v>5.3240999999999997E-2</v>
       </c>
       <c r="O119" s="32">
         <f t="shared" si="96"/>
-        <v>0.17747000000000002</v>
+        <v>0.17746999999999999</v>
       </c>
       <c r="P119" s="30">
         <v>5</v>
@@ -12994,7 +13232,7 @@
       </c>
       <c r="Z119" s="30"/>
     </row>
-    <row r="120" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="120" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G120" s="17" t="s">
         <v>106</v>
       </c>
@@ -13025,7 +13263,7 @@
       <c r="AF120" s="38"/>
       <c r="AG120" s="38"/>
     </row>
-    <row r="121" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="121" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G121" s="14" t="s">
         <v>130</v>
       </c>
@@ -13042,6 +13280,7 @@
         <v>67</v>
       </c>
       <c r="L121" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J121,Input_shares!$D$2:$D$87,IND_Shares!$K121)</f>
         <v>1.34E-2</v>
       </c>
       <c r="M121" s="24">
@@ -13072,10 +13311,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y121" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z121" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA121" s="34" t="str">
         <f>$AA$20</f>
@@ -13104,7 +13343,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G122" s="14" t="s">
         <v>130</v>
       </c>
@@ -13121,7 +13360,8 @@
         <v>69</v>
       </c>
       <c r="L122" s="23">
-        <v>0.16418000000000002</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J122,Input_shares!$D$2:$D$87,IND_Shares!$K122)</f>
+        <v>0.16417999999999999</v>
       </c>
       <c r="M122" s="15"/>
       <c r="N122" s="15"/>
@@ -13134,10 +13374,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y122" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z122" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA122" s="34" t="str">
         <f>$AA$20</f>
@@ -13160,7 +13400,7 @@
         <v>-1.34E-2</v>
       </c>
     </row>
-    <row r="123" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G123" s="14" t="s">
         <v>130</v>
       </c>
@@ -13177,6 +13417,7 @@
         <v>70</v>
       </c>
       <c r="L123" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J123,Input_shares!$D$2:$D$87,IND_Shares!$K123)</f>
         <v>4.5650000000000003E-2</v>
       </c>
       <c r="M123" s="24">
@@ -13211,7 +13452,7 @@
         <v>IND*</v>
       </c>
       <c r="Z123" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA123" s="34" t="str">
         <f>$AA$20</f>
@@ -13240,7 +13481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G124" s="14" t="s">
         <v>130</v>
       </c>
@@ -13257,6 +13498,7 @@
         <v>72</v>
       </c>
       <c r="L124" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J124,Input_shares!$D$2:$D$87,IND_Shares!$K124)</f>
         <v>0.20462</v>
       </c>
       <c r="M124" s="24">
@@ -13288,10 +13530,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y124" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z124" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA124" s="34" t="str">
         <f>$AA$20</f>
@@ -13314,7 +13556,7 @@
         <v>-4.5650000000000003E-2</v>
       </c>
     </row>
-    <row r="125" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G125" s="14" t="s">
         <v>130</v>
       </c>
@@ -13331,7 +13573,8 @@
         <v>78</v>
       </c>
       <c r="L125" s="23">
-        <v>0.57217999999999991</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J125,Input_shares!$D$2:$D$87,IND_Shares!$K125)</f>
+        <v>0.57218000000000002</v>
       </c>
       <c r="M125" s="15"/>
       <c r="N125" s="15"/>
@@ -13365,7 +13608,7 @@
         <v>IND*</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA125" s="22" t="s">
         <v>131</v>
@@ -13393,7 +13636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="126" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G126" s="14" t="s">
         <v>130</v>
       </c>
@@ -13410,6 +13653,7 @@
         <v>109</v>
       </c>
       <c r="L126" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J126,Input_shares!$D$2:$D$87,IND_Shares!$K126)</f>
         <v>0</v>
       </c>
       <c r="M126" s="28">
@@ -13441,10 +13685,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y126" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z126" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA126" s="22" t="s">
         <v>131</v>
@@ -13466,7 +13710,7 @@
         <v>-0.20462</v>
       </c>
     </row>
-    <row r="127" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G127" s="14" t="s">
         <v>130</v>
       </c>
@@ -13483,6 +13727,7 @@
         <v>110</v>
       </c>
       <c r="L127" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J127,Input_shares!$D$2:$D$87,IND_Shares!$K127)</f>
         <v>0</v>
       </c>
       <c r="M127" s="28">
@@ -13504,7 +13749,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="128" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G128" s="30" t="s">
         <v>130</v>
       </c>
@@ -13521,6 +13766,7 @@
         <v>80</v>
       </c>
       <c r="L128" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J128,Input_shares!$D$2:$D$87,IND_Shares!$K128)</f>
         <v>0</v>
       </c>
       <c r="M128" s="32">
@@ -13543,7 +13789,7 @@
       </c>
       <c r="Z128" s="30"/>
     </row>
-    <row r="129" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G129" s="17" t="s">
         <v>107</v>
       </c>
@@ -13574,7 +13820,7 @@
       <c r="AF129" s="38"/>
       <c r="AG129" s="38"/>
     </row>
-    <row r="130" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G130" s="14" t="s">
         <v>130</v>
       </c>
@@ -13591,6 +13837,7 @@
         <v>67</v>
       </c>
       <c r="L130" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J130,Input_shares!$D$2:$D$87,IND_Shares!$K130)</f>
         <v>3.7599999999999999E-3</v>
       </c>
       <c r="M130" s="24">
@@ -13621,10 +13868,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y130" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z130" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA130" s="34" t="str">
         <f>$AA$20</f>
@@ -13653,7 +13900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G131" s="14" t="s">
         <v>130</v>
       </c>
@@ -13670,6 +13917,7 @@
         <v>68</v>
       </c>
       <c r="L131" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J131,Input_shares!$D$2:$D$87,IND_Shares!$K131)</f>
         <v>3.0630000000000001E-2</v>
       </c>
       <c r="M131" s="15"/>
@@ -13683,10 +13931,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y131" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z131" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA131" s="34" t="str">
         <f>$AA$20</f>
@@ -13709,7 +13957,7 @@
         <v>-3.7599999999999999E-3</v>
       </c>
     </row>
-    <row r="132" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G132" s="14" t="s">
         <v>130</v>
       </c>
@@ -13726,6 +13974,7 @@
         <v>69</v>
       </c>
       <c r="L132" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J132,Input_shares!$D$2:$D$87,IND_Shares!$K132)</f>
         <v>5.0340000000000003E-2</v>
       </c>
       <c r="M132" s="15"/>
@@ -13751,7 +14000,7 @@
         <v>IND*</v>
       </c>
       <c r="Z132" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA132" s="34" t="str">
         <f>$AA$20</f>
@@ -13780,7 +14029,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G133" s="14" t="s">
         <v>130</v>
       </c>
@@ -13797,19 +14046,20 @@
         <v>70</v>
       </c>
       <c r="L133" s="23">
-        <v>1.7079999999999998E-2</v>
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J133,Input_shares!$D$2:$D$87,IND_Shares!$K133)</f>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="M133" s="24">
         <f t="shared" ref="M133:O134" si="116">L133</f>
-        <v>1.7079999999999998E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="N133" s="24">
         <f t="shared" si="116"/>
-        <v>1.7079999999999998E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="O133" s="24">
         <f t="shared" si="116"/>
-        <v>1.7079999999999998E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="P133" s="14">
         <v>5</v>
@@ -13819,10 +14069,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y133" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z133" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA133" s="34" t="str">
         <f>$AA$20</f>
@@ -13830,22 +14080,22 @@
       </c>
       <c r="AB133" s="35">
         <f>-L133</f>
-        <v>-1.7079999999999998E-2</v>
+        <v>-1.7080000000000001E-2</v>
       </c>
       <c r="AC133" s="35">
         <f>-M133</f>
-        <v>-1.7079999999999998E-2</v>
+        <v>-1.7080000000000001E-2</v>
       </c>
       <c r="AD133" s="35">
         <f>-N133</f>
-        <v>-1.7079999999999998E-2</v>
+        <v>-1.7080000000000001E-2</v>
       </c>
       <c r="AE133" s="35">
         <f>-O133</f>
-        <v>-1.7079999999999998E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="7:33" x14ac:dyDescent="0.25">
+        <v>-1.7080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G134" s="14" t="s">
         <v>130</v>
       </c>
@@ -13862,6 +14112,7 @@
         <v>72</v>
       </c>
       <c r="L134" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J134,Input_shares!$D$2:$D$87,IND_Shares!$K134)</f>
         <v>0.42902000000000001</v>
       </c>
       <c r="M134" s="24">
@@ -13905,7 +14156,7 @@
         <v>IND*</v>
       </c>
       <c r="Z134" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA134" s="22" t="s">
         <v>131</v>
@@ -13933,7 +14184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G135" s="14" t="s">
         <v>130</v>
       </c>
@@ -13950,6 +14201,7 @@
         <v>78</v>
       </c>
       <c r="L135" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J135,Input_shares!$D$2:$D$87,IND_Shares!$K135)</f>
         <v>0.46919</v>
       </c>
       <c r="M135" s="15"/>
@@ -13972,10 +14224,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y135" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z135" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA135" s="22" t="s">
         <v>131</v>
@@ -13997,7 +14249,7 @@
         <v>-0.42902000000000001</v>
       </c>
     </row>
-    <row r="136" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G136" s="14" t="s">
         <v>130</v>
       </c>
@@ -14014,6 +14266,7 @@
         <v>109</v>
       </c>
       <c r="L136" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J136,Input_shares!$D$2:$D$87,IND_Shares!$K136)</f>
         <v>0</v>
       </c>
       <c r="M136" s="28">
@@ -14044,7 +14297,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G137" s="14" t="s">
         <v>130</v>
       </c>
@@ -14061,19 +14314,20 @@
         <v>110</v>
       </c>
       <c r="L137" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J137,Input_shares!$D$2:$D$87,IND_Shares!$K137)</f>
         <v>0</v>
       </c>
       <c r="M137" s="28">
         <f t="shared" ref="M137:O138" si="120">M133*R135</f>
-        <v>8.5399999999999994E-4</v>
+        <v>8.5400000000000016E-4</v>
       </c>
       <c r="N137" s="28">
         <f t="shared" si="120"/>
-        <v>5.1239999999999992E-3</v>
+        <v>5.1240000000000001E-3</v>
       </c>
       <c r="O137" s="28">
         <f t="shared" si="120"/>
-        <v>1.7079999999999998E-2</v>
+        <v>1.7080000000000001E-2</v>
       </c>
       <c r="P137" s="14">
         <v>5</v>
@@ -14082,7 +14336,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G138" s="30" t="s">
         <v>130</v>
       </c>
@@ -14099,6 +14353,7 @@
         <v>80</v>
       </c>
       <c r="L138" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J138,Input_shares!$D$2:$D$87,IND_Shares!$K138)</f>
         <v>0</v>
       </c>
       <c r="M138" s="32">
@@ -14121,7 +14376,7 @@
       </c>
       <c r="Z138" s="30"/>
     </row>
-    <row r="139" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G139" s="17" t="s">
         <v>108</v>
       </c>
@@ -14152,7 +14407,7 @@
       <c r="AF139" s="38"/>
       <c r="AG139" s="38"/>
     </row>
-    <row r="140" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G140" s="14" t="s">
         <v>130</v>
       </c>
@@ -14169,6 +14424,7 @@
         <v>67</v>
       </c>
       <c r="L140" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J140,Input_shares!$D$2:$D$87,IND_Shares!$K140)</f>
         <v>1.6049999999999998E-2</v>
       </c>
       <c r="M140" s="24">
@@ -14199,10 +14455,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y140" s="22" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Z140" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA140" s="34" t="str">
         <f>$AA$20</f>
@@ -14231,7 +14487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="141" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="141" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G141" s="14" t="s">
         <v>130</v>
       </c>
@@ -14248,6 +14504,7 @@
         <v>69</v>
       </c>
       <c r="L141" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J141,Input_shares!$D$2:$D$87,IND_Shares!$K141)</f>
         <v>1.324E-2</v>
       </c>
       <c r="M141" s="15"/>
@@ -14261,10 +14518,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y141" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z141" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA141" s="34" t="str">
         <f>$AA$20</f>
@@ -14287,7 +14544,7 @@
         <v>-1.6049999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="142" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G142" s="14" t="s">
         <v>130</v>
       </c>
@@ -14304,6 +14561,7 @@
         <v>70</v>
       </c>
       <c r="L142" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J142,Input_shares!$D$2:$D$87,IND_Shares!$K142)</f>
         <v>0.70487999999999995</v>
       </c>
       <c r="M142" s="24">
@@ -14338,7 +14596,7 @@
         <v>IND*</v>
       </c>
       <c r="Z142" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA142" s="34" t="str">
         <f>$AA$20</f>
@@ -14367,7 +14625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="143" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G143" s="14" t="s">
         <v>130</v>
       </c>
@@ -14384,6 +14642,7 @@
         <v>72</v>
       </c>
       <c r="L143" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J143,Input_shares!$D$2:$D$87,IND_Shares!$K143)</f>
         <v>7.2489999999999999E-2</v>
       </c>
       <c r="M143" s="24">
@@ -14415,10 +14674,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y143" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z143" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA143" s="34" t="str">
         <f>$AA$20</f>
@@ -14441,7 +14700,7 @@
         <v>-0.70487999999999995</v>
       </c>
     </row>
-    <row r="144" spans="7:33" x14ac:dyDescent="0.25">
+    <row r="144" spans="7:33" x14ac:dyDescent="0.35">
       <c r="G144" s="14" t="s">
         <v>130</v>
       </c>
@@ -14458,6 +14717,7 @@
         <v>78</v>
       </c>
       <c r="L144" s="23">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J144,Input_shares!$D$2:$D$87,IND_Shares!$K144)</f>
         <v>0.19336</v>
       </c>
       <c r="M144" s="15"/>
@@ -14492,7 +14752,7 @@
         <v>IND*</v>
       </c>
       <c r="Z144" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA144" s="22" t="s">
         <v>131</v>
@@ -14520,7 +14780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="145" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G145" s="14" t="s">
         <v>130</v>
       </c>
@@ -14537,6 +14797,7 @@
         <v>109</v>
       </c>
       <c r="L145" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J145,Input_shares!$D$2:$D$87,IND_Shares!$K145)</f>
         <v>0</v>
       </c>
       <c r="M145" s="28">
@@ -14568,10 +14829,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y145" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Z145" s="14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AA145" s="22" t="s">
         <v>131</v>
@@ -14593,7 +14854,7 @@
         <v>-7.2489999999999999E-2</v>
       </c>
     </row>
-    <row r="146" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="146" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G146" s="14" t="s">
         <v>130</v>
       </c>
@@ -14610,6 +14871,7 @@
         <v>110</v>
       </c>
       <c r="L146" s="24">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J146,Input_shares!$D$2:$D$87,IND_Shares!$K146)</f>
         <v>0</v>
       </c>
       <c r="M146" s="28">
@@ -14628,7 +14890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="147" spans="7:31" x14ac:dyDescent="0.35">
       <c r="G147" s="30" t="s">
         <v>130</v>
       </c>
@@ -14645,6 +14907,7 @@
         <v>80</v>
       </c>
       <c r="L147" s="31">
+        <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J147,Input_shares!$D$2:$D$87,IND_Shares!$K147)</f>
         <v>0</v>
       </c>
       <c r="M147" s="32">
@@ -14668,4 +14931,3674 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A637C86C-49BD-4A96-A452-E68125738254}">
+  <sheetPr>
+    <tabColor theme="9" tint="0.79998168889431442"/>
+  </sheetPr>
+  <dimension ref="C5:K7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="5" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C5" s="66" t="s">
+        <v>185</v>
+      </c>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="3:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C6" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="59" t="s">
+        <v>166</v>
+      </c>
+      <c r="I6" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="K6" s="59" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="C7" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="60"/>
+      <c r="E7" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="60">
+        <v>2021</v>
+      </c>
+      <c r="G7" s="60">
+        <v>1</v>
+      </c>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0A1F517-F3A9-4DB4-B85A-913F4795ABA6}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:M87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="36.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F1" t="s">
+        <v>175</v>
+      </c>
+      <c r="G1" t="s">
+        <v>176</v>
+      </c>
+      <c r="H1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K1" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2">
+        <v>2021</v>
+      </c>
+      <c r="H2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K2" t="s">
+        <v>182</v>
+      </c>
+      <c r="L2">
+        <v>3.0960000000000001E-2</v>
+      </c>
+      <c r="M2">
+        <v>3.0960000000000001E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3">
+        <v>2021</v>
+      </c>
+      <c r="H3" t="s">
+        <v>177</v>
+      </c>
+      <c r="I3" t="s">
+        <v>182</v>
+      </c>
+      <c r="J3" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" t="s">
+        <v>182</v>
+      </c>
+      <c r="L3">
+        <v>1.8270000000000002E-2</v>
+      </c>
+      <c r="M3">
+        <v>1.8270000000000002E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F4" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4">
+        <v>2021</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" t="s">
+        <v>182</v>
+      </c>
+      <c r="K4" t="s">
+        <v>182</v>
+      </c>
+      <c r="L4">
+        <v>0.36426999999999998</v>
+      </c>
+      <c r="M4">
+        <v>0.36426999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" t="s">
+        <v>181</v>
+      </c>
+      <c r="G5">
+        <v>2021</v>
+      </c>
+      <c r="H5" t="s">
+        <v>177</v>
+      </c>
+      <c r="I5" t="s">
+        <v>182</v>
+      </c>
+      <c r="J5" t="s">
+        <v>182</v>
+      </c>
+      <c r="K5" t="s">
+        <v>182</v>
+      </c>
+      <c r="L5">
+        <v>0.56420999999999999</v>
+      </c>
+      <c r="M5">
+        <v>0.56420999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F6" t="s">
+        <v>181</v>
+      </c>
+      <c r="G6">
+        <v>2021</v>
+      </c>
+      <c r="H6" t="s">
+        <v>177</v>
+      </c>
+      <c r="I6" t="s">
+        <v>182</v>
+      </c>
+      <c r="J6" t="s">
+        <v>182</v>
+      </c>
+      <c r="K6" t="s">
+        <v>182</v>
+      </c>
+      <c r="L6">
+        <v>5.1799999999999997E-3</v>
+      </c>
+      <c r="M6">
+        <v>5.1799999999999997E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G7">
+        <v>2021</v>
+      </c>
+      <c r="H7" t="s">
+        <v>177</v>
+      </c>
+      <c r="I7" t="s">
+        <v>182</v>
+      </c>
+      <c r="J7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L7">
+        <v>1.48E-3</v>
+      </c>
+      <c r="M7">
+        <v>1.48E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>168</v>
+      </c>
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" t="s">
+        <v>181</v>
+      </c>
+      <c r="G8">
+        <v>2021</v>
+      </c>
+      <c r="H8" t="s">
+        <v>177</v>
+      </c>
+      <c r="I8" t="s">
+        <v>182</v>
+      </c>
+      <c r="J8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" t="s">
+        <v>182</v>
+      </c>
+      <c r="L8">
+        <v>1.566E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.566E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E9" t="s">
+        <v>131</v>
+      </c>
+      <c r="F9" t="s">
+        <v>181</v>
+      </c>
+      <c r="G9">
+        <v>2021</v>
+      </c>
+      <c r="H9" t="s">
+        <v>177</v>
+      </c>
+      <c r="I9" t="s">
+        <v>182</v>
+      </c>
+      <c r="J9" t="s">
+        <v>182</v>
+      </c>
+      <c r="K9" t="s">
+        <v>182</v>
+      </c>
+      <c r="L9">
+        <v>0.70487999999999995</v>
+      </c>
+      <c r="M9">
+        <v>0.70487999999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>168</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+      <c r="F10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10">
+        <v>2021</v>
+      </c>
+      <c r="H10" t="s">
+        <v>177</v>
+      </c>
+      <c r="I10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>182</v>
+      </c>
+      <c r="K10" t="s">
+        <v>182</v>
+      </c>
+      <c r="L10">
+        <v>0.19336</v>
+      </c>
+      <c r="M10">
+        <v>0.19336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" t="s">
+        <v>181</v>
+      </c>
+      <c r="G11">
+        <v>2021</v>
+      </c>
+      <c r="H11" t="s">
+        <v>177</v>
+      </c>
+      <c r="I11" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" t="s">
+        <v>182</v>
+      </c>
+      <c r="K11" t="s">
+        <v>182</v>
+      </c>
+      <c r="L11">
+        <v>7.2489999999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>7.2489999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12">
+        <v>2021</v>
+      </c>
+      <c r="H12" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" t="s">
+        <v>182</v>
+      </c>
+      <c r="K12" t="s">
+        <v>182</v>
+      </c>
+      <c r="L12">
+        <v>1.6049999999999998E-2</v>
+      </c>
+      <c r="M12">
+        <v>1.6049999999999998E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13">
+        <v>2021</v>
+      </c>
+      <c r="H13" t="s">
+        <v>177</v>
+      </c>
+      <c r="I13" t="s">
+        <v>182</v>
+      </c>
+      <c r="J13" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" t="s">
+        <v>182</v>
+      </c>
+      <c r="L13">
+        <v>1.324E-2</v>
+      </c>
+      <c r="M13">
+        <v>1.324E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G14">
+        <v>2021</v>
+      </c>
+      <c r="H14" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" t="s">
+        <v>182</v>
+      </c>
+      <c r="J14" t="s">
+        <v>182</v>
+      </c>
+      <c r="K14" t="s">
+        <v>182</v>
+      </c>
+      <c r="L14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="M14">
+        <v>4.4000000000000003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F15" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15">
+        <v>2021</v>
+      </c>
+      <c r="H15" t="s">
+        <v>177</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" t="s">
+        <v>182</v>
+      </c>
+      <c r="L15">
+        <v>0.80142000000000002</v>
+      </c>
+      <c r="M15">
+        <v>0.80142000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>168</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" t="s">
+        <v>131</v>
+      </c>
+      <c r="F16" t="s">
+        <v>181</v>
+      </c>
+      <c r="G16">
+        <v>2021</v>
+      </c>
+      <c r="H16" t="s">
+        <v>177</v>
+      </c>
+      <c r="I16" t="s">
+        <v>182</v>
+      </c>
+      <c r="J16" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16">
+        <v>0.17746999999999999</v>
+      </c>
+      <c r="M16">
+        <v>0.17746999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>181</v>
+      </c>
+      <c r="G17">
+        <v>2021</v>
+      </c>
+      <c r="H17" t="s">
+        <v>177</v>
+      </c>
+      <c r="I17" t="s">
+        <v>182</v>
+      </c>
+      <c r="J17" t="s">
+        <v>182</v>
+      </c>
+      <c r="K17" t="s">
+        <v>182</v>
+      </c>
+      <c r="L17">
+        <v>2.2899999999999999E-3</v>
+      </c>
+      <c r="M17">
+        <v>2.2899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>131</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18">
+        <v>2021</v>
+      </c>
+      <c r="H18" t="s">
+        <v>177</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>182</v>
+      </c>
+      <c r="L18">
+        <v>1.4449999999999999E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.4449999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" t="s">
+        <v>181</v>
+      </c>
+      <c r="G19">
+        <v>2021</v>
+      </c>
+      <c r="H19" t="s">
+        <v>177</v>
+      </c>
+      <c r="I19" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" t="s">
+        <v>182</v>
+      </c>
+      <c r="K19" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19">
+        <v>1.274E-2</v>
+      </c>
+      <c r="M19">
+        <v>1.274E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20">
+        <v>2021</v>
+      </c>
+      <c r="H20" t="s">
+        <v>177</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K20" t="s">
+        <v>182</v>
+      </c>
+      <c r="L20">
+        <v>4.0309999999999999E-2</v>
+      </c>
+      <c r="M20">
+        <v>4.0309999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>131</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21">
+        <v>2021</v>
+      </c>
+      <c r="H21" t="s">
+        <v>177</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>182</v>
+      </c>
+      <c r="K21" t="s">
+        <v>182</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22" t="s">
+        <v>131</v>
+      </c>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="G22">
+        <v>2021</v>
+      </c>
+      <c r="H22" t="s">
+        <v>177</v>
+      </c>
+      <c r="I22" t="s">
+        <v>182</v>
+      </c>
+      <c r="J22" t="s">
+        <v>182</v>
+      </c>
+      <c r="K22" t="s">
+        <v>182</v>
+      </c>
+      <c r="L22">
+        <v>2.315E-2</v>
+      </c>
+      <c r="M22">
+        <v>2.315E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B23" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G23">
+        <v>2021</v>
+      </c>
+      <c r="H23" t="s">
+        <v>177</v>
+      </c>
+      <c r="I23" t="s">
+        <v>182</v>
+      </c>
+      <c r="J23" t="s">
+        <v>182</v>
+      </c>
+      <c r="K23" t="s">
+        <v>182</v>
+      </c>
+      <c r="L23">
+        <v>0.18647</v>
+      </c>
+      <c r="M23">
+        <v>0.18647</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>130</v>
+      </c>
+      <c r="C24" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24">
+        <v>2021</v>
+      </c>
+      <c r="H24" t="s">
+        <v>177</v>
+      </c>
+      <c r="I24" t="s">
+        <v>182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>182</v>
+      </c>
+      <c r="L24">
+        <v>0.62682000000000004</v>
+      </c>
+      <c r="M24">
+        <v>0.62682000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>131</v>
+      </c>
+      <c r="F25" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25">
+        <v>2021</v>
+      </c>
+      <c r="H25" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" t="s">
+        <v>182</v>
+      </c>
+      <c r="J25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" t="s">
+        <v>182</v>
+      </c>
+      <c r="L25">
+        <v>3.3480000000000003E-2</v>
+      </c>
+      <c r="M25">
+        <v>3.3480000000000003E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>168</v>
+      </c>
+      <c r="B26" t="s">
+        <v>130</v>
+      </c>
+      <c r="C26" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E26" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G26">
+        <v>2021</v>
+      </c>
+      <c r="H26" t="s">
+        <v>177</v>
+      </c>
+      <c r="I26" t="s">
+        <v>182</v>
+      </c>
+      <c r="J26" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" t="s">
+        <v>182</v>
+      </c>
+      <c r="L26">
+        <v>3.3400000000000001E-3</v>
+      </c>
+      <c r="M26">
+        <v>3.3400000000000001E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>168</v>
+      </c>
+      <c r="B27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27">
+        <v>2021</v>
+      </c>
+      <c r="H27" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J27" t="s">
+        <v>182</v>
+      </c>
+      <c r="K27" t="s">
+        <v>182</v>
+      </c>
+      <c r="L27">
+        <v>7.3730000000000004E-2</v>
+      </c>
+      <c r="M27">
+        <v>7.3730000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B28" t="s">
+        <v>130</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" t="s">
+        <v>181</v>
+      </c>
+      <c r="G28">
+        <v>2021</v>
+      </c>
+      <c r="H28" t="s">
+        <v>177</v>
+      </c>
+      <c r="I28" t="s">
+        <v>182</v>
+      </c>
+      <c r="J28" t="s">
+        <v>182</v>
+      </c>
+      <c r="K28" t="s">
+        <v>182</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>168</v>
+      </c>
+      <c r="B29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>131</v>
+      </c>
+      <c r="F29" t="s">
+        <v>181</v>
+      </c>
+      <c r="G29">
+        <v>2021</v>
+      </c>
+      <c r="H29" t="s">
+        <v>177</v>
+      </c>
+      <c r="I29" t="s">
+        <v>182</v>
+      </c>
+      <c r="J29" t="s">
+        <v>182</v>
+      </c>
+      <c r="K29" t="s">
+        <v>182</v>
+      </c>
+      <c r="L29">
+        <v>3.7220000000000003E-2</v>
+      </c>
+      <c r="M29">
+        <v>3.7220000000000003E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>130</v>
+      </c>
+      <c r="C30" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30">
+        <v>2021</v>
+      </c>
+      <c r="H30" t="s">
+        <v>177</v>
+      </c>
+      <c r="I30" t="s">
+        <v>182</v>
+      </c>
+      <c r="J30" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" t="s">
+        <v>182</v>
+      </c>
+      <c r="L30">
+        <v>0.47877999999999998</v>
+      </c>
+      <c r="M30">
+        <v>0.47877999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C31" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>72</v>
+      </c>
+      <c r="E31" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31">
+        <v>2021</v>
+      </c>
+      <c r="H31" t="s">
+        <v>177</v>
+      </c>
+      <c r="I31" t="s">
+        <v>182</v>
+      </c>
+      <c r="J31" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" t="s">
+        <v>182</v>
+      </c>
+      <c r="L31">
+        <v>0.42292000000000002</v>
+      </c>
+      <c r="M31">
+        <v>0.42292000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>67</v>
+      </c>
+      <c r="E32" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G32">
+        <v>2021</v>
+      </c>
+      <c r="H32" t="s">
+        <v>177</v>
+      </c>
+      <c r="I32" t="s">
+        <v>182</v>
+      </c>
+      <c r="J32" t="s">
+        <v>182</v>
+      </c>
+      <c r="K32" t="s">
+        <v>182</v>
+      </c>
+      <c r="L32">
+        <v>8.5299999999999994E-3</v>
+      </c>
+      <c r="M32">
+        <v>8.5299999999999994E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>168</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" t="s">
+        <v>131</v>
+      </c>
+      <c r="F33" t="s">
+        <v>181</v>
+      </c>
+      <c r="G33">
+        <v>2021</v>
+      </c>
+      <c r="H33" t="s">
+        <v>177</v>
+      </c>
+      <c r="I33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33">
+        <v>5.2569999999999999E-2</v>
+      </c>
+      <c r="M33">
+        <v>5.2569999999999999E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B34" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>181</v>
+      </c>
+      <c r="G34">
+        <v>2021</v>
+      </c>
+      <c r="H34" t="s">
+        <v>177</v>
+      </c>
+      <c r="I34" t="s">
+        <v>182</v>
+      </c>
+      <c r="J34" t="s">
+        <v>182</v>
+      </c>
+      <c r="K34" t="s">
+        <v>182</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>130</v>
+      </c>
+      <c r="C35" t="s">
+        <v>89</v>
+      </c>
+      <c r="D35" t="s">
+        <v>70</v>
+      </c>
+      <c r="E35" t="s">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35">
+        <v>2021</v>
+      </c>
+      <c r="H35" t="s">
+        <v>177</v>
+      </c>
+      <c r="I35" t="s">
+        <v>182</v>
+      </c>
+      <c r="J35" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" t="s">
+        <v>182</v>
+      </c>
+      <c r="L35">
+        <v>3.5799999999999998E-3</v>
+      </c>
+      <c r="M35">
+        <v>3.5799999999999998E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>168</v>
+      </c>
+      <c r="B36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F36" t="s">
+        <v>181</v>
+      </c>
+      <c r="G36">
+        <v>2021</v>
+      </c>
+      <c r="H36" t="s">
+        <v>177</v>
+      </c>
+      <c r="I36" t="s">
+        <v>182</v>
+      </c>
+      <c r="J36" t="s">
+        <v>182</v>
+      </c>
+      <c r="K36" t="s">
+        <v>182</v>
+      </c>
+      <c r="L36">
+        <v>0.12481</v>
+      </c>
+      <c r="M36">
+        <v>0.12481</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>168</v>
+      </c>
+      <c r="B37" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" t="s">
+        <v>181</v>
+      </c>
+      <c r="G37">
+        <v>2021</v>
+      </c>
+      <c r="H37" t="s">
+        <v>177</v>
+      </c>
+      <c r="I37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J37" t="s">
+        <v>182</v>
+      </c>
+      <c r="K37" t="s">
+        <v>182</v>
+      </c>
+      <c r="L37">
+        <v>0.86648000000000003</v>
+      </c>
+      <c r="M37">
+        <v>0.86648000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" t="s">
+        <v>130</v>
+      </c>
+      <c r="C38" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" t="s">
+        <v>68</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+      <c r="F38" t="s">
+        <v>181</v>
+      </c>
+      <c r="G38">
+        <v>2021</v>
+      </c>
+      <c r="H38" t="s">
+        <v>177</v>
+      </c>
+      <c r="I38" t="s">
+        <v>182</v>
+      </c>
+      <c r="J38" t="s">
+        <v>182</v>
+      </c>
+      <c r="K38" t="s">
+        <v>182</v>
+      </c>
+      <c r="L38">
+        <v>1.6100000000000001E-3</v>
+      </c>
+      <c r="M38">
+        <v>1.6100000000000001E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>67</v>
+      </c>
+      <c r="E39" t="s">
+        <v>131</v>
+      </c>
+      <c r="F39" t="s">
+        <v>181</v>
+      </c>
+      <c r="G39">
+        <v>2021</v>
+      </c>
+      <c r="H39" t="s">
+        <v>177</v>
+      </c>
+      <c r="I39" t="s">
+        <v>182</v>
+      </c>
+      <c r="J39" t="s">
+        <v>182</v>
+      </c>
+      <c r="K39" t="s">
+        <v>182</v>
+      </c>
+      <c r="L39">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="M39">
+        <v>8.9999999999999998E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>89</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" t="s">
+        <v>181</v>
+      </c>
+      <c r="G40">
+        <v>2021</v>
+      </c>
+      <c r="H40" t="s">
+        <v>177</v>
+      </c>
+      <c r="I40" t="s">
+        <v>182</v>
+      </c>
+      <c r="J40" t="s">
+        <v>182</v>
+      </c>
+      <c r="K40" t="s">
+        <v>182</v>
+      </c>
+      <c r="L40">
+        <v>2.64E-3</v>
+      </c>
+      <c r="M40">
+        <v>2.64E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B41" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>70</v>
+      </c>
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+      <c r="F41" t="s">
+        <v>181</v>
+      </c>
+      <c r="G41">
+        <v>2021</v>
+      </c>
+      <c r="H41" t="s">
+        <v>177</v>
+      </c>
+      <c r="I41" t="s">
+        <v>182</v>
+      </c>
+      <c r="J41" t="s">
+        <v>182</v>
+      </c>
+      <c r="K41" t="s">
+        <v>182</v>
+      </c>
+      <c r="L41">
+        <v>0.43919999999999998</v>
+      </c>
+      <c r="M41">
+        <v>0.43919999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>181</v>
+      </c>
+      <c r="G42">
+        <v>2021</v>
+      </c>
+      <c r="H42" t="s">
+        <v>177</v>
+      </c>
+      <c r="I42" t="s">
+        <v>182</v>
+      </c>
+      <c r="J42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+      <c r="L42">
+        <v>0.34991</v>
+      </c>
+      <c r="M42">
+        <v>0.34991</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>168</v>
+      </c>
+      <c r="B43" t="s">
+        <v>130</v>
+      </c>
+      <c r="C43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" t="s">
+        <v>131</v>
+      </c>
+      <c r="F43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G43">
+        <v>2021</v>
+      </c>
+      <c r="H43" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" t="s">
+        <v>182</v>
+      </c>
+      <c r="J43" t="s">
+        <v>182</v>
+      </c>
+      <c r="K43" t="s">
+        <v>182</v>
+      </c>
+      <c r="L43">
+        <v>0.20813999999999999</v>
+      </c>
+      <c r="M43">
+        <v>0.20813999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>168</v>
+      </c>
+      <c r="B44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>67</v>
+      </c>
+      <c r="E44" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" t="s">
+        <v>181</v>
+      </c>
+      <c r="G44">
+        <v>2021</v>
+      </c>
+      <c r="H44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I44" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" t="s">
+        <v>182</v>
+      </c>
+      <c r="K44" t="s">
+        <v>182</v>
+      </c>
+      <c r="L44">
+        <v>2.5200000000000001E-3</v>
+      </c>
+      <c r="M44">
+        <v>2.5200000000000001E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" t="s">
+        <v>181</v>
+      </c>
+      <c r="G45">
+        <v>2021</v>
+      </c>
+      <c r="H45" t="s">
+        <v>177</v>
+      </c>
+      <c r="I45" t="s">
+        <v>182</v>
+      </c>
+      <c r="J45" t="s">
+        <v>182</v>
+      </c>
+      <c r="K45" t="s">
+        <v>182</v>
+      </c>
+      <c r="L45">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="M45">
+        <v>2.4000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>168</v>
+      </c>
+      <c r="B46" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" t="s">
+        <v>131</v>
+      </c>
+      <c r="F46" t="s">
+        <v>181</v>
+      </c>
+      <c r="G46">
+        <v>2021</v>
+      </c>
+      <c r="H46" t="s">
+        <v>177</v>
+      </c>
+      <c r="I46" t="s">
+        <v>182</v>
+      </c>
+      <c r="J46" t="s">
+        <v>182</v>
+      </c>
+      <c r="K46" t="s">
+        <v>182</v>
+      </c>
+      <c r="L46">
+        <v>1.7080000000000001E-2</v>
+      </c>
+      <c r="M46">
+        <v>1.7080000000000001E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" t="s">
+        <v>130</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" t="s">
+        <v>181</v>
+      </c>
+      <c r="G47">
+        <v>2021</v>
+      </c>
+      <c r="H47" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" t="s">
+        <v>182</v>
+      </c>
+      <c r="J47" t="s">
+        <v>182</v>
+      </c>
+      <c r="K47" t="s">
+        <v>182</v>
+      </c>
+      <c r="L47">
+        <v>0.46919</v>
+      </c>
+      <c r="M47">
+        <v>0.46919</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
+        <v>130</v>
+      </c>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+      <c r="D48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" t="s">
+        <v>131</v>
+      </c>
+      <c r="F48" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48">
+        <v>2021</v>
+      </c>
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+      <c r="I48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" t="s">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>182</v>
+      </c>
+      <c r="L48">
+        <v>0.42902000000000001</v>
+      </c>
+      <c r="M48">
+        <v>0.42902000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>168</v>
+      </c>
+      <c r="B49" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+      <c r="D49" t="s">
+        <v>68</v>
+      </c>
+      <c r="E49" t="s">
+        <v>131</v>
+      </c>
+      <c r="F49" t="s">
+        <v>181</v>
+      </c>
+      <c r="G49">
+        <v>2021</v>
+      </c>
+      <c r="H49" t="s">
+        <v>177</v>
+      </c>
+      <c r="I49" t="s">
+        <v>182</v>
+      </c>
+      <c r="J49" t="s">
+        <v>182</v>
+      </c>
+      <c r="K49" t="s">
+        <v>182</v>
+      </c>
+      <c r="L49">
+        <v>3.0630000000000001E-2</v>
+      </c>
+      <c r="M49">
+        <v>3.0630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" t="s">
+        <v>131</v>
+      </c>
+      <c r="F50" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50">
+        <v>2021</v>
+      </c>
+      <c r="H50" t="s">
+        <v>177</v>
+      </c>
+      <c r="I50" t="s">
+        <v>182</v>
+      </c>
+      <c r="J50" t="s">
+        <v>182</v>
+      </c>
+      <c r="K50" t="s">
+        <v>182</v>
+      </c>
+      <c r="L50">
+        <v>3.7599999999999999E-3</v>
+      </c>
+      <c r="M50">
+        <v>3.7599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B51" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" t="s">
+        <v>93</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" t="s">
+        <v>131</v>
+      </c>
+      <c r="F51" t="s">
+        <v>181</v>
+      </c>
+      <c r="G51">
+        <v>2021</v>
+      </c>
+      <c r="H51" t="s">
+        <v>177</v>
+      </c>
+      <c r="I51" t="s">
+        <v>182</v>
+      </c>
+      <c r="J51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" t="s">
+        <v>182</v>
+      </c>
+      <c r="L51">
+        <v>5.0340000000000003E-2</v>
+      </c>
+      <c r="M51">
+        <v>5.0340000000000003E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="D52" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" t="s">
+        <v>131</v>
+      </c>
+      <c r="F52" t="s">
+        <v>181</v>
+      </c>
+      <c r="G52">
+        <v>2021</v>
+      </c>
+      <c r="H52" t="s">
+        <v>177</v>
+      </c>
+      <c r="I52" t="s">
+        <v>182</v>
+      </c>
+      <c r="J52" t="s">
+        <v>182</v>
+      </c>
+      <c r="K52" t="s">
+        <v>182</v>
+      </c>
+      <c r="L52">
+        <v>5.9199999999999999E-3</v>
+      </c>
+      <c r="M52">
+        <v>5.9199999999999999E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>168</v>
+      </c>
+      <c r="B53" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" t="s">
+        <v>183</v>
+      </c>
+      <c r="D53" t="s">
+        <v>65</v>
+      </c>
+      <c r="E53" t="s">
+        <v>131</v>
+      </c>
+      <c r="F53" t="s">
+        <v>181</v>
+      </c>
+      <c r="G53">
+        <v>2021</v>
+      </c>
+      <c r="H53" t="s">
+        <v>177</v>
+      </c>
+      <c r="I53" t="s">
+        <v>182</v>
+      </c>
+      <c r="J53" t="s">
+        <v>182</v>
+      </c>
+      <c r="K53" t="s">
+        <v>182</v>
+      </c>
+      <c r="L53">
+        <v>0.20257</v>
+      </c>
+      <c r="M53">
+        <v>0.20257</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>168</v>
+      </c>
+      <c r="B54" t="s">
+        <v>130</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="D54" t="s">
+        <v>71</v>
+      </c>
+      <c r="E54" t="s">
+        <v>131</v>
+      </c>
+      <c r="F54" t="s">
+        <v>181</v>
+      </c>
+      <c r="G54">
+        <v>2021</v>
+      </c>
+      <c r="H54" t="s">
+        <v>177</v>
+      </c>
+      <c r="I54" t="s">
+        <v>182</v>
+      </c>
+      <c r="J54" t="s">
+        <v>182</v>
+      </c>
+      <c r="K54" t="s">
+        <v>182</v>
+      </c>
+      <c r="L54">
+        <v>0.31075000000000003</v>
+      </c>
+      <c r="M54">
+        <v>0.31075000000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" t="s">
+        <v>130</v>
+      </c>
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>131</v>
+      </c>
+      <c r="F55" t="s">
+        <v>181</v>
+      </c>
+      <c r="G55">
+        <v>2021</v>
+      </c>
+      <c r="H55" t="s">
+        <v>177</v>
+      </c>
+      <c r="I55" t="s">
+        <v>182</v>
+      </c>
+      <c r="J55" t="s">
+        <v>182</v>
+      </c>
+      <c r="K55" t="s">
+        <v>182</v>
+      </c>
+      <c r="L55">
+        <v>2.8510000000000001E-2</v>
+      </c>
+      <c r="M55">
+        <v>2.8510000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>168</v>
+      </c>
+      <c r="B56" t="s">
+        <v>130</v>
+      </c>
+      <c r="C56" t="s">
+        <v>183</v>
+      </c>
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>131</v>
+      </c>
+      <c r="F56" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56">
+        <v>2021</v>
+      </c>
+      <c r="H56" t="s">
+        <v>177</v>
+      </c>
+      <c r="I56" t="s">
+        <v>182</v>
+      </c>
+      <c r="J56" t="s">
+        <v>182</v>
+      </c>
+      <c r="K56" t="s">
+        <v>182</v>
+      </c>
+      <c r="L56">
+        <v>0.14044000000000001</v>
+      </c>
+      <c r="M56">
+        <v>0.14044000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" t="s">
+        <v>130</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" t="s">
+        <v>72</v>
+      </c>
+      <c r="E57" t="s">
+        <v>131</v>
+      </c>
+      <c r="F57" t="s">
+        <v>181</v>
+      </c>
+      <c r="G57">
+        <v>2021</v>
+      </c>
+      <c r="H57" t="s">
+        <v>177</v>
+      </c>
+      <c r="I57" t="s">
+        <v>182</v>
+      </c>
+      <c r="J57" t="s">
+        <v>182</v>
+      </c>
+      <c r="K57" t="s">
+        <v>182</v>
+      </c>
+      <c r="L57">
+        <v>7.646E-2</v>
+      </c>
+      <c r="M57">
+        <v>7.646E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>168</v>
+      </c>
+      <c r="B58" t="s">
+        <v>130</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="D58" t="s">
+        <v>67</v>
+      </c>
+      <c r="E58" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" t="s">
+        <v>181</v>
+      </c>
+      <c r="G58">
+        <v>2021</v>
+      </c>
+      <c r="H58" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" t="s">
+        <v>182</v>
+      </c>
+      <c r="J58" t="s">
+        <v>182</v>
+      </c>
+      <c r="K58" t="s">
+        <v>182</v>
+      </c>
+      <c r="L58">
+        <v>2.2399999999999998E-3</v>
+      </c>
+      <c r="M58">
+        <v>2.2399999999999998E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>168</v>
+      </c>
+      <c r="B59" t="s">
+        <v>130</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" t="s">
+        <v>131</v>
+      </c>
+      <c r="F59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59">
+        <v>2021</v>
+      </c>
+      <c r="H59" t="s">
+        <v>177</v>
+      </c>
+      <c r="I59" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" t="s">
+        <v>182</v>
+      </c>
+      <c r="K59" t="s">
+        <v>182</v>
+      </c>
+      <c r="L59">
+        <v>5.2599999999999999E-3</v>
+      </c>
+      <c r="M59">
+        <v>5.2599999999999999E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>130</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" t="s">
+        <v>181</v>
+      </c>
+      <c r="G60">
+        <v>2021</v>
+      </c>
+      <c r="H60" t="s">
+        <v>177</v>
+      </c>
+      <c r="I60" t="s">
+        <v>182</v>
+      </c>
+      <c r="J60" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" t="s">
+        <v>182</v>
+      </c>
+      <c r="L60">
+        <v>0.12218999999999999</v>
+      </c>
+      <c r="M60">
+        <v>0.12218999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>130</v>
+      </c>
+      <c r="C61" t="s">
+        <v>183</v>
+      </c>
+      <c r="D61" t="s">
+        <v>87</v>
+      </c>
+      <c r="E61" t="s">
+        <v>131</v>
+      </c>
+      <c r="F61" t="s">
+        <v>181</v>
+      </c>
+      <c r="G61">
+        <v>2021</v>
+      </c>
+      <c r="H61" t="s">
+        <v>177</v>
+      </c>
+      <c r="I61" t="s">
+        <v>182</v>
+      </c>
+      <c r="J61" t="s">
+        <v>182</v>
+      </c>
+      <c r="K61" t="s">
+        <v>182</v>
+      </c>
+      <c r="L61">
+        <v>0.10571999999999999</v>
+      </c>
+      <c r="M61">
+        <v>0.10571999999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>84</v>
+      </c>
+      <c r="D62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" t="s">
+        <v>181</v>
+      </c>
+      <c r="G62">
+        <v>2021</v>
+      </c>
+      <c r="H62" t="s">
+        <v>177</v>
+      </c>
+      <c r="I62" t="s">
+        <v>182</v>
+      </c>
+      <c r="J62" t="s">
+        <v>182</v>
+      </c>
+      <c r="K62" t="s">
+        <v>182</v>
+      </c>
+      <c r="L62">
+        <v>2.1319999999999999E-2</v>
+      </c>
+      <c r="M62">
+        <v>2.1319999999999999E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>168</v>
+      </c>
+      <c r="B63" t="s">
+        <v>130</v>
+      </c>
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="D63" t="s">
+        <v>78</v>
+      </c>
+      <c r="E63" t="s">
+        <v>131</v>
+      </c>
+      <c r="F63" t="s">
+        <v>181</v>
+      </c>
+      <c r="G63">
+        <v>2021</v>
+      </c>
+      <c r="H63" t="s">
+        <v>177</v>
+      </c>
+      <c r="I63" t="s">
+        <v>182</v>
+      </c>
+      <c r="J63" t="s">
+        <v>182</v>
+      </c>
+      <c r="K63" t="s">
+        <v>182</v>
+      </c>
+      <c r="L63">
+        <v>0.45951999999999998</v>
+      </c>
+      <c r="M63">
+        <v>0.45951999999999998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" t="s">
+        <v>130</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" t="s">
+        <v>131</v>
+      </c>
+      <c r="F64" t="s">
+        <v>181</v>
+      </c>
+      <c r="G64">
+        <v>2021</v>
+      </c>
+      <c r="H64" t="s">
+        <v>177</v>
+      </c>
+      <c r="I64" t="s">
+        <v>182</v>
+      </c>
+      <c r="J64" t="s">
+        <v>182</v>
+      </c>
+      <c r="K64" t="s">
+        <v>182</v>
+      </c>
+      <c r="L64">
+        <v>0.48913000000000001</v>
+      </c>
+      <c r="M64">
+        <v>0.48913000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>168</v>
+      </c>
+      <c r="B65" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="D65" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" t="s">
+        <v>131</v>
+      </c>
+      <c r="F65" t="s">
+        <v>181</v>
+      </c>
+      <c r="G65">
+        <v>2021</v>
+      </c>
+      <c r="H65" t="s">
+        <v>177</v>
+      </c>
+      <c r="I65" t="s">
+        <v>182</v>
+      </c>
+      <c r="J65" t="s">
+        <v>182</v>
+      </c>
+      <c r="K65" t="s">
+        <v>182</v>
+      </c>
+      <c r="L65">
+        <v>2.5899999999999999E-3</v>
+      </c>
+      <c r="M65">
+        <v>2.5899999999999999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" t="s">
+        <v>130</v>
+      </c>
+      <c r="C66" t="s">
+        <v>84</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" t="s">
+        <v>131</v>
+      </c>
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66">
+        <v>2021</v>
+      </c>
+      <c r="H66" t="s">
+        <v>177</v>
+      </c>
+      <c r="I66" t="s">
+        <v>182</v>
+      </c>
+      <c r="J66" t="s">
+        <v>182</v>
+      </c>
+      <c r="K66" t="s">
+        <v>182</v>
+      </c>
+      <c r="L66">
+        <v>2.7470000000000001E-2</v>
+      </c>
+      <c r="M66">
+        <v>2.7470000000000001E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>168</v>
+      </c>
+      <c r="B67" t="s">
+        <v>130</v>
+      </c>
+      <c r="C67" t="s">
+        <v>86</v>
+      </c>
+      <c r="D67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E67" t="s">
+        <v>131</v>
+      </c>
+      <c r="F67" t="s">
+        <v>181</v>
+      </c>
+      <c r="G67">
+        <v>2021</v>
+      </c>
+      <c r="H67" t="s">
+        <v>177</v>
+      </c>
+      <c r="I67" t="s">
+        <v>182</v>
+      </c>
+      <c r="J67" t="s">
+        <v>182</v>
+      </c>
+      <c r="K67" t="s">
+        <v>182</v>
+      </c>
+      <c r="L67">
+        <v>2.3689999999999999E-2</v>
+      </c>
+      <c r="M67">
+        <v>2.3689999999999999E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>78</v>
+      </c>
+      <c r="E68" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" t="s">
+        <v>181</v>
+      </c>
+      <c r="G68">
+        <v>2021</v>
+      </c>
+      <c r="H68" t="s">
+        <v>177</v>
+      </c>
+      <c r="I68" t="s">
+        <v>182</v>
+      </c>
+      <c r="J68" t="s">
+        <v>182</v>
+      </c>
+      <c r="K68" t="s">
+        <v>182</v>
+      </c>
+      <c r="L68">
+        <v>0.56598999999999999</v>
+      </c>
+      <c r="M68">
+        <v>0.56598999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69" t="s">
+        <v>181</v>
+      </c>
+      <c r="G69">
+        <v>2021</v>
+      </c>
+      <c r="H69" t="s">
+        <v>177</v>
+      </c>
+      <c r="I69" t="s">
+        <v>182</v>
+      </c>
+      <c r="J69" t="s">
+        <v>182</v>
+      </c>
+      <c r="K69" t="s">
+        <v>182</v>
+      </c>
+      <c r="L69">
+        <v>0.33373999999999998</v>
+      </c>
+      <c r="M69">
+        <v>0.33373999999999998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" t="s">
+        <v>131</v>
+      </c>
+      <c r="F70" t="s">
+        <v>181</v>
+      </c>
+      <c r="G70">
+        <v>2021</v>
+      </c>
+      <c r="H70" t="s">
+        <v>177</v>
+      </c>
+      <c r="I70" t="s">
+        <v>182</v>
+      </c>
+      <c r="J70" t="s">
+        <v>182</v>
+      </c>
+      <c r="K70" t="s">
+        <v>182</v>
+      </c>
+      <c r="L70">
+        <v>1.891E-2</v>
+      </c>
+      <c r="M70">
+        <v>1.891E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" t="s">
+        <v>131</v>
+      </c>
+      <c r="F71" t="s">
+        <v>181</v>
+      </c>
+      <c r="G71">
+        <v>2021</v>
+      </c>
+      <c r="H71" t="s">
+        <v>177</v>
+      </c>
+      <c r="I71" t="s">
+        <v>182</v>
+      </c>
+      <c r="J71" t="s">
+        <v>182</v>
+      </c>
+      <c r="K71" t="s">
+        <v>182</v>
+      </c>
+      <c r="L71">
+        <v>5.7700000000000001E-2</v>
+      </c>
+      <c r="M71">
+        <v>5.7700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="C72" t="s">
+        <v>82</v>
+      </c>
+      <c r="D72" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" t="s">
+        <v>181</v>
+      </c>
+      <c r="G72">
+        <v>2021</v>
+      </c>
+      <c r="H72" t="s">
+        <v>177</v>
+      </c>
+      <c r="I72" t="s">
+        <v>182</v>
+      </c>
+      <c r="J72" t="s">
+        <v>182</v>
+      </c>
+      <c r="K72" t="s">
+        <v>182</v>
+      </c>
+      <c r="L72">
+        <v>2.018E-2</v>
+      </c>
+      <c r="M72">
+        <v>2.018E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" t="s">
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73" t="s">
+        <v>78</v>
+      </c>
+      <c r="E73" t="s">
+        <v>131</v>
+      </c>
+      <c r="F73" t="s">
+        <v>181</v>
+      </c>
+      <c r="G73">
+        <v>2021</v>
+      </c>
+      <c r="H73" t="s">
+        <v>177</v>
+      </c>
+      <c r="I73" t="s">
+        <v>182</v>
+      </c>
+      <c r="J73" t="s">
+        <v>182</v>
+      </c>
+      <c r="K73" t="s">
+        <v>182</v>
+      </c>
+      <c r="L73">
+        <v>0.18342</v>
+      </c>
+      <c r="M73">
+        <v>0.18342</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>168</v>
+      </c>
+      <c r="B74" t="s">
+        <v>130</v>
+      </c>
+      <c r="C74" t="s">
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>72</v>
+      </c>
+      <c r="E74" t="s">
+        <v>131</v>
+      </c>
+      <c r="F74" t="s">
+        <v>181</v>
+      </c>
+      <c r="G74">
+        <v>2021</v>
+      </c>
+      <c r="H74" t="s">
+        <v>177</v>
+      </c>
+      <c r="I74" t="s">
+        <v>182</v>
+      </c>
+      <c r="J74" t="s">
+        <v>182</v>
+      </c>
+      <c r="K74" t="s">
+        <v>182</v>
+      </c>
+      <c r="L74">
+        <v>0.69152000000000002</v>
+      </c>
+      <c r="M74">
+        <v>0.69152000000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>168</v>
+      </c>
+      <c r="B75" t="s">
+        <v>130</v>
+      </c>
+      <c r="C75" t="s">
+        <v>82</v>
+      </c>
+      <c r="D75" t="s">
+        <v>67</v>
+      </c>
+      <c r="E75" t="s">
+        <v>131</v>
+      </c>
+      <c r="F75" t="s">
+        <v>181</v>
+      </c>
+      <c r="G75">
+        <v>2021</v>
+      </c>
+      <c r="H75" t="s">
+        <v>177</v>
+      </c>
+      <c r="I75" t="s">
+        <v>182</v>
+      </c>
+      <c r="J75" t="s">
+        <v>182</v>
+      </c>
+      <c r="K75" t="s">
+        <v>182</v>
+      </c>
+      <c r="L75">
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="M75">
+        <v>5.5000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B76" t="s">
+        <v>130</v>
+      </c>
+      <c r="C76" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" t="s">
+        <v>131</v>
+      </c>
+      <c r="F76" t="s">
+        <v>181</v>
+      </c>
+      <c r="G76">
+        <v>2021</v>
+      </c>
+      <c r="H76" t="s">
+        <v>177</v>
+      </c>
+      <c r="I76" t="s">
+        <v>182</v>
+      </c>
+      <c r="J76" t="s">
+        <v>182</v>
+      </c>
+      <c r="K76" t="s">
+        <v>182</v>
+      </c>
+      <c r="L76">
+        <v>0.10435999999999999</v>
+      </c>
+      <c r="M76">
+        <v>0.10435999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B77" t="s">
+        <v>130</v>
+      </c>
+      <c r="C77" t="s">
+        <v>92</v>
+      </c>
+      <c r="D77" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" t="s">
+        <v>181</v>
+      </c>
+      <c r="G77">
+        <v>2021</v>
+      </c>
+      <c r="H77" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" t="s">
+        <v>182</v>
+      </c>
+      <c r="J77" t="s">
+        <v>182</v>
+      </c>
+      <c r="K77" t="s">
+        <v>182</v>
+      </c>
+      <c r="L77">
+        <v>4.5650000000000003E-2</v>
+      </c>
+      <c r="M77">
+        <v>4.5650000000000003E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>168</v>
+      </c>
+      <c r="B78" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" t="s">
+        <v>92</v>
+      </c>
+      <c r="D78" t="s">
+        <v>78</v>
+      </c>
+      <c r="E78" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" t="s">
+        <v>181</v>
+      </c>
+      <c r="G78">
+        <v>2021</v>
+      </c>
+      <c r="H78" t="s">
+        <v>177</v>
+      </c>
+      <c r="I78" t="s">
+        <v>182</v>
+      </c>
+      <c r="J78" t="s">
+        <v>182</v>
+      </c>
+      <c r="K78" t="s">
+        <v>182</v>
+      </c>
+      <c r="L78">
+        <v>0.57218000000000002</v>
+      </c>
+      <c r="M78">
+        <v>0.57218000000000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>130</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" t="s">
+        <v>181</v>
+      </c>
+      <c r="G79">
+        <v>2021</v>
+      </c>
+      <c r="H79" t="s">
+        <v>177</v>
+      </c>
+      <c r="I79" t="s">
+        <v>182</v>
+      </c>
+      <c r="J79" t="s">
+        <v>182</v>
+      </c>
+      <c r="K79" t="s">
+        <v>182</v>
+      </c>
+      <c r="L79">
+        <v>0.20462</v>
+      </c>
+      <c r="M79">
+        <v>0.20462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" t="s">
+        <v>130</v>
+      </c>
+      <c r="C80" t="s">
+        <v>92</v>
+      </c>
+      <c r="D80" t="s">
+        <v>67</v>
+      </c>
+      <c r="E80" t="s">
+        <v>131</v>
+      </c>
+      <c r="F80" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80">
+        <v>2021</v>
+      </c>
+      <c r="H80" t="s">
+        <v>177</v>
+      </c>
+      <c r="I80" t="s">
+        <v>182</v>
+      </c>
+      <c r="J80" t="s">
+        <v>182</v>
+      </c>
+      <c r="K80" t="s">
+        <v>182</v>
+      </c>
+      <c r="L80">
+        <v>1.34E-2</v>
+      </c>
+      <c r="M80">
+        <v>1.34E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>92</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" t="s">
+        <v>131</v>
+      </c>
+      <c r="F81" t="s">
+        <v>181</v>
+      </c>
+      <c r="G81">
+        <v>2021</v>
+      </c>
+      <c r="H81" t="s">
+        <v>177</v>
+      </c>
+      <c r="I81" t="s">
+        <v>182</v>
+      </c>
+      <c r="J81" t="s">
+        <v>182</v>
+      </c>
+      <c r="K81" t="s">
+        <v>182</v>
+      </c>
+      <c r="L81">
+        <v>0.16417999999999999</v>
+      </c>
+      <c r="M81">
+        <v>0.16417999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>168</v>
+      </c>
+      <c r="B82" t="s">
+        <v>130</v>
+      </c>
+      <c r="C82" t="s">
+        <v>83</v>
+      </c>
+      <c r="D82" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>131</v>
+      </c>
+      <c r="F82" t="s">
+        <v>181</v>
+      </c>
+      <c r="G82">
+        <v>2021</v>
+      </c>
+      <c r="H82" t="s">
+        <v>177</v>
+      </c>
+      <c r="I82" t="s">
+        <v>182</v>
+      </c>
+      <c r="J82" t="s">
+        <v>182</v>
+      </c>
+      <c r="K82" t="s">
+        <v>182</v>
+      </c>
+      <c r="L82">
+        <v>0.78573000000000004</v>
+      </c>
+      <c r="M82">
+        <v>0.78573000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>168</v>
+      </c>
+      <c r="B83" t="s">
+        <v>130</v>
+      </c>
+      <c r="C83" t="s">
+        <v>83</v>
+      </c>
+      <c r="D83" t="s">
+        <v>70</v>
+      </c>
+      <c r="E83" t="s">
+        <v>131</v>
+      </c>
+      <c r="F83" t="s">
+        <v>181</v>
+      </c>
+      <c r="G83">
+        <v>2021</v>
+      </c>
+      <c r="H83" t="s">
+        <v>177</v>
+      </c>
+      <c r="I83" t="s">
+        <v>182</v>
+      </c>
+      <c r="J83" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83" t="s">
+        <v>182</v>
+      </c>
+      <c r="L83">
+        <v>1.2120000000000001E-2</v>
+      </c>
+      <c r="M83">
+        <v>1.2120000000000001E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>130</v>
+      </c>
+      <c r="C84" t="s">
+        <v>83</v>
+      </c>
+      <c r="D84" t="s">
+        <v>78</v>
+      </c>
+      <c r="E84" t="s">
+        <v>131</v>
+      </c>
+      <c r="F84" t="s">
+        <v>181</v>
+      </c>
+      <c r="G84">
+        <v>2021</v>
+      </c>
+      <c r="H84" t="s">
+        <v>177</v>
+      </c>
+      <c r="I84" t="s">
+        <v>182</v>
+      </c>
+      <c r="J84" t="s">
+        <v>182</v>
+      </c>
+      <c r="K84" t="s">
+        <v>182</v>
+      </c>
+      <c r="L84">
+        <v>0.14015</v>
+      </c>
+      <c r="M84">
+        <v>0.14015</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>130</v>
+      </c>
+      <c r="C85" t="s">
+        <v>83</v>
+      </c>
+      <c r="D85" t="s">
+        <v>72</v>
+      </c>
+      <c r="E85" t="s">
+        <v>131</v>
+      </c>
+      <c r="F85" t="s">
+        <v>181</v>
+      </c>
+      <c r="G85">
+        <v>2021</v>
+      </c>
+      <c r="H85" t="s">
+        <v>177</v>
+      </c>
+      <c r="I85" t="s">
+        <v>182</v>
+      </c>
+      <c r="J85" t="s">
+        <v>182</v>
+      </c>
+      <c r="K85" t="s">
+        <v>182</v>
+      </c>
+      <c r="L85">
+        <v>5.7439999999999998E-2</v>
+      </c>
+      <c r="M85">
+        <v>5.7439999999999998E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>168</v>
+      </c>
+      <c r="B86" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" t="s">
+        <v>83</v>
+      </c>
+      <c r="D86" t="s">
+        <v>67</v>
+      </c>
+      <c r="E86" t="s">
+        <v>131</v>
+      </c>
+      <c r="F86" t="s">
+        <v>181</v>
+      </c>
+      <c r="G86">
+        <v>2021</v>
+      </c>
+      <c r="H86" t="s">
+        <v>177</v>
+      </c>
+      <c r="I86" t="s">
+        <v>182</v>
+      </c>
+      <c r="J86" t="s">
+        <v>182</v>
+      </c>
+      <c r="K86" t="s">
+        <v>182</v>
+      </c>
+      <c r="L86">
+        <v>6.7000000000000002E-4</v>
+      </c>
+      <c r="M86">
+        <v>6.7000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>168</v>
+      </c>
+      <c r="B87" t="s">
+        <v>130</v>
+      </c>
+      <c r="C87" t="s">
+        <v>83</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" t="s">
+        <v>131</v>
+      </c>
+      <c r="F87" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87">
+        <v>2021</v>
+      </c>
+      <c r="H87" t="s">
+        <v>177</v>
+      </c>
+      <c r="I87" t="s">
+        <v>182</v>
+      </c>
+      <c r="J87" t="s">
+        <v>182</v>
+      </c>
+      <c r="K87" t="s">
+        <v>182</v>
+      </c>
+      <c r="L87">
+        <v>3.9300000000000003E-3</v>
+      </c>
+      <c r="M87">
+        <v>3.9300000000000003E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_B_IND_Mitigations.xlsx
+++ b/SuppXLS/Scen_B_IND_Mitigations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model-VAv2\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\times-ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51DEF2EC-DA03-49A5-9713-93FD752A6C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0E32CA-FD18-47CE-AFC9-A815331D454F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -744,9 +744,6 @@
     <t>Biofuels max substitutions</t>
   </si>
   <si>
-    <t>~UC_T: UC_FLO</t>
-  </si>
-  <si>
     <t>IND*</t>
   </si>
   <si>
@@ -898,6 +895,9 @@
   </si>
   <si>
     <t>Bakytzhan Suleimenov (UCC, bsuleimenov@ucc.ie)</t>
+  </si>
+  <si>
+    <t>UC_T: UC_FLO</t>
   </si>
 </sst>
 </file>
@@ -1433,6 +1433,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1441,9 +1444,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2548,12 +2548,12 @@
       <c r="Z15" s="43"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
+      <c r="A16" s="65" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="65"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
       <c r="E16" s="44"/>
       <c r="F16" s="44"/>
       <c r="G16" s="45"/>
@@ -2635,13 +2635,13 @@
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="49" t="s">
-        <v>147</v>
-      </c>
-      <c r="B19" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+        <v>146</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>157</v>
+      </c>
+      <c r="C19" s="64"/>
+      <c r="D19" s="64"/>
       <c r="E19" s="50"/>
       <c r="F19" s="50"/>
       <c r="G19" s="51"/>
@@ -2667,13 +2667,13 @@
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="49" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
+        <v>147</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="64"/>
+      <c r="D20" s="64"/>
       <c r="E20" s="50"/>
       <c r="F20" s="50"/>
       <c r="G20" s="51"/>
@@ -2699,10 +2699,10 @@
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="49" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B21" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C21" s="52"/>
       <c r="D21" s="52"/>
@@ -2759,13 +2759,13 @@
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63"/>
+        <v>149</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
@@ -2791,11 +2791,11 @@
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="49"/>
-      <c r="B24" s="63" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="63"/>
-      <c r="D24" s="63"/>
+      <c r="B24" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="43"/>
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
@@ -2821,11 +2821,11 @@
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="49"/>
-      <c r="B25" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="63"/>
-      <c r="D25" s="63"/>
+      <c r="B25" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="64"/>
+      <c r="D25" s="64"/>
       <c r="E25" s="43"/>
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
@@ -2851,13 +2851,13 @@
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>163</v>
-      </c>
-      <c r="C26" s="63"/>
-      <c r="D26" s="63"/>
+        <v>150</v>
+      </c>
+      <c r="B26" s="64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="64"/>
+      <c r="D26" s="64"/>
       <c r="E26" s="43"/>
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
@@ -2884,7 +2884,7 @@
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="49"/>
       <c r="B27" s="52" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="52"/>
       <c r="D27" s="52"/>
@@ -2941,7 +2941,7 @@
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="49" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" s="53">
         <v>1</v>
@@ -2973,13 +2973,13 @@
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="66" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="65" t="s">
-        <v>154</v>
-      </c>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
       <c r="G30" s="43"/>
@@ -3005,13 +3005,13 @@
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="64" t="s">
         <v>155</v>
       </c>
-      <c r="B31" s="63" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
       <c r="G31" s="43"/>
@@ -3038,7 +3038,7 @@
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="55"/>
       <c r="B32" s="56" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -5735,7 +5735,7 @@
   <dimension ref="B1:AG147"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AC8" sqref="AC8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5790,16 +5790,16 @@
     </row>
     <row r="4" spans="2:33" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="str">
-        <f>"~TFM_TOPINS:"&amp;_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>~TFM_TOPINS:IE,National</v>
+        <f>"TFM_TOPINS:"&amp;_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>TFM_TOPINS:IE,National</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
       <c r="G4" s="7" t="str">
-        <f>"~TFM_INS-TS:"&amp;_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
-        <v>~TFM_INS-TS:IE,National</v>
+        <f>"TFM_INS-TS:"&amp;_xlfn.TEXTJOIN(",",TRUE,IF(LEFT(Regions!$C$3,1)&lt;&gt;"*",Regions!$C$3,""),IF(LEFT(Regions!$D$3,1)&lt;&gt;"*",Regions!$D$3,""))</f>
+        <v>TFM_INS-TS:IE,National</v>
       </c>
       <c r="R4" s="16" t="s">
         <v>134</v>
@@ -5809,7 +5809,7 @@
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="AA4" s="7" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="AB4" s="8"/>
       <c r="AC4" s="8"/>
@@ -5883,13 +5883,13 @@
         <v>64</v>
       </c>
       <c r="Z5" s="10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AA5" s="10" t="s">
         <v>60</v>
       </c>
       <c r="AB5" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC5" s="10">
         <v>2022</v>
@@ -5901,7 +5901,7 @@
         <v>2050</v>
       </c>
       <c r="AF5" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG5" s="10" t="s">
         <v>127</v>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M6" s="17"/>
       <c r="N6" s="17"/>
@@ -6008,10 +6008,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y7" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z7" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA7" s="22" t="s">
         <v>131</v>
@@ -6083,10 +6083,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y8" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z8" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA8" s="22" t="s">
         <v>131</v>
@@ -6174,7 +6174,7 @@
         <v>IND*</v>
       </c>
       <c r="Z9" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA9" s="22" t="str">
         <f>$AA$7</f>
@@ -6250,10 +6250,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y10" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z10" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA10" s="22" t="str">
         <f>$AA$7</f>
@@ -6332,7 +6332,7 @@
         <v>IND*</v>
       </c>
       <c r="Z11" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA11" s="22" t="str">
         <f>$AA$7</f>
@@ -6424,10 +6424,10 @@
         <v>I-DMD-NEM-E0</v>
       </c>
       <c r="Y12" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z12" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA12" s="22" t="str">
         <f>$AA$7</f>
@@ -6669,10 +6669,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y16" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z16" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA16" s="34" t="str">
         <f>$AA$20</f>
@@ -6738,10 +6738,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y17" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z17" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA17" s="34" t="str">
         <f>$AA$20</f>
@@ -6828,7 +6828,7 @@
         <v>IND*</v>
       </c>
       <c r="Z18" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA18" s="34" t="str">
         <f>$AA$20</f>
@@ -6900,10 +6900,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y19" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z19" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA19" s="34" t="str">
         <f>$AA$20</f>
@@ -6981,7 +6981,7 @@
         <v>IND*</v>
       </c>
       <c r="Z20" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA20" s="22" t="s">
         <v>131</v>
@@ -7055,10 +7055,10 @@
         <v>I-DMD-FAB-E0</v>
       </c>
       <c r="Y21" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z21" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA21" s="22" t="s">
         <v>131</v>
@@ -7491,10 +7491,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y29" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z29" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA29" s="34" t="str">
         <f>$AA$20</f>
@@ -7566,10 +7566,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y30" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z30" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA30" s="34" t="str">
         <f>$AA$20</f>
@@ -7656,7 +7656,7 @@
         <v>IND*</v>
       </c>
       <c r="Z31" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA31" s="34" t="str">
         <f>$AA$20</f>
@@ -7737,10 +7737,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y32" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z32" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA32" s="34" t="str">
         <f>$AA$20</f>
@@ -7812,7 +7812,7 @@
         <v>IND*</v>
       </c>
       <c r="Z33" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA33" s="22" t="s">
         <v>131</v>
@@ -7848,7 +7848,7 @@
         <v>76</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>109</v>
@@ -7901,10 +7901,10 @@
         <v>I-DMD-TAP-E0</v>
       </c>
       <c r="Y34" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z34" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA34" s="22" t="s">
         <v>131</v>
@@ -7934,7 +7934,7 @@
         <v>76</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E35" s="8" t="s">
         <v>110</v>
@@ -7994,7 +7994,7 @@
         <v>76</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E36" s="8" t="s">
         <v>80</v>
@@ -8055,10 +8055,10 @@
         <v>76</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E37" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G37" s="17" t="s">
         <v>98</v>
@@ -8144,10 +8144,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y38" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z38" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA38" s="34" t="str">
         <f>$AA$20</f>
@@ -8219,10 +8219,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y39" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z39" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA39" s="34" t="str">
         <f>$AA$20</f>
@@ -8309,7 +8309,7 @@
         <v>IND*</v>
       </c>
       <c r="Z40" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA40" s="34" t="str">
         <f>$AA$20</f>
@@ -8390,10 +8390,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y41" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z41" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA41" s="34" t="str">
         <f>$AA$20</f>
@@ -8465,7 +8465,7 @@
         <v>IND*</v>
       </c>
       <c r="Z42" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA42" s="22" t="s">
         <v>131</v>
@@ -8536,10 +8536,10 @@
         <v>I-DMD-WAP-E0</v>
       </c>
       <c r="Y43" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z43" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA43" s="22" t="s">
         <v>131</v>
@@ -8839,10 +8839,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y48" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z48" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA48" s="34" t="str">
         <f>$AA$20</f>
@@ -8914,10 +8914,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y49" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z49" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA49" s="34" t="str">
         <f>$AA$20</f>
@@ -8998,7 +8998,7 @@
         <v>IND*</v>
       </c>
       <c r="Z50" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA50" s="34" t="str">
         <f>$AA$20</f>
@@ -9079,10 +9079,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y51" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z51" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA51" s="34" t="str">
         <f>$AA$20</f>
@@ -9160,7 +9160,7 @@
         <v>IND*</v>
       </c>
       <c r="Z52" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA52" s="22" t="s">
         <v>131</v>
@@ -9249,10 +9249,10 @@
         <v>I-DMD-PX4-E0</v>
       </c>
       <c r="Y53" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z53" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA53" s="22" t="s">
         <v>131</v>
@@ -9492,10 +9492,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y57" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z57" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA57" s="34" t="str">
         <f>$AA$20</f>
@@ -9561,10 +9561,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y58" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z58" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA58" s="34" t="str">
         <f>$AA$20</f>
@@ -9642,7 +9642,7 @@
         <v>IND*</v>
       </c>
       <c r="Z59" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA59" s="34" t="str">
         <f>$AA$20</f>
@@ -9723,10 +9723,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y60" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z60" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA60" s="34" t="str">
         <f>$AA$20</f>
@@ -9804,7 +9804,7 @@
         <v>IND*</v>
       </c>
       <c r="Z61" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA61" s="22" t="s">
         <v>131</v>
@@ -9873,10 +9873,10 @@
         <v>I-DMD-CAF-E0</v>
       </c>
       <c r="Y62" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z62" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA62" s="22" t="s">
         <v>131</v>
@@ -10153,10 +10153,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y68" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z68" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA68" s="34" t="str">
         <f>$AA$20</f>
@@ -10216,10 +10216,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y69" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z69" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA69" s="34" t="str">
         <f>$AA$20</f>
@@ -10294,7 +10294,7 @@
         <v>IND*</v>
       </c>
       <c r="Z70" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA70" s="34" t="str">
         <f>$AA$20</f>
@@ -10363,10 +10363,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y71" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z71" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA71" s="34" t="str">
         <f>$AA$20</f>
@@ -10432,7 +10432,7 @@
         <v>IND*</v>
       </c>
       <c r="Z72" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA72" s="22" t="s">
         <v>131</v>
@@ -10509,10 +10509,10 @@
         <v>I-DMD-RAP-E0</v>
       </c>
       <c r="Y73" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z73" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA73" s="22" t="s">
         <v>131</v>
@@ -10673,7 +10673,7 @@
         <v>132</v>
       </c>
       <c r="J77" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>65</v>
@@ -10710,10 +10710,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y77" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z77" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA77" s="34" t="str">
         <f>$AA$20</f>
@@ -10753,7 +10753,7 @@
         <v>132</v>
       </c>
       <c r="J78" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K78" s="14" t="s">
         <v>67</v>
@@ -10782,10 +10782,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z78" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA78" s="34" t="str">
         <f>$AA$20</f>
@@ -10819,7 +10819,7 @@
         <v>132</v>
       </c>
       <c r="J79" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K79" s="14" t="s">
         <v>69</v>
@@ -10851,7 +10851,7 @@
         <v>IND*</v>
       </c>
       <c r="Z79" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA79" s="34" t="str">
         <f>$AA$20</f>
@@ -10891,7 +10891,7 @@
         <v>132</v>
       </c>
       <c r="J80" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>70</v>
@@ -10920,10 +10920,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y80" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z80" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA80" s="34" t="str">
         <f>$AA$20</f>
@@ -10957,7 +10957,7 @@
         <v>132</v>
       </c>
       <c r="J81" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>71</v>
@@ -10998,7 +10998,7 @@
         <v>IND*</v>
       </c>
       <c r="Z81" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA81" s="22" t="s">
         <v>131</v>
@@ -11037,7 +11037,7 @@
         <v>132</v>
       </c>
       <c r="J82" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K82" s="14" t="s">
         <v>72</v>
@@ -11066,10 +11066,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y82" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z82" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA82" s="22" t="s">
         <v>131</v>
@@ -11102,7 +11102,7 @@
         <v>132</v>
       </c>
       <c r="J83" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K83" s="14" t="s">
         <v>78</v>
@@ -11134,7 +11134,7 @@
         <v>IND*</v>
       </c>
       <c r="Z83" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA83" s="22" t="s">
         <v>131</v>
@@ -11173,7 +11173,7 @@
         <v>132</v>
       </c>
       <c r="J84" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K84" s="14" t="s">
         <v>81</v>
@@ -11214,10 +11214,10 @@
         <v>I-DMD-ONM-*</v>
       </c>
       <c r="Y84" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="Z84" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA84" s="22" t="s">
         <v>131</v>
@@ -11250,7 +11250,7 @@
         <v>132</v>
       </c>
       <c r="J85" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K85" s="14" t="s">
         <v>87</v>
@@ -11283,7 +11283,7 @@
         <v>132</v>
       </c>
       <c r="J86" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K86" s="14" t="s">
         <v>88</v>
@@ -11316,7 +11316,7 @@
         <v>132</v>
       </c>
       <c r="J87" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K87" s="14" t="s">
         <v>109</v>
@@ -11364,7 +11364,7 @@
         <v>132</v>
       </c>
       <c r="J88" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>110</v>
@@ -11412,7 +11412,7 @@
         <v>132</v>
       </c>
       <c r="J89" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>80</v>
@@ -11460,10 +11460,10 @@
         <v>132</v>
       </c>
       <c r="J90" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="K90" s="30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="L90" s="31">
         <f>+SUMIFS(Input_shares!$L$2:$L$87,Input_shares!$C$2:$C$87,IND_Shares!$J90,Input_shares!$D$2:$D$87,IND_Shares!$K90)</f>
@@ -11571,10 +11571,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y92" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z92" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA92" s="34" t="str">
         <f>$AA$20</f>
@@ -11643,10 +11643,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y93" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z93" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA93" s="34" t="str">
         <f>$AA$20</f>
@@ -11712,7 +11712,7 @@
         <v>IND*</v>
       </c>
       <c r="Z94" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA94" s="34" t="str">
         <f>$AA$20</f>
@@ -11772,10 +11772,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y95" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z95" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA95" s="34" t="str">
         <f>$AA$20</f>
@@ -11850,7 +11850,7 @@
         <v>IND*</v>
       </c>
       <c r="Z96" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA96" s="22" t="s">
         <v>131</v>
@@ -11927,10 +11927,10 @@
         <v>I-DMD-MAP-E0</v>
       </c>
       <c r="Y97" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z97" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA97" s="22" t="s">
         <v>131</v>
@@ -12197,10 +12197,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y103" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z103" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA103" s="34" t="str">
         <f>$AA$20</f>
@@ -12260,10 +12260,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y104" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z104" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA104" s="34" t="str">
         <f>$AA$20</f>
@@ -12338,7 +12338,7 @@
         <v>IND*</v>
       </c>
       <c r="Z105" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA105" s="34" t="str">
         <f>$AA$20</f>
@@ -12416,10 +12416,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y106" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z106" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA106" s="34" t="str">
         <f>$AA$20</f>
@@ -12494,7 +12494,7 @@
         <v>IND*</v>
       </c>
       <c r="Z107" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA107" s="22" t="s">
         <v>131</v>
@@ -12571,10 +12571,10 @@
         <v>I-DMD-MAE-E0</v>
       </c>
       <c r="Y108" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z108" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA108" s="22" t="s">
         <v>131</v>
@@ -12754,10 +12754,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y112" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z112" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA112" s="34" t="str">
         <f>$AA$20</f>
@@ -12817,10 +12817,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y113" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z113" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA113" s="34" t="str">
         <f>$AA$20</f>
@@ -12895,7 +12895,7 @@
         <v>IND*</v>
       </c>
       <c r="Z114" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA114" s="34" t="str">
         <f>$AA$20</f>
@@ -12973,10 +12973,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y115" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z115" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA115" s="34" t="str">
         <f>$AA$20</f>
@@ -13051,7 +13051,7 @@
         <v>IND*</v>
       </c>
       <c r="Z116" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA116" s="22" t="s">
         <v>131</v>
@@ -13128,10 +13128,10 @@
         <v>I-DMD-EOE-E0</v>
       </c>
       <c r="Y117" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z117" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA117" s="22" t="s">
         <v>131</v>
@@ -13311,10 +13311,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y121" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z121" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA121" s="34" t="str">
         <f>$AA$20</f>
@@ -13374,10 +13374,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y122" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z122" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA122" s="34" t="str">
         <f>$AA$20</f>
@@ -13452,7 +13452,7 @@
         <v>IND*</v>
       </c>
       <c r="Z123" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA123" s="34" t="str">
         <f>$AA$20</f>
@@ -13530,10 +13530,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y124" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z124" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA124" s="34" t="str">
         <f>$AA$20</f>
@@ -13608,7 +13608,7 @@
         <v>IND*</v>
       </c>
       <c r="Z125" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA125" s="22" t="s">
         <v>131</v>
@@ -13685,10 +13685,10 @@
         <v>I-DMD-TEM-E0</v>
       </c>
       <c r="Y126" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z126" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA126" s="22" t="s">
         <v>131</v>
@@ -13868,10 +13868,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y130" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z130" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA130" s="34" t="str">
         <f>$AA$20</f>
@@ -13931,10 +13931,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y131" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z131" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA131" s="34" t="str">
         <f>$AA$20</f>
@@ -14000,7 +14000,7 @@
         <v>IND*</v>
       </c>
       <c r="Z132" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA132" s="34" t="str">
         <f>$AA$20</f>
@@ -14069,10 +14069,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y133" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z133" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA133" s="34" t="str">
         <f>$AA$20</f>
@@ -14156,7 +14156,7 @@
         <v>IND*</v>
       </c>
       <c r="Z134" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA134" s="22" t="s">
         <v>131</v>
@@ -14224,10 +14224,10 @@
         <v>I-DMD-OMA-E0</v>
       </c>
       <c r="Y135" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z135" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA135" s="22" t="s">
         <v>131</v>
@@ -14455,10 +14455,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y140" s="22" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z140" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA140" s="34" t="str">
         <f>$AA$20</f>
@@ -14518,10 +14518,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y141" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Z141" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA141" s="34" t="str">
         <f>$AA$20</f>
@@ -14596,7 +14596,7 @@
         <v>IND*</v>
       </c>
       <c r="Z142" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA142" s="34" t="str">
         <f>$AA$20</f>
@@ -14674,10 +14674,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y143" s="22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Z143" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA143" s="34" t="str">
         <f>$AA$20</f>
@@ -14752,7 +14752,7 @@
         <v>IND*</v>
       </c>
       <c r="Z144" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA144" s="22" t="s">
         <v>131</v>
@@ -14829,10 +14829,10 @@
         <v>I-DMD-CON-E0</v>
       </c>
       <c r="Y145" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z145" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AA145" s="22" t="s">
         <v>131</v>
@@ -14947,8 +14947,8 @@
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="5" spans="3:11" x14ac:dyDescent="0.35">
-      <c r="C5" s="66" t="s">
-        <v>185</v>
+      <c r="C5" s="63" t="s">
+        <v>184</v>
       </c>
       <c r="D5" s="57"/>
       <c r="E5" s="57"/>
@@ -14961,7 +14961,7 @@
     </row>
     <row r="6" spans="3:11" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C6" s="59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D6" s="59" t="s">
         <v>60</v>
@@ -14970,19 +14970,19 @@
         <v>61</v>
       </c>
       <c r="F6" s="59" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G6" s="59" t="s">
         <v>62</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I6" s="59" t="s">
         <v>63</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="K6" s="59" t="s">
         <v>64</v>
@@ -14990,7 +14990,7 @@
     </row>
     <row r="7" spans="3:11" x14ac:dyDescent="0.35">
       <c r="C7" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D7" s="60"/>
       <c r="E7" s="61" t="s">
@@ -15004,7 +15004,7 @@
       </c>
       <c r="H7" s="62"/>
       <c r="I7" s="62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62"/>
@@ -15033,37 +15033,37 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>171</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>172</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>173</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>174</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>175</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>176</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>177</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>179</v>
-      </c>
-      <c r="K1" t="s">
-        <v>180</v>
       </c>
       <c r="L1" t="s">
         <v>1</v>
@@ -15074,7 +15074,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s">
         <v>130</v>
@@ -15089,22 +15089,22 @@
         <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2">
         <v>2021</v>
       </c>
       <c r="H2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L2">
         <v>3.0960000000000001E-2</v>
@@ -15115,7 +15115,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B3" t="s">
         <v>130</v>
@@ -15130,22 +15130,22 @@
         <v>131</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3">
         <v>2021</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L3">
         <v>1.8270000000000002E-2</v>
@@ -15156,7 +15156,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B4" t="s">
         <v>130</v>
@@ -15171,22 +15171,22 @@
         <v>131</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4">
         <v>2021</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L4">
         <v>0.36426999999999998</v>
@@ -15197,7 +15197,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>130</v>
@@ -15212,22 +15212,22 @@
         <v>131</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5">
         <v>2021</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L5">
         <v>0.56420999999999999</v>
@@ -15238,7 +15238,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -15253,22 +15253,22 @@
         <v>131</v>
       </c>
       <c r="F6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G6">
         <v>2021</v>
       </c>
       <c r="H6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L6">
         <v>5.1799999999999997E-3</v>
@@ -15279,7 +15279,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
@@ -15294,22 +15294,22 @@
         <v>131</v>
       </c>
       <c r="F7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7">
         <v>2021</v>
       </c>
       <c r="H7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L7">
         <v>1.48E-3</v>
@@ -15320,7 +15320,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s">
         <v>130</v>
@@ -15335,22 +15335,22 @@
         <v>131</v>
       </c>
       <c r="F8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G8">
         <v>2021</v>
       </c>
       <c r="H8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L8">
         <v>1.566E-2</v>
@@ -15361,7 +15361,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B9" t="s">
         <v>130</v>
@@ -15376,22 +15376,22 @@
         <v>131</v>
       </c>
       <c r="F9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G9">
         <v>2021</v>
       </c>
       <c r="H9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L9">
         <v>0.70487999999999995</v>
@@ -15402,7 +15402,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s">
         <v>130</v>
@@ -15417,22 +15417,22 @@
         <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G10">
         <v>2021</v>
       </c>
       <c r="H10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L10">
         <v>0.19336</v>
@@ -15443,7 +15443,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B11" t="s">
         <v>130</v>
@@ -15458,22 +15458,22 @@
         <v>131</v>
       </c>
       <c r="F11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G11">
         <v>2021</v>
       </c>
       <c r="H11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L11">
         <v>7.2489999999999999E-2</v>
@@ -15484,7 +15484,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s">
         <v>130</v>
@@ -15499,22 +15499,22 @@
         <v>131</v>
       </c>
       <c r="F12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G12">
         <v>2021</v>
       </c>
       <c r="H12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L12">
         <v>1.6049999999999998E-2</v>
@@ -15525,7 +15525,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s">
         <v>130</v>
@@ -15540,22 +15540,22 @@
         <v>131</v>
       </c>
       <c r="F13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G13">
         <v>2021</v>
       </c>
       <c r="H13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L13">
         <v>1.324E-2</v>
@@ -15566,7 +15566,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s">
         <v>130</v>
@@ -15581,22 +15581,22 @@
         <v>131</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G14">
         <v>2021</v>
       </c>
       <c r="H14" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L14">
         <v>4.4000000000000003E-3</v>
@@ -15607,7 +15607,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s">
         <v>130</v>
@@ -15622,22 +15622,22 @@
         <v>131</v>
       </c>
       <c r="F15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G15">
         <v>2021</v>
       </c>
       <c r="H15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L15">
         <v>0.80142000000000002</v>
@@ -15648,7 +15648,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>130</v>
@@ -15663,22 +15663,22 @@
         <v>131</v>
       </c>
       <c r="F16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G16">
         <v>2021</v>
       </c>
       <c r="H16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L16">
         <v>0.17746999999999999</v>
@@ -15689,7 +15689,7 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B17" t="s">
         <v>130</v>
@@ -15704,22 +15704,22 @@
         <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G17">
         <v>2021</v>
       </c>
       <c r="H17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L17">
         <v>2.2899999999999999E-3</v>
@@ -15730,7 +15730,7 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B18" t="s">
         <v>130</v>
@@ -15745,22 +15745,22 @@
         <v>131</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G18">
         <v>2021</v>
       </c>
       <c r="H18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L18">
         <v>1.4449999999999999E-2</v>
@@ -15771,7 +15771,7 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B19" t="s">
         <v>130</v>
@@ -15786,22 +15786,22 @@
         <v>131</v>
       </c>
       <c r="F19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G19">
         <v>2021</v>
       </c>
       <c r="H19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L19">
         <v>1.274E-2</v>
@@ -15812,7 +15812,7 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B20" t="s">
         <v>130</v>
@@ -15827,22 +15827,22 @@
         <v>131</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G20">
         <v>2021</v>
       </c>
       <c r="H20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L20">
         <v>4.0309999999999999E-2</v>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
         <v>130</v>
@@ -15868,22 +15868,22 @@
         <v>131</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G21">
         <v>2021</v>
       </c>
       <c r="H21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s">
         <v>130</v>
@@ -15909,22 +15909,22 @@
         <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G22">
         <v>2021</v>
       </c>
       <c r="H22" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L22">
         <v>2.315E-2</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s">
         <v>130</v>
@@ -15950,22 +15950,22 @@
         <v>131</v>
       </c>
       <c r="F23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G23">
         <v>2021</v>
       </c>
       <c r="H23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L23">
         <v>0.18647</v>
@@ -15976,7 +15976,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s">
         <v>130</v>
@@ -15991,22 +15991,22 @@
         <v>131</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G24">
         <v>2021</v>
       </c>
       <c r="H24" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L24">
         <v>0.62682000000000004</v>
@@ -16017,7 +16017,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B25" t="s">
         <v>130</v>
@@ -16032,22 +16032,22 @@
         <v>131</v>
       </c>
       <c r="F25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G25">
         <v>2021</v>
       </c>
       <c r="H25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L25">
         <v>3.3480000000000003E-2</v>
@@ -16058,7 +16058,7 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B26" t="s">
         <v>130</v>
@@ -16073,22 +16073,22 @@
         <v>131</v>
       </c>
       <c r="F26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26">
         <v>2021</v>
       </c>
       <c r="H26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L26">
         <v>3.3400000000000001E-3</v>
@@ -16099,7 +16099,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
         <v>130</v>
@@ -16114,22 +16114,22 @@
         <v>131</v>
       </c>
       <c r="F27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G27">
         <v>2021</v>
       </c>
       <c r="H27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L27">
         <v>7.3730000000000004E-2</v>
@@ -16140,7 +16140,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s">
         <v>130</v>
@@ -16155,22 +16155,22 @@
         <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G28">
         <v>2021</v>
       </c>
       <c r="H28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -16181,7 +16181,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B29" t="s">
         <v>130</v>
@@ -16196,22 +16196,22 @@
         <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G29">
         <v>2021</v>
       </c>
       <c r="H29" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L29">
         <v>3.7220000000000003E-2</v>
@@ -16222,7 +16222,7 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
         <v>130</v>
@@ -16237,22 +16237,22 @@
         <v>131</v>
       </c>
       <c r="F30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G30">
         <v>2021</v>
       </c>
       <c r="H30" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L30">
         <v>0.47877999999999998</v>
@@ -16263,7 +16263,7 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B31" t="s">
         <v>130</v>
@@ -16278,22 +16278,22 @@
         <v>131</v>
       </c>
       <c r="F31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G31">
         <v>2021</v>
       </c>
       <c r="H31" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L31">
         <v>0.42292000000000002</v>
@@ -16304,7 +16304,7 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" t="s">
         <v>130</v>
@@ -16319,22 +16319,22 @@
         <v>131</v>
       </c>
       <c r="F32" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G32">
         <v>2021</v>
       </c>
       <c r="H32" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L32">
         <v>8.5299999999999994E-3</v>
@@ -16345,7 +16345,7 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B33" t="s">
         <v>130</v>
@@ -16360,22 +16360,22 @@
         <v>131</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G33">
         <v>2021</v>
       </c>
       <c r="H33" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L33">
         <v>5.2569999999999999E-2</v>
@@ -16386,7 +16386,7 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B34" t="s">
         <v>130</v>
@@ -16401,22 +16401,22 @@
         <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G34">
         <v>2021</v>
       </c>
       <c r="H34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -16427,7 +16427,7 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B35" t="s">
         <v>130</v>
@@ -16442,22 +16442,22 @@
         <v>131</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G35">
         <v>2021</v>
       </c>
       <c r="H35" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L35">
         <v>3.5799999999999998E-3</v>
@@ -16468,7 +16468,7 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B36" t="s">
         <v>130</v>
@@ -16483,22 +16483,22 @@
         <v>131</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G36">
         <v>2021</v>
       </c>
       <c r="H36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L36">
         <v>0.12481</v>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B37" t="s">
         <v>130</v>
@@ -16524,22 +16524,22 @@
         <v>131</v>
       </c>
       <c r="F37" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G37">
         <v>2021</v>
       </c>
       <c r="H37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L37">
         <v>0.86648000000000003</v>
@@ -16550,7 +16550,7 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B38" t="s">
         <v>130</v>
@@ -16565,22 +16565,22 @@
         <v>131</v>
       </c>
       <c r="F38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G38">
         <v>2021</v>
       </c>
       <c r="H38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L38">
         <v>1.6100000000000001E-3</v>
@@ -16591,7 +16591,7 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
         <v>130</v>
@@ -16606,22 +16606,22 @@
         <v>131</v>
       </c>
       <c r="F39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G39">
         <v>2021</v>
       </c>
       <c r="H39" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K39" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L39">
         <v>8.9999999999999998E-4</v>
@@ -16632,7 +16632,7 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B40" t="s">
         <v>130</v>
@@ -16647,22 +16647,22 @@
         <v>131</v>
       </c>
       <c r="F40" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G40">
         <v>2021</v>
       </c>
       <c r="H40" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L40">
         <v>2.64E-3</v>
@@ -16673,7 +16673,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B41" t="s">
         <v>130</v>
@@ -16688,22 +16688,22 @@
         <v>131</v>
       </c>
       <c r="F41" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G41">
         <v>2021</v>
       </c>
       <c r="H41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L41">
         <v>0.43919999999999998</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B42" t="s">
         <v>130</v>
@@ -16729,22 +16729,22 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G42">
         <v>2021</v>
       </c>
       <c r="H42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L42">
         <v>0.34991</v>
@@ -16755,7 +16755,7 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B43" t="s">
         <v>130</v>
@@ -16770,22 +16770,22 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G43">
         <v>2021</v>
       </c>
       <c r="H43" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K43" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L43">
         <v>0.20813999999999999</v>
@@ -16796,7 +16796,7 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
         <v>130</v>
@@ -16811,22 +16811,22 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G44">
         <v>2021</v>
       </c>
       <c r="H44" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L44">
         <v>2.5200000000000001E-3</v>
@@ -16837,7 +16837,7 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
         <v>130</v>
@@ -16852,22 +16852,22 @@
         <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G45">
         <v>2021</v>
       </c>
       <c r="H45" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K45" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L45">
         <v>2.4000000000000001E-4</v>
@@ -16878,7 +16878,7 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B46" t="s">
         <v>130</v>
@@ -16893,22 +16893,22 @@
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G46">
         <v>2021</v>
       </c>
       <c r="H46" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L46">
         <v>1.7080000000000001E-2</v>
@@ -16919,7 +16919,7 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B47" t="s">
         <v>130</v>
@@ -16934,22 +16934,22 @@
         <v>131</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G47">
         <v>2021</v>
       </c>
       <c r="H47" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L47">
         <v>0.46919</v>
@@ -16960,7 +16960,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
         <v>130</v>
@@ -16975,22 +16975,22 @@
         <v>131</v>
       </c>
       <c r="F48" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G48">
         <v>2021</v>
       </c>
       <c r="H48" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L48">
         <v>0.42902000000000001</v>
@@ -17001,7 +17001,7 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B49" t="s">
         <v>130</v>
@@ -17016,22 +17016,22 @@
         <v>131</v>
       </c>
       <c r="F49" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G49">
         <v>2021</v>
       </c>
       <c r="H49" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L49">
         <v>3.0630000000000001E-2</v>
@@ -17042,7 +17042,7 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
         <v>130</v>
@@ -17057,22 +17057,22 @@
         <v>131</v>
       </c>
       <c r="F50" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G50">
         <v>2021</v>
       </c>
       <c r="H50" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L50">
         <v>3.7599999999999999E-3</v>
@@ -17083,7 +17083,7 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B51" t="s">
         <v>130</v>
@@ -17098,22 +17098,22 @@
         <v>131</v>
       </c>
       <c r="F51" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G51">
         <v>2021</v>
       </c>
       <c r="H51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L51">
         <v>5.0340000000000003E-2</v>
@@ -17124,13 +17124,13 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B52" t="s">
         <v>130</v>
       </c>
       <c r="C52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D52" t="s">
         <v>81</v>
@@ -17139,22 +17139,22 @@
         <v>131</v>
       </c>
       <c r="F52" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G52">
         <v>2021</v>
       </c>
       <c r="H52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L52">
         <v>5.9199999999999999E-3</v>
@@ -17165,13 +17165,13 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
         <v>130</v>
       </c>
       <c r="C53" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D53" t="s">
         <v>65</v>
@@ -17180,22 +17180,22 @@
         <v>131</v>
       </c>
       <c r="F53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53">
         <v>2021</v>
       </c>
       <c r="H53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K53" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L53">
         <v>0.20257</v>
@@ -17206,13 +17206,13 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B54" t="s">
         <v>130</v>
       </c>
       <c r="C54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D54" t="s">
         <v>71</v>
@@ -17221,22 +17221,22 @@
         <v>131</v>
       </c>
       <c r="F54" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G54">
         <v>2021</v>
       </c>
       <c r="H54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L54">
         <v>0.31075000000000003</v>
@@ -17247,13 +17247,13 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
         <v>130</v>
       </c>
       <c r="C55" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D55" t="s">
         <v>70</v>
@@ -17262,22 +17262,22 @@
         <v>131</v>
       </c>
       <c r="F55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G55">
         <v>2021</v>
       </c>
       <c r="H55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L55">
         <v>2.8510000000000001E-2</v>
@@ -17288,13 +17288,13 @@
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
         <v>130</v>
       </c>
       <c r="C56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D56" t="s">
         <v>78</v>
@@ -17303,22 +17303,22 @@
         <v>131</v>
       </c>
       <c r="F56" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G56">
         <v>2021</v>
       </c>
       <c r="H56" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L56">
         <v>0.14044000000000001</v>
@@ -17329,13 +17329,13 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B57" t="s">
         <v>130</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" t="s">
         <v>72</v>
@@ -17344,22 +17344,22 @@
         <v>131</v>
       </c>
       <c r="F57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G57">
         <v>2021</v>
       </c>
       <c r="H57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L57">
         <v>7.646E-2</v>
@@ -17370,13 +17370,13 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B58" t="s">
         <v>130</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" t="s">
         <v>67</v>
@@ -17385,22 +17385,22 @@
         <v>131</v>
       </c>
       <c r="F58" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G58">
         <v>2021</v>
       </c>
       <c r="H58" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L58">
         <v>2.2399999999999998E-3</v>
@@ -17411,13 +17411,13 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B59" t="s">
         <v>130</v>
       </c>
       <c r="C59" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D59" t="s">
         <v>69</v>
@@ -17426,22 +17426,22 @@
         <v>131</v>
       </c>
       <c r="F59" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G59">
         <v>2021</v>
       </c>
       <c r="H59" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K59" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L59">
         <v>5.2599999999999999E-3</v>
@@ -17452,13 +17452,13 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
         <v>130</v>
       </c>
       <c r="C60" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
         <v>88</v>
@@ -17467,22 +17467,22 @@
         <v>131</v>
       </c>
       <c r="F60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G60">
         <v>2021</v>
       </c>
       <c r="H60" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L60">
         <v>0.12218999999999999</v>
@@ -17493,13 +17493,13 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
         <v>130</v>
       </c>
       <c r="C61" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" t="s">
         <v>87</v>
@@ -17508,22 +17508,22 @@
         <v>131</v>
       </c>
       <c r="F61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G61">
         <v>2021</v>
       </c>
       <c r="H61" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L61">
         <v>0.10571999999999999</v>
@@ -17534,7 +17534,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B62" t="s">
         <v>130</v>
@@ -17549,22 +17549,22 @@
         <v>131</v>
       </c>
       <c r="F62" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G62">
         <v>2021</v>
       </c>
       <c r="H62" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L62">
         <v>2.1319999999999999E-2</v>
@@ -17575,7 +17575,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s">
         <v>130</v>
@@ -17590,22 +17590,22 @@
         <v>131</v>
       </c>
       <c r="F63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G63">
         <v>2021</v>
       </c>
       <c r="H63" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K63" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L63">
         <v>0.45951999999999998</v>
@@ -17616,7 +17616,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B64" t="s">
         <v>130</v>
@@ -17631,22 +17631,22 @@
         <v>131</v>
       </c>
       <c r="F64" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G64">
         <v>2021</v>
       </c>
       <c r="H64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K64" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L64">
         <v>0.48913000000000001</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B65" t="s">
         <v>130</v>
@@ -17672,22 +17672,22 @@
         <v>131</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G65">
         <v>2021</v>
       </c>
       <c r="H65" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K65" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L65">
         <v>2.5899999999999999E-3</v>
@@ -17698,7 +17698,7 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B66" t="s">
         <v>130</v>
@@ -17713,22 +17713,22 @@
         <v>131</v>
       </c>
       <c r="F66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G66">
         <v>2021</v>
       </c>
       <c r="H66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K66" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L66">
         <v>2.7470000000000001E-2</v>
@@ -17739,7 +17739,7 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B67" t="s">
         <v>130</v>
@@ -17754,22 +17754,22 @@
         <v>131</v>
       </c>
       <c r="F67" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G67">
         <v>2021</v>
       </c>
       <c r="H67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L67">
         <v>2.3689999999999999E-2</v>
@@ -17780,7 +17780,7 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B68" t="s">
         <v>130</v>
@@ -17795,22 +17795,22 @@
         <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G68">
         <v>2021</v>
       </c>
       <c r="H68" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K68" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L68">
         <v>0.56598999999999999</v>
@@ -17821,7 +17821,7 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B69" t="s">
         <v>130</v>
@@ -17836,22 +17836,22 @@
         <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G69">
         <v>2021</v>
       </c>
       <c r="H69" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L69">
         <v>0.33373999999999998</v>
@@ -17862,7 +17862,7 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B70" t="s">
         <v>130</v>
@@ -17877,22 +17877,22 @@
         <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G70">
         <v>2021</v>
       </c>
       <c r="H70" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K70" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L70">
         <v>1.891E-2</v>
@@ -17903,7 +17903,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B71" t="s">
         <v>130</v>
@@ -17918,22 +17918,22 @@
         <v>131</v>
       </c>
       <c r="F71" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G71">
         <v>2021</v>
       </c>
       <c r="H71" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K71" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L71">
         <v>5.7700000000000001E-2</v>
@@ -17944,7 +17944,7 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B72" t="s">
         <v>130</v>
@@ -17959,22 +17959,22 @@
         <v>131</v>
       </c>
       <c r="F72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G72">
         <v>2021</v>
       </c>
       <c r="H72" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L72">
         <v>2.018E-2</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
         <v>130</v>
@@ -18000,22 +18000,22 @@
         <v>131</v>
       </c>
       <c r="F73" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G73">
         <v>2021</v>
       </c>
       <c r="H73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L73">
         <v>0.18342</v>
@@ -18026,7 +18026,7 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B74" t="s">
         <v>130</v>
@@ -18041,22 +18041,22 @@
         <v>131</v>
       </c>
       <c r="F74" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G74">
         <v>2021</v>
       </c>
       <c r="H74" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L74">
         <v>0.69152000000000002</v>
@@ -18067,7 +18067,7 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B75" t="s">
         <v>130</v>
@@ -18082,22 +18082,22 @@
         <v>131</v>
       </c>
       <c r="F75" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G75">
         <v>2021</v>
       </c>
       <c r="H75" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L75">
         <v>5.5000000000000003E-4</v>
@@ -18108,7 +18108,7 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B76" t="s">
         <v>130</v>
@@ -18123,22 +18123,22 @@
         <v>131</v>
       </c>
       <c r="F76" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G76">
         <v>2021</v>
       </c>
       <c r="H76" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L76">
         <v>0.10435999999999999</v>
@@ -18149,7 +18149,7 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B77" t="s">
         <v>130</v>
@@ -18164,22 +18164,22 @@
         <v>131</v>
       </c>
       <c r="F77" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G77">
         <v>2021</v>
       </c>
       <c r="H77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L77">
         <v>4.5650000000000003E-2</v>
@@ -18190,7 +18190,7 @@
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B78" t="s">
         <v>130</v>
@@ -18205,22 +18205,22 @@
         <v>131</v>
       </c>
       <c r="F78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G78">
         <v>2021</v>
       </c>
       <c r="H78" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L78">
         <v>0.57218000000000002</v>
@@ -18231,7 +18231,7 @@
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B79" t="s">
         <v>130</v>
@@ -18246,22 +18246,22 @@
         <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G79">
         <v>2021</v>
       </c>
       <c r="H79" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L79">
         <v>0.20462</v>
@@ -18272,7 +18272,7 @@
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B80" t="s">
         <v>130</v>
@@ -18287,22 +18287,22 @@
         <v>131</v>
       </c>
       <c r="F80" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G80">
         <v>2021</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L80">
         <v>1.34E-2</v>
@@ -18313,7 +18313,7 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s">
         <v>130</v>
@@ -18328,22 +18328,22 @@
         <v>131</v>
       </c>
       <c r="F81" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G81">
         <v>2021</v>
       </c>
       <c r="H81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L81">
         <v>0.16417999999999999</v>
@@ -18354,7 +18354,7 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B82" t="s">
         <v>130</v>
@@ -18369,22 +18369,22 @@
         <v>131</v>
       </c>
       <c r="F82" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G82">
         <v>2021</v>
       </c>
       <c r="H82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L82">
         <v>0.78573000000000004</v>
@@ -18395,7 +18395,7 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
         <v>130</v>
@@ -18410,22 +18410,22 @@
         <v>131</v>
       </c>
       <c r="F83" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G83">
         <v>2021</v>
       </c>
       <c r="H83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L83">
         <v>1.2120000000000001E-2</v>
@@ -18436,7 +18436,7 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B84" t="s">
         <v>130</v>
@@ -18451,22 +18451,22 @@
         <v>131</v>
       </c>
       <c r="F84" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G84">
         <v>2021</v>
       </c>
       <c r="H84" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K84" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L84">
         <v>0.14015</v>
@@ -18477,7 +18477,7 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B85" t="s">
         <v>130</v>
@@ -18492,22 +18492,22 @@
         <v>131</v>
       </c>
       <c r="F85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G85">
         <v>2021</v>
       </c>
       <c r="H85" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K85" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L85">
         <v>5.7439999999999998E-2</v>
@@ -18518,7 +18518,7 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B86" t="s">
         <v>130</v>
@@ -18533,22 +18533,22 @@
         <v>131</v>
       </c>
       <c r="F86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G86">
         <v>2021</v>
       </c>
       <c r="H86" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L86">
         <v>6.7000000000000002E-4</v>
@@ -18559,7 +18559,7 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B87" t="s">
         <v>130</v>
@@ -18574,22 +18574,22 @@
         <v>131</v>
       </c>
       <c r="F87" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G87">
         <v>2021</v>
       </c>
       <c r="H87" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K87" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L87">
         <v>3.9300000000000003E-3</v>
